--- a/EC/Train Runs and Enforcements 2016-06-05.xlsx
+++ b/EC/Train Runs and Enforcements 2016-06-05.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235"/>
   </bookViews>
   <sheets>
     <sheet name="Train Runs" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1530" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="440">
   <si>
     <t>Train ID</t>
   </si>
@@ -1355,18 +1355,6 @@
     <t>REBOLETTI</t>
   </si>
   <si>
-    <t>Wimax Gap</t>
-  </si>
-  <si>
-    <t>Navigation Location lost at DUS</t>
-  </si>
-  <si>
-    <t>Signal unknown EC0629XH 64-2T 2N</t>
-  </si>
-  <si>
-    <t>TBD</t>
-  </si>
-  <si>
     <t>Onboard recorded speeds of 85.06</t>
   </si>
   <si>
@@ -1377,6 +1365,15 @@
   </si>
   <si>
     <t>Signal Stop with Warning</t>
+  </si>
+  <si>
+    <t>GPS</t>
+  </si>
+  <si>
+    <t>Onboard Comms</t>
+  </si>
+  <si>
+    <t>Onboard comms</t>
   </si>
 </sst>
 </file>
@@ -2294,8 +2291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CK166"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R153" sqref="R153"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R46" sqref="R46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2523,7 +2520,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="60" t="str">
-        <f t="shared" ref="K3" si="0">IF(ISEVEN(B3),(B3-1)&amp;"/"&amp;B3,B3&amp;"/"&amp;(B3+1))</f>
+        <f t="shared" ref="K3:K34" si="0">IF(ISEVEN(B3),(B3-1)&amp;"/"&amp;B3,B3&amp;"/"&amp;(B3+1))</f>
         <v>4011/4012</v>
       </c>
       <c r="L3" s="60" t="str">
@@ -2531,11 +2528,11 @@
         <v>BRABO</v>
       </c>
       <c r="M3" s="12">
-        <f t="shared" ref="M3" si="1">I3-F3</f>
+        <f t="shared" ref="M3:M34" si="1">I3-F3</f>
         <v>3.3726851848769002E-2</v>
       </c>
       <c r="N3" s="13">
-        <f t="shared" ref="N3:P66" si="2">24*60*SUM($M3:$M3)</f>
+        <f t="shared" ref="N3:N12" si="2">24*60*SUM($M3:$M3)</f>
         <v>48.566666662227362</v>
       </c>
       <c r="O3" s="13"/>
@@ -2543,27 +2540,27 @@
       <c r="Q3" s="61"/>
       <c r="R3" s="61"/>
       <c r="T3" s="73" t="str">
-        <f t="shared" ref="T3" si="3">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E3-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I3+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B3&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" ref="T3:T34" si="3">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E3-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I3+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B3&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 03:04:19-0600',mode:absolute,to:'2016-06-05 03:56:45-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4011%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U3" s="73" t="str">
-        <f t="shared" ref="U3" si="4">IF(Y3&lt;23,"Y","N")</f>
+        <f t="shared" ref="U3:U34" si="4">IF(Y3&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V3" s="73" t="e">
-        <f>VALUE(LEFT(A3,3))-VALUE(LEFT(A2,3))</f>
+        <f t="shared" ref="V3:V34" si="5">VALUE(LEFT(A3,3))-VALUE(LEFT(A2,3))</f>
         <v>#VALUE!</v>
       </c>
       <c r="W3" s="73">
-        <f t="shared" ref="W3" si="5">RIGHT(D3,LEN(D3)-4)/10000</f>
+        <f t="shared" ref="W3:W12" si="6">RIGHT(D3,LEN(D3)-4)/10000</f>
         <v>6.7699999999999996E-2</v>
       </c>
       <c r="X3" s="73">
-        <f t="shared" ref="X3" si="6">RIGHT(H3,LEN(H3)-4)/10000</f>
+        <f t="shared" ref="X3:X12" si="7">RIGHT(H3,LEN(H3)-4)/10000</f>
         <v>23.333200000000001</v>
       </c>
       <c r="Y3" s="73">
-        <f t="shared" ref="Y3" si="7">ABS(X3-W3)</f>
+        <f t="shared" ref="Y3:Y34" si="8">ABS(X3-W3)</f>
         <v>23.265500000000003</v>
       </c>
       <c r="Z3" s="74">
@@ -2607,7 +2604,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="60" t="str">
-        <f t="shared" ref="K4:K80" si="8">IF(ISEVEN(B4),(B4-1)&amp;"/"&amp;B4,B4&amp;"/"&amp;(B4+1))</f>
+        <f t="shared" si="0"/>
         <v>4031/4032</v>
       </c>
       <c r="L4" s="60" t="str">
@@ -2615,7 +2612,7 @@
         <v>BRABO</v>
       </c>
       <c r="M4" s="12">
-        <f t="shared" ref="M4:M80" si="9">I4-F4</f>
+        <f t="shared" si="1"/>
         <v>3.5196759257814847E-2</v>
       </c>
       <c r="N4" s="13">
@@ -2627,27 +2624,27 @@
       <c r="Q4" s="61"/>
       <c r="R4" s="61"/>
       <c r="T4" s="73" t="str">
-        <f t="shared" ref="T4:T63" si="10">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E4-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I4+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B4&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="3"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 03:59:31-0600',mode:absolute,to:'2016-06-05 04:53:37-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4032%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U4" s="73" t="str">
-        <f t="shared" ref="U4:U63" si="11">IF(Y4&lt;23,"Y","N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="V4" s="73">
-        <f t="shared" ref="V4:V63" si="12">VALUE(LEFT(A4,3))-VALUE(LEFT(A3,3))</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="W4" s="73">
-        <f t="shared" ref="W4:W63" si="13">RIGHT(D4,LEN(D4)-4)/10000</f>
+        <f t="shared" si="6"/>
         <v>23.2698</v>
       </c>
       <c r="X4" s="73">
-        <f t="shared" ref="X4:X63" si="14">RIGHT(H4,LEN(H4)-4)/10000</f>
+        <f t="shared" si="7"/>
         <v>1.2699999999999999E-2</v>
       </c>
       <c r="Y4" s="73">
-        <f t="shared" ref="Y4:Y63" si="15">ABS(X4-W4)</f>
+        <f t="shared" si="8"/>
         <v>23.257100000000001</v>
       </c>
       <c r="Z4" s="74" t="e">
@@ -2691,7 +2688,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="60" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>4027/4028</v>
       </c>
       <c r="L5" s="60" t="str">
@@ -2699,7 +2696,7 @@
         <v>STURGEON</v>
       </c>
       <c r="M5" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>2.9212962966994382E-2</v>
       </c>
       <c r="N5" s="13">
@@ -2711,27 +2708,27 @@
       <c r="Q5" s="61"/>
       <c r="R5" s="61"/>
       <c r="T5" s="73" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 03:32:21-0600',mode:absolute,to:'2016-06-05 04:23:45-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4027%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U5" s="73" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="V5" s="73">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="W5" s="73">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>7.5399999999999995E-2</v>
       </c>
       <c r="X5" s="73">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>23.3276</v>
       </c>
       <c r="Y5" s="73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>23.252200000000002</v>
       </c>
       <c r="Z5" s="74" t="e">
@@ -2775,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="60" t="str">
-        <f t="shared" ref="K6" si="16">IF(ISEVEN(B6),(B6-1)&amp;"/"&amp;B6,B6&amp;"/"&amp;(B6+1))</f>
+        <f t="shared" si="0"/>
         <v>4039/4040</v>
       </c>
       <c r="L6" s="60" t="str">
@@ -2783,7 +2780,7 @@
         <v>STURGEON</v>
       </c>
       <c r="M6" s="12">
-        <f t="shared" ref="M6" si="17">I6-F6</f>
+        <f t="shared" si="1"/>
         <v>3.5057870372838806E-2</v>
       </c>
       <c r="N6" s="13">
@@ -2795,27 +2792,27 @@
       <c r="Q6" s="61"/>
       <c r="R6" s="61"/>
       <c r="T6" s="73" t="str">
-        <f t="shared" ref="T6:T7" si="18">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E6-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I6+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B6&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="3"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 04:31:47-0600',mode:absolute,to:'2016-06-05 05:26:16-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4039%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U6" s="73" t="str">
-        <f t="shared" ref="U6:U7" si="19">IF(Y6&lt;23,"Y","N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="V6" s="73">
-        <f t="shared" ref="V6:V7" si="20">VALUE(LEFT(A6,3))-VALUE(LEFT(A5,3))</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="W6" s="73">
-        <f t="shared" ref="W6:W7" si="21">RIGHT(D6,LEN(D6)-4)/10000</f>
+        <f t="shared" si="6"/>
         <v>23.263200000000001</v>
       </c>
       <c r="X6" s="73">
-        <f t="shared" ref="X6:X7" si="22">RIGHT(H6,LEN(H6)-4)/10000</f>
+        <f t="shared" si="7"/>
         <v>1.6E-2</v>
       </c>
       <c r="Y6" s="73">
-        <f t="shared" ref="Y6:Y7" si="23">ABS(X6-W6)</f>
+        <f t="shared" si="8"/>
         <v>23.247200000000003</v>
       </c>
       <c r="Z6" s="74" t="e">
@@ -2856,7 +2853,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="60" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>4023/4024</v>
       </c>
       <c r="L7" s="60" t="str">
@@ -2864,7 +2861,7 @@
         <v>GOODNIGHT</v>
       </c>
       <c r="M7" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>3.2754629632108845E-2</v>
       </c>
       <c r="N7" s="13">
@@ -2876,27 +2873,27 @@
       <c r="Q7" s="61"/>
       <c r="R7" s="61"/>
       <c r="T7" s="73" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="3"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 04:03:11-0600',mode:absolute,to:'2016-06-05 04:53:57-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U7" s="73" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="V7" s="73">
-        <f t="shared" si="20"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="W7" s="73">
-        <f t="shared" si="21"/>
+        <f t="shared" si="6"/>
         <v>7.5399999999999995E-2</v>
       </c>
       <c r="X7" s="73">
-        <f t="shared" si="22"/>
+        <f t="shared" si="7"/>
         <v>23.342099999999999</v>
       </c>
       <c r="Y7" s="73">
-        <f t="shared" si="23"/>
+        <f t="shared" si="8"/>
         <v>23.2667</v>
       </c>
       <c r="Z7" s="74" t="e">
@@ -2940,7 +2937,7 @@
         <v>1</v>
       </c>
       <c r="K8" s="60" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>4019/4020</v>
       </c>
       <c r="L8" s="60" t="str">
@@ -2948,7 +2945,7 @@
         <v>GOODNIGHT</v>
       </c>
       <c r="M8" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>3.0555555560567882E-2</v>
       </c>
       <c r="N8" s="13">
@@ -2960,27 +2957,27 @@
       <c r="Q8" s="61"/>
       <c r="R8" s="61"/>
       <c r="T8" s="73" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 05:02:36-0600',mode:absolute,to:'2016-06-05 05:50:02-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U8" s="73" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="V8" s="73">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="W8" s="73">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>23.278300000000002</v>
       </c>
       <c r="X8" s="73">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>2.87E-2</v>
       </c>
       <c r="Y8" s="73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>23.249600000000001</v>
       </c>
       <c r="Z8" s="74">
@@ -3024,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="60" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>4009/4010</v>
       </c>
       <c r="L9" s="60" t="str">
@@ -3032,7 +3029,7 @@
         <v>SANTIZO</v>
       </c>
       <c r="M9" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>2.7094907403807156E-2</v>
       </c>
       <c r="N9" s="13">
@@ -3044,27 +3041,27 @@
       <c r="Q9" s="61"/>
       <c r="R9" s="61"/>
       <c r="T9" s="73" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 04:31:26-0600',mode:absolute,to:'2016-06-05 05:14:14-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4009%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U9" s="73" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="V9" s="73">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="W9" s="73">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="X9" s="73">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>23.328399999999998</v>
       </c>
       <c r="Y9" s="73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>23.284399999999998</v>
       </c>
       <c r="Z9" s="74" t="e">
@@ -3108,7 +3105,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="60" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>4009/4010</v>
       </c>
       <c r="L10" s="60" t="str">
@@ -3116,7 +3113,7 @@
         <v>SANTIZO</v>
       </c>
       <c r="M10" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>2.9212962959718425E-2</v>
       </c>
       <c r="N10" s="13">
@@ -3128,27 +3125,27 @@
       <c r="Q10" s="61"/>
       <c r="R10" s="61"/>
       <c r="T10" s="73" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 05:20:51-0600',mode:absolute,to:'2016-06-05 06:06:30-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4010%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U10" s="73" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="V10" s="73">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="W10" s="73">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>23.2959</v>
       </c>
       <c r="X10" s="73">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>1.54E-2</v>
       </c>
       <c r="Y10" s="73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>23.2805</v>
       </c>
       <c r="Z10" s="74" t="e">
@@ -3192,7 +3189,7 @@
         <v>2</v>
       </c>
       <c r="K11" s="60" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>4017/4018</v>
       </c>
       <c r="L11" s="60" t="str">
@@ -3200,7 +3197,7 @@
         <v>MALAVE</v>
       </c>
       <c r="M11" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>2.8402777774317656E-2</v>
       </c>
       <c r="N11" s="13">
@@ -3212,27 +3209,27 @@
       <c r="Q11" s="61"/>
       <c r="R11" s="61"/>
       <c r="T11" s="73" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 04:47:54-0600',mode:absolute,to:'2016-06-05 05:32:56-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4018%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U11" s="73" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="V11" s="73">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="W11" s="73">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="X11" s="73">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>23.331499999999998</v>
       </c>
       <c r="Y11" s="73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>23.285499999999999</v>
       </c>
       <c r="Z11" s="74">
@@ -3276,7 +3273,7 @@
         <v>1</v>
       </c>
       <c r="K12" s="60" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>4017/4018</v>
       </c>
       <c r="L12" s="60" t="str">
@@ -3284,7 +3281,7 @@
         <v>MALAVE</v>
       </c>
       <c r="M12" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>2.9398148151813075E-2</v>
       </c>
       <c r="N12" s="13">
@@ -3296,27 +3293,27 @@
       <c r="Q12" s="61"/>
       <c r="R12" s="61"/>
       <c r="T12" s="73" t="str">
-        <f t="shared" ref="T12:T14" si="24">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E12-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I12+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B12&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="3"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 05:37:02-0600',mode:absolute,to:'2016-06-05 06:23:41-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4017%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U12" s="73" t="str">
-        <f t="shared" ref="U12:U14" si="25">IF(Y12&lt;23,"Y","N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="V12" s="73">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="W12" s="73">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>23.300599999999999</v>
       </c>
       <c r="X12" s="73">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>1.52E-2</v>
       </c>
       <c r="Y12" s="73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>23.285399999999999</v>
       </c>
       <c r="Z12" s="74">
@@ -3350,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="60" t="str">
-        <f t="shared" ref="K13:K14" si="26">IF(ISEVEN(B13),(B13-1)&amp;"/"&amp;B13,B13&amp;"/"&amp;(B13+1))</f>
+        <f t="shared" si="0"/>
         <v>4011/4012</v>
       </c>
       <c r="L13" s="60" t="str">
@@ -3358,13 +3355,13 @@
         <v>GEBRETEKLE</v>
       </c>
       <c r="M13" s="12">
-        <f t="shared" ref="M13:M14" si="27">I13-F13</f>
+        <f t="shared" si="1"/>
         <v>1.9907407404389232E-3</v>
       </c>
       <c r="N13" s="13"/>
       <c r="O13" s="13"/>
       <c r="P13" s="13">
-        <f t="shared" si="2"/>
+        <f>24*60*SUM($M13:$M13)</f>
         <v>2.8666666662320495</v>
       </c>
       <c r="Q13" s="61"/>
@@ -3372,15 +3369,15 @@
         <v>121</v>
       </c>
       <c r="T13" s="73" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="U13" s="73" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="4"/>
         <v>Y</v>
       </c>
       <c r="V13" s="73">
-        <f t="shared" ref="V13:V14" si="28">VALUE(LEFT(A13,3))-VALUE(LEFT(A12,3))</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="W13" s="73">
@@ -3390,7 +3387,7 @@
         <v>7.3700000000000002E-2</v>
       </c>
       <c r="Y13" s="73">
-        <f t="shared" ref="Y13:Y14" si="29">ABS(X13-W13)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z13" s="74" t="e">
@@ -3431,7 +3428,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="60" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="0"/>
         <v>4011/4012</v>
       </c>
       <c r="L14" s="60" t="str">
@@ -3439,11 +3436,11 @@
         <v>GEBRETEKLE</v>
       </c>
       <c r="M14" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="1"/>
         <v>3.047453703766223E-2</v>
       </c>
       <c r="N14" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="N14:N30" si="9">24*60*SUM($M14:$M14)</f>
         <v>43.883333334233612</v>
       </c>
       <c r="O14" s="13"/>
@@ -3451,27 +3448,27 @@
       <c r="Q14" s="61"/>
       <c r="R14" s="61"/>
       <c r="T14" s="73" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="3"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 05:51:22-0600',mode:absolute,to:'2016-06-05 06:39:52-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4012%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U14" s="73" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="V14" s="73">
-        <f t="shared" si="28"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="W14" s="73">
-        <f t="shared" ref="W14" si="30">RIGHT(D14,LEN(D14)-4)/10000</f>
+        <f t="shared" ref="W14:W45" si="10">RIGHT(D14,LEN(D14)-4)/10000</f>
         <v>23.2971</v>
       </c>
       <c r="X14" s="73">
-        <f t="shared" ref="X14" si="31">RIGHT(H14,LEN(H14)-4)/10000</f>
+        <f t="shared" ref="X14:X45" si="11">RIGHT(H14,LEN(H14)-4)/10000</f>
         <v>0.1181</v>
       </c>
       <c r="Y14" s="73">
-        <f t="shared" si="29"/>
+        <f t="shared" si="8"/>
         <v>23.179000000000002</v>
       </c>
       <c r="Z14" s="74" t="e">
@@ -3515,7 +3512,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="60" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>4031/4032</v>
       </c>
       <c r="L15" s="60" t="str">
@@ -3523,11 +3520,11 @@
         <v>BRABO</v>
       </c>
       <c r="M15" s="12">
+        <f t="shared" si="1"/>
+        <v>3.5474537035042886E-2</v>
+      </c>
+      <c r="N15" s="13">
         <f t="shared" si="9"/>
-        <v>3.5474537035042886E-2</v>
-      </c>
-      <c r="N15" s="13">
-        <f t="shared" si="2"/>
         <v>51.083333330461755</v>
       </c>
       <c r="O15" s="13"/>
@@ -3535,27 +3532,27 @@
       <c r="Q15" s="61"/>
       <c r="R15" s="61"/>
       <c r="T15" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 05:00:03-0600',mode:absolute,to:'2016-06-05 05:55:02-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4031%22')),sort:!(Time,asc))</v>
+      </c>
+      <c r="U15" s="73" t="str">
+        <f t="shared" si="4"/>
+        <v>N</v>
+      </c>
+      <c r="V15" s="73">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="W15" s="73">
         <f t="shared" si="10"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 05:00:03-0600',mode:absolute,to:'2016-06-05 05:55:02-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4031%22')),sort:!(Time,asc))</v>
-      </c>
-      <c r="U15" s="73" t="str">
+        <v>0.04</v>
+      </c>
+      <c r="X15" s="73">
         <f t="shared" si="11"/>
-        <v>N</v>
-      </c>
-      <c r="V15" s="73">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="W15" s="73">
-        <f t="shared" si="13"/>
-        <v>0.04</v>
-      </c>
-      <c r="X15" s="73">
-        <f t="shared" si="14"/>
         <v>23.33</v>
       </c>
       <c r="Y15" s="73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>23.29</v>
       </c>
       <c r="Z15" s="74" t="e">
@@ -3599,7 +3596,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="60" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>4031/4032</v>
       </c>
       <c r="L16" s="60" t="str">
@@ -3607,11 +3604,11 @@
         <v>BRABO</v>
       </c>
       <c r="M16" s="12">
+        <f t="shared" si="1"/>
+        <v>3.1261574076779652E-2</v>
+      </c>
+      <c r="N16" s="13">
         <f t="shared" si="9"/>
-        <v>3.1261574076779652E-2</v>
-      </c>
-      <c r="N16" s="13">
-        <f t="shared" si="2"/>
         <v>45.016666670562699</v>
       </c>
       <c r="O16" s="13"/>
@@ -3619,27 +3616,27 @@
       <c r="Q16" s="61"/>
       <c r="R16" s="61"/>
       <c r="T16" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 06:02:43-0600',mode:absolute,to:'2016-06-05 06:51:15-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4032%22')),sort:!(Time,asc))</v>
+      </c>
+      <c r="U16" s="73" t="str">
+        <f t="shared" si="4"/>
+        <v>N</v>
+      </c>
+      <c r="V16" s="73">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="W16" s="73">
         <f t="shared" si="10"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 06:02:43-0600',mode:absolute,to:'2016-06-05 06:51:15-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4032%22')),sort:!(Time,asc))</v>
-      </c>
-      <c r="U16" s="73" t="str">
+        <v>23.299299999999999</v>
+      </c>
+      <c r="X16" s="73">
         <f t="shared" si="11"/>
-        <v>N</v>
-      </c>
-      <c r="V16" s="73">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="W16" s="73">
-        <f t="shared" si="13"/>
-        <v>23.299299999999999</v>
-      </c>
-      <c r="X16" s="73">
-        <f t="shared" si="14"/>
         <v>1.49E-2</v>
       </c>
       <c r="Y16" s="73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>23.284399999999998</v>
       </c>
       <c r="Z16" s="74" t="e">
@@ -3683,7 +3680,7 @@
         <v>1</v>
       </c>
       <c r="K17" s="60" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>4027/4028</v>
       </c>
       <c r="L17" s="60" t="str">
@@ -3691,11 +3688,11 @@
         <v>MAYBERRY</v>
       </c>
       <c r="M17" s="12">
+        <f t="shared" si="1"/>
+        <v>2.6736111110949423E-2</v>
+      </c>
+      <c r="N17" s="13">
         <f t="shared" si="9"/>
-        <v>2.6736111110949423E-2</v>
-      </c>
-      <c r="N17" s="13">
-        <f t="shared" si="2"/>
         <v>38.499999999767169</v>
       </c>
       <c r="O17" s="13"/>
@@ -3703,27 +3700,27 @@
       <c r="Q17" s="61"/>
       <c r="R17" s="61"/>
       <c r="T17" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 05:26:30-0600',mode:absolute,to:'2016-06-05 06:09:30-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4027%22')),sort:!(Time,asc))</v>
+      </c>
+      <c r="U17" s="73" t="str">
+        <f t="shared" si="4"/>
+        <v>N</v>
+      </c>
+      <c r="V17" s="73">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="W17" s="73">
         <f t="shared" si="10"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 05:26:30-0600',mode:absolute,to:'2016-06-05 06:09:30-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4027%22')),sort:!(Time,asc))</v>
-      </c>
-      <c r="U17" s="73" t="str">
+        <v>7.9699999999999993E-2</v>
+      </c>
+      <c r="X17" s="73">
         <f t="shared" si="11"/>
-        <v>N</v>
-      </c>
-      <c r="V17" s="73">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="W17" s="73">
-        <f t="shared" si="13"/>
-        <v>7.9699999999999993E-2</v>
-      </c>
-      <c r="X17" s="73">
-        <f t="shared" si="14"/>
         <v>23.328600000000002</v>
       </c>
       <c r="Y17" s="73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>23.248900000000003</v>
       </c>
       <c r="Z17" s="74">
@@ -3767,7 +3764,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="60" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>4027/4028</v>
       </c>
       <c r="L18" s="60" t="str">
@@ -3775,11 +3772,11 @@
         <v>MAYBERRY</v>
       </c>
       <c r="M18" s="12">
+        <f t="shared" si="1"/>
+        <v>3.6608796297514345E-2</v>
+      </c>
+      <c r="N18" s="13">
         <f t="shared" si="9"/>
-        <v>3.6608796297514345E-2</v>
-      </c>
-      <c r="N18" s="13">
-        <f t="shared" si="2"/>
         <v>52.716666668420658</v>
       </c>
       <c r="O18" s="13"/>
@@ -3787,27 +3784,27 @@
       <c r="Q18" s="61"/>
       <c r="R18" s="61"/>
       <c r="T18" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 06:09:30-0600',mode:absolute,to:'2016-06-05 07:06:05-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4028%22')),sort:!(Time,asc))</v>
+      </c>
+      <c r="U18" s="73" t="str">
+        <f t="shared" si="4"/>
+        <v>N</v>
+      </c>
+      <c r="V18" s="73">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="W18" s="73">
         <f t="shared" si="10"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 06:09:30-0600',mode:absolute,to:'2016-06-05 07:06:05-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4028%22')),sort:!(Time,asc))</v>
-      </c>
-      <c r="U18" s="73" t="str">
+        <v>23.2973</v>
+      </c>
+      <c r="X18" s="73">
         <f t="shared" si="11"/>
-        <v>N</v>
-      </c>
-      <c r="V18" s="73">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="W18" s="73">
-        <f t="shared" si="13"/>
-        <v>23.2973</v>
-      </c>
-      <c r="X18" s="73">
-        <f t="shared" si="14"/>
         <v>1.54E-2</v>
       </c>
       <c r="Y18" s="73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>23.2819</v>
       </c>
       <c r="Z18" s="74" t="e">
@@ -3851,7 +3848,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="60" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>4039/4040</v>
       </c>
       <c r="L19" s="60" t="str">
@@ -3859,11 +3856,11 @@
         <v>STURGEON</v>
       </c>
       <c r="M19" s="12">
+        <f t="shared" si="1"/>
+        <v>3.0451388891378883E-2</v>
+      </c>
+      <c r="N19" s="13">
         <f t="shared" si="9"/>
-        <v>3.0451388891378883E-2</v>
-      </c>
-      <c r="N19" s="13">
-        <f t="shared" si="2"/>
         <v>43.850000003585592</v>
       </c>
       <c r="O19" s="13"/>
@@ -3871,27 +3868,27 @@
       <c r="Q19" s="61"/>
       <c r="R19" s="61"/>
       <c r="T19" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 05:35:47-0600',mode:absolute,to:'2016-06-05 06:23:17-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4040%22')),sort:!(Time,asc))</v>
+      </c>
+      <c r="U19" s="73" t="str">
+        <f t="shared" si="4"/>
+        <v>N</v>
+      </c>
+      <c r="V19" s="73">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="W19" s="73">
         <f t="shared" si="10"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 05:35:47-0600',mode:absolute,to:'2016-06-05 06:23:17-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4040%22')),sort:!(Time,asc))</v>
-      </c>
-      <c r="U19" s="73" t="str">
+        <v>4.7699999999999999E-2</v>
+      </c>
+      <c r="X19" s="73">
         <f t="shared" si="11"/>
-        <v>N</v>
-      </c>
-      <c r="V19" s="73">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="W19" s="73">
-        <f t="shared" si="13"/>
-        <v>4.7699999999999999E-2</v>
-      </c>
-      <c r="X19" s="73">
-        <f t="shared" si="14"/>
         <v>23.3246</v>
       </c>
       <c r="Y19" s="73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>23.276900000000001</v>
       </c>
       <c r="Z19" s="74" t="e">
@@ -3935,7 +3932,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="60" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>4039/4040</v>
       </c>
       <c r="L20" s="60" t="str">
@@ -3943,11 +3940,11 @@
         <v>STURGEON</v>
       </c>
       <c r="M20" s="12">
+        <f t="shared" si="1"/>
+        <v>2.9537037036789116E-2</v>
+      </c>
+      <c r="N20" s="13">
         <f t="shared" si="9"/>
-        <v>2.9537037036789116E-2</v>
-      </c>
-      <c r="N20" s="13">
-        <f t="shared" si="2"/>
         <v>42.533333332976326</v>
       </c>
       <c r="O20" s="13"/>
@@ -3955,27 +3952,27 @@
       <c r="Q20" s="61"/>
       <c r="R20" s="61"/>
       <c r="T20" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 06:36:04-0600',mode:absolute,to:'2016-06-05 07:21:57-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4039%22')),sort:!(Time,asc))</v>
+      </c>
+      <c r="U20" s="73" t="str">
+        <f t="shared" si="4"/>
+        <v>N</v>
+      </c>
+      <c r="V20" s="73">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="W20" s="73">
         <f t="shared" si="10"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 06:36:04-0600',mode:absolute,to:'2016-06-05 07:21:57-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4039%22')),sort:!(Time,asc))</v>
-      </c>
-      <c r="U20" s="73" t="str">
+        <v>23.293600000000001</v>
+      </c>
+      <c r="X20" s="73">
         <f t="shared" si="11"/>
-        <v>N</v>
-      </c>
-      <c r="V20" s="73">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="W20" s="73">
-        <f t="shared" si="13"/>
-        <v>23.293600000000001</v>
-      </c>
-      <c r="X20" s="73">
-        <f t="shared" si="14"/>
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="Y20" s="73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>23.275500000000001</v>
       </c>
       <c r="Z20" s="74" t="e">
@@ -4019,7 +4016,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="60" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>4023/4024</v>
       </c>
       <c r="L21" s="60" t="str">
@@ -4027,11 +4024,11 @@
         <v>GOODNIGHT</v>
       </c>
       <c r="M21" s="12">
+        <f t="shared" si="1"/>
+        <v>2.7777777773735579E-2</v>
+      </c>
+      <c r="N21" s="13">
         <f t="shared" si="9"/>
-        <v>2.7777777773735579E-2</v>
-      </c>
-      <c r="N21" s="13">
-        <f t="shared" si="2"/>
         <v>39.999999994179234</v>
       </c>
       <c r="O21" s="13"/>
@@ -4039,27 +4036,27 @@
       <c r="Q21" s="61"/>
       <c r="R21" s="61"/>
       <c r="T21" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 05:52:58-0600',mode:absolute,to:'2016-06-05 06:36:29-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
+      </c>
+      <c r="U21" s="73" t="str">
+        <f t="shared" si="4"/>
+        <v>N</v>
+      </c>
+      <c r="V21" s="73">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="W21" s="73">
         <f t="shared" si="10"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 05:52:58-0600',mode:absolute,to:'2016-06-05 06:36:29-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
-      </c>
-      <c r="U21" s="73" t="str">
+        <v>7.1900000000000006E-2</v>
+      </c>
+      <c r="X21" s="73">
         <f t="shared" si="11"/>
-        <v>N</v>
-      </c>
-      <c r="V21" s="73">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="W21" s="73">
-        <f t="shared" si="13"/>
-        <v>7.1900000000000006E-2</v>
-      </c>
-      <c r="X21" s="73">
-        <f t="shared" si="14"/>
         <v>23.3399</v>
       </c>
       <c r="Y21" s="73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>23.268000000000001</v>
       </c>
       <c r="Z21" s="74" t="e">
@@ -4103,7 +4100,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="60" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>4023/4024</v>
       </c>
       <c r="L22" s="60" t="str">
@@ -4111,11 +4108,11 @@
         <v>GOODNIGHT</v>
       </c>
       <c r="M22" s="12">
+        <f t="shared" si="1"/>
+        <v>3.2997685186273884E-2</v>
+      </c>
+      <c r="N22" s="13">
         <f t="shared" si="9"/>
-        <v>3.2997685186273884E-2</v>
-      </c>
-      <c r="N22" s="13">
-        <f t="shared" si="2"/>
         <v>47.516666668234393</v>
       </c>
       <c r="O22" s="13"/>
@@ -4123,27 +4120,27 @@
       <c r="Q22" s="61"/>
       <c r="R22" s="61"/>
       <c r="T22" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 06:44:40-0600',mode:absolute,to:'2016-06-05 07:35:41-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
+      </c>
+      <c r="U22" s="73" t="str">
+        <f t="shared" si="4"/>
+        <v>N</v>
+      </c>
+      <c r="V22" s="73">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="W22" s="73">
         <f t="shared" si="10"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 06:44:40-0600',mode:absolute,to:'2016-06-05 07:35:41-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
-      </c>
-      <c r="U22" s="73" t="str">
+        <v>23.308399999999999</v>
+      </c>
+      <c r="X22" s="73">
         <f t="shared" si="11"/>
-        <v>N</v>
-      </c>
-      <c r="V22" s="73">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="W22" s="73">
-        <f t="shared" si="13"/>
-        <v>23.308399999999999</v>
-      </c>
-      <c r="X22" s="73">
-        <f t="shared" si="14"/>
         <v>1.47E-2</v>
       </c>
       <c r="Y22" s="73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>23.293699999999998</v>
       </c>
       <c r="Z22" s="74" t="e">
@@ -4187,7 +4184,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="60" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>4009/4010</v>
       </c>
       <c r="L23" s="60" t="str">
@@ -4195,11 +4192,11 @@
         <v>SANTIZO</v>
       </c>
       <c r="M23" s="12">
+        <f t="shared" si="1"/>
+        <v>2.7592592596192844E-2</v>
+      </c>
+      <c r="N23" s="13">
         <f t="shared" si="9"/>
-        <v>2.7592592596192844E-2</v>
-      </c>
-      <c r="N23" s="13">
-        <f t="shared" si="2"/>
         <v>39.733333338517696</v>
       </c>
       <c r="O23" s="13"/>
@@ -4207,27 +4204,27 @@
       <c r="Q23" s="61"/>
       <c r="R23" s="61"/>
       <c r="T23" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 06:09:51-0600',mode:absolute,to:'2016-06-05 06:53:00-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4009%22')),sort:!(Time,asc))</v>
+      </c>
+      <c r="U23" s="73" t="str">
+        <f t="shared" si="4"/>
+        <v>N</v>
+      </c>
+      <c r="V23" s="73">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="W23" s="73">
         <f t="shared" si="10"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 06:09:51-0600',mode:absolute,to:'2016-06-05 06:53:00-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4009%22')),sort:!(Time,asc))</v>
-      </c>
-      <c r="U23" s="73" t="str">
+        <v>4.6899999999999997E-2</v>
+      </c>
+      <c r="X23" s="73">
         <f t="shared" si="11"/>
-        <v>N</v>
-      </c>
-      <c r="V23" s="73">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="W23" s="73">
-        <f t="shared" si="13"/>
-        <v>4.6899999999999997E-2</v>
-      </c>
-      <c r="X23" s="73">
-        <f t="shared" si="14"/>
         <v>23.3308</v>
       </c>
       <c r="Y23" s="73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>23.283899999999999</v>
       </c>
       <c r="Z23" s="74" t="e">
@@ -4271,7 +4268,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="60" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>4009/4010</v>
       </c>
       <c r="L24" s="60" t="str">
@@ -4279,11 +4276,11 @@
         <v>SANTIZO</v>
       </c>
       <c r="M24" s="12">
+        <f t="shared" si="1"/>
+        <v>3.0127314814308193E-2</v>
+      </c>
+      <c r="N24" s="13">
         <f t="shared" si="9"/>
-        <v>3.0127314814308193E-2</v>
-      </c>
-      <c r="N24" s="13">
-        <f t="shared" si="2"/>
         <v>43.383333332603797</v>
       </c>
       <c r="O24" s="13"/>
@@ -4291,27 +4288,27 @@
       <c r="Q24" s="61"/>
       <c r="R24" s="61"/>
       <c r="T24" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 07:04:46-0600',mode:absolute,to:'2016-06-05 07:51:30-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4010%22')),sort:!(Time,asc))</v>
+      </c>
+      <c r="U24" s="73" t="str">
+        <f t="shared" si="4"/>
+        <v>N</v>
+      </c>
+      <c r="V24" s="73">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="W24" s="73">
         <f t="shared" si="10"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 07:04:46-0600',mode:absolute,to:'2016-06-05 07:51:30-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4010%22')),sort:!(Time,asc))</v>
-      </c>
-      <c r="U24" s="73" t="str">
+        <v>23.300599999999999</v>
+      </c>
+      <c r="X24" s="73">
         <f t="shared" si="11"/>
-        <v>N</v>
-      </c>
-      <c r="V24" s="73">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="W24" s="73">
-        <f t="shared" si="13"/>
-        <v>23.300599999999999</v>
-      </c>
-      <c r="X24" s="73">
-        <f t="shared" si="14"/>
         <v>1.54E-2</v>
       </c>
       <c r="Y24" s="73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>23.2852</v>
       </c>
       <c r="Z24" s="74" t="e">
@@ -4355,7 +4352,7 @@
         <v>1</v>
       </c>
       <c r="K25" s="60" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>4017/4018</v>
       </c>
       <c r="L25" s="60" t="str">
@@ -4363,11 +4360,11 @@
         <v>MALAVE</v>
       </c>
       <c r="M25" s="12">
+        <f t="shared" si="1"/>
+        <v>2.5902777779265307E-2</v>
+      </c>
+      <c r="N25" s="13">
         <f t="shared" si="9"/>
-        <v>2.5902777779265307E-2</v>
-      </c>
-      <c r="N25" s="13">
-        <f t="shared" si="2"/>
         <v>37.300000002142042</v>
       </c>
       <c r="O25" s="13"/>
@@ -4375,27 +4372,27 @@
       <c r="Q25" s="61"/>
       <c r="R25" s="61"/>
       <c r="T25" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 06:26:51-0600',mode:absolute,to:'2016-06-05 07:07:44-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4018%22')),sort:!(Time,asc))</v>
+      </c>
+      <c r="U25" s="73" t="str">
+        <f t="shared" si="4"/>
+        <v>N</v>
+      </c>
+      <c r="V25" s="73">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="W25" s="73">
         <f t="shared" si="10"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 06:26:51-0600',mode:absolute,to:'2016-06-05 07:07:44-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4018%22')),sort:!(Time,asc))</v>
-      </c>
-      <c r="U25" s="73" t="str">
+        <v>4.6199999999999998E-2</v>
+      </c>
+      <c r="X25" s="73">
         <f t="shared" si="11"/>
-        <v>N</v>
-      </c>
-      <c r="V25" s="73">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="W25" s="73">
-        <f t="shared" si="13"/>
-        <v>4.6199999999999998E-2</v>
-      </c>
-      <c r="X25" s="73">
-        <f t="shared" si="14"/>
         <v>23.328800000000001</v>
       </c>
       <c r="Y25" s="73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>23.282600000000002</v>
       </c>
       <c r="Z25" s="74">
@@ -4439,7 +4436,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="60" t="str">
-        <f>IF(ISEVEN(B26),(B26-1)&amp;"/"&amp;B26,B26&amp;"/"&amp;(B26+1))</f>
+        <f t="shared" si="0"/>
         <v>4017/4018</v>
       </c>
       <c r="L26" s="60" t="str">
@@ -4447,11 +4444,11 @@
         <v>MALAVE</v>
       </c>
       <c r="M26" s="12">
-        <f>I26-F26</f>
+        <f t="shared" si="1"/>
         <v>2.8182870373711921E-2</v>
       </c>
       <c r="N26" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>40.583333338145167</v>
       </c>
       <c r="O26" s="13"/>
@@ -4459,27 +4456,27 @@
       <c r="Q26" s="61"/>
       <c r="R26" s="61"/>
       <c r="T26" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E26-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I26+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B26&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="3"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 07:23:33-0600',mode:absolute,to:'2016-06-05 08:07:24-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4017%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U26" s="73" t="str">
-        <f>IF(Y26&lt;23,"Y","N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="V26" s="73">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="W26" s="73">
-        <f>RIGHT(D26,LEN(D26)-4)/10000</f>
+        <f t="shared" si="10"/>
         <v>23.2957</v>
       </c>
       <c r="X26" s="73">
-        <f>RIGHT(H26,LEN(H26)-4)/10000</f>
+        <f t="shared" si="11"/>
         <v>1.54E-2</v>
       </c>
       <c r="Y26" s="73">
-        <f>ABS(X26-W26)</f>
+        <f t="shared" si="8"/>
         <v>23.2803</v>
       </c>
       <c r="Z26" s="74" t="e">
@@ -4523,7 +4520,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="60" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>4019/4020</v>
       </c>
       <c r="L27" s="60" t="str">
@@ -4531,11 +4528,11 @@
         <v>GEBRETEKLE</v>
       </c>
       <c r="M27" s="12">
+        <f t="shared" si="1"/>
+        <v>2.5729166671226267E-2</v>
+      </c>
+      <c r="N27" s="13">
         <f t="shared" si="9"/>
-        <v>2.5729166671226267E-2</v>
-      </c>
-      <c r="N27" s="13">
-        <f t="shared" si="2"/>
         <v>37.050000006565824</v>
       </c>
       <c r="O27" s="13"/>
@@ -4543,27 +4540,27 @@
       <c r="Q27" s="61"/>
       <c r="R27" s="61"/>
       <c r="T27" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 06:43:12-0600',mode:absolute,to:'2016-06-05 07:23:32-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4020%22')),sort:!(Time,asc))</v>
+      </c>
+      <c r="U27" s="73" t="str">
+        <f t="shared" si="4"/>
+        <v>N</v>
+      </c>
+      <c r="V27" s="73">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="W27" s="73">
         <f t="shared" si="10"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 06:43:12-0600',mode:absolute,to:'2016-06-05 07:23:32-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4020%22')),sort:!(Time,asc))</v>
-      </c>
-      <c r="U27" s="73" t="str">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="X27" s="73">
         <f t="shared" si="11"/>
-        <v>N</v>
-      </c>
-      <c r="V27" s="73">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="W27" s="73">
-        <f t="shared" si="13"/>
-        <v>3.2500000000000001E-2</v>
-      </c>
-      <c r="X27" s="73">
-        <f t="shared" si="14"/>
         <v>23.329799999999999</v>
       </c>
       <c r="Y27" s="73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>23.2973</v>
       </c>
       <c r="Z27" s="74" t="e">
@@ -4607,7 +4604,7 @@
         <v>1</v>
       </c>
       <c r="K28" s="60" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>4019/4020</v>
       </c>
       <c r="L28" s="60" t="str">
@@ -4615,11 +4612,11 @@
         <v>GEBRETEKLE</v>
       </c>
       <c r="M28" s="12">
+        <f t="shared" si="1"/>
+        <v>2.9953703706269152E-2</v>
+      </c>
+      <c r="N28" s="13">
         <f t="shared" si="9"/>
-        <v>2.9953703706269152E-2</v>
-      </c>
-      <c r="N28" s="13">
-        <f t="shared" si="2"/>
         <v>43.13333333702758</v>
       </c>
       <c r="O28" s="13"/>
@@ -4627,27 +4624,27 @@
       <c r="Q28" s="61"/>
       <c r="R28" s="61"/>
       <c r="T28" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 07:36:16-0600',mode:absolute,to:'2016-06-05 08:22:49-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
+      </c>
+      <c r="U28" s="73" t="str">
+        <f t="shared" si="4"/>
+        <v>N</v>
+      </c>
+      <c r="V28" s="73">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="W28" s="73">
         <f t="shared" si="10"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 07:36:16-0600',mode:absolute,to:'2016-06-05 08:22:49-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
-      </c>
-      <c r="U28" s="73" t="str">
+        <v>23.299099999999999</v>
+      </c>
+      <c r="X28" s="73">
         <f t="shared" si="11"/>
-        <v>N</v>
-      </c>
-      <c r="V28" s="73">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="W28" s="73">
-        <f t="shared" si="13"/>
-        <v>23.299099999999999</v>
-      </c>
-      <c r="X28" s="73">
-        <f t="shared" si="14"/>
         <v>1.32E-2</v>
       </c>
       <c r="Y28" s="73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>23.285899999999998</v>
       </c>
       <c r="Z28" s="74">
@@ -4691,7 +4688,7 @@
         <v>1</v>
       </c>
       <c r="K29" s="60" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>4031/4032</v>
       </c>
       <c r="L29" s="60" t="str">
@@ -4699,11 +4696,11 @@
         <v>BRABO</v>
       </c>
       <c r="M29" s="12">
+        <f t="shared" si="1"/>
+        <v>2.9282407405844424E-2</v>
+      </c>
+      <c r="N29" s="13">
         <f t="shared" si="9"/>
-        <v>2.9282407405844424E-2</v>
-      </c>
-      <c r="N29" s="13">
-        <f t="shared" si="2"/>
         <v>42.16666666441597</v>
       </c>
       <c r="O29" s="13"/>
@@ -4711,27 +4708,27 @@
       <c r="Q29" s="61"/>
       <c r="R29" s="61"/>
       <c r="T29" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 06:55:21-0600',mode:absolute,to:'2016-06-05 07:40:35-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4031%22')),sort:!(Time,asc))</v>
+      </c>
+      <c r="U29" s="73" t="str">
+        <f t="shared" si="4"/>
+        <v>N</v>
+      </c>
+      <c r="V29" s="73">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="W29" s="73">
         <f t="shared" si="10"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 06:55:21-0600',mode:absolute,to:'2016-06-05 07:40:35-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4031%22')),sort:!(Time,asc))</v>
-      </c>
-      <c r="U29" s="73" t="str">
+        <v>4.3099999999999999E-2</v>
+      </c>
+      <c r="X29" s="73">
         <f t="shared" si="11"/>
-        <v>N</v>
-      </c>
-      <c r="V29" s="73">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="W29" s="73">
-        <f t="shared" si="13"/>
-        <v>4.3099999999999999E-2</v>
-      </c>
-      <c r="X29" s="73">
-        <f t="shared" si="14"/>
         <v>23.331099999999999</v>
       </c>
       <c r="Y29" s="73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>23.288</v>
       </c>
       <c r="Z29" s="74">
@@ -4775,7 +4772,7 @@
         <v>0</v>
       </c>
       <c r="K30" s="60" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>4031/4032</v>
       </c>
       <c r="L30" s="60" t="str">
@@ -4783,11 +4780,11 @@
         <v>BRABO</v>
       </c>
       <c r="M30" s="12">
+        <f t="shared" si="1"/>
+        <v>2.99768518525525E-2</v>
+      </c>
+      <c r="N30" s="13">
         <f t="shared" si="9"/>
-        <v>2.99768518525525E-2</v>
-      </c>
-      <c r="N30" s="13">
-        <f t="shared" si="2"/>
         <v>43.166666667675599</v>
       </c>
       <c r="O30" s="13"/>
@@ -4795,27 +4792,27 @@
       <c r="Q30" s="61"/>
       <c r="R30" s="61"/>
       <c r="T30" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 07:49:49-0600',mode:absolute,to:'2016-06-05 08:36:38-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4032%22')),sort:!(Time,asc))</v>
+      </c>
+      <c r="U30" s="73" t="str">
+        <f t="shared" si="4"/>
+        <v>N</v>
+      </c>
+      <c r="V30" s="73">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="W30" s="73">
         <f t="shared" si="10"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 07:49:49-0600',mode:absolute,to:'2016-06-05 08:36:38-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4032%22')),sort:!(Time,asc))</v>
-      </c>
-      <c r="U30" s="73" t="str">
+        <v>23.299399999999999</v>
+      </c>
+      <c r="X30" s="73">
         <f t="shared" si="11"/>
-        <v>N</v>
-      </c>
-      <c r="V30" s="73">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="W30" s="73">
-        <f t="shared" si="13"/>
-        <v>23.299399999999999</v>
-      </c>
-      <c r="X30" s="73">
-        <f t="shared" si="14"/>
         <v>1.67E-2</v>
       </c>
       <c r="Y30" s="73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>23.282699999999998</v>
       </c>
       <c r="Z30" s="74" t="e">
@@ -4859,7 +4856,7 @@
         <v>0</v>
       </c>
       <c r="K31" s="60" t="str">
-        <f>IF(ISEVEN(B31),(B31-1)&amp;"/"&amp;B31,B31&amp;"/"&amp;(B31+1))</f>
+        <f t="shared" si="0"/>
         <v>4027/4028</v>
       </c>
       <c r="L31" s="60" t="str">
@@ -4867,7 +4864,7 @@
         <v>MAYBERRY</v>
       </c>
       <c r="M31" s="12">
-        <f>I31-F31</f>
+        <f t="shared" si="1"/>
         <v>6.8865740759065375E-3</v>
       </c>
       <c r="N31" s="13"/>
@@ -4876,27 +4873,27 @@
       <c r="Q31" s="61"/>
       <c r="R31" s="61"/>
       <c r="T31" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E31-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I31+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B31&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="3"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 07:07:37-0600',mode:absolute,to:'2016-06-05 07:21:00-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4027%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U31" s="73" t="str">
-        <f>IF(Y31&lt;23,"Y","N")</f>
+        <f t="shared" si="4"/>
         <v>Y</v>
       </c>
       <c r="V31" s="73">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="W31" s="73">
-        <f>RIGHT(D31,LEN(D31)-4)/10000</f>
+        <f t="shared" si="10"/>
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="X31" s="73">
-        <f>RIGHT(H31,LEN(H31)-4)/10000</f>
+        <f t="shared" si="11"/>
         <v>1.9136</v>
       </c>
       <c r="Y31" s="73">
-        <f>ABS(X31-W31)</f>
+        <f t="shared" si="8"/>
         <v>1.8675999999999999</v>
       </c>
       <c r="Z31" s="74" t="e">
@@ -4940,7 +4937,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="60" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>4027/4028</v>
       </c>
       <c r="L32" s="60" t="str">
@@ -4948,7 +4945,7 @@
         <v>MAYBERRY</v>
       </c>
       <c r="M32" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>2.2939814814890269E-2</v>
       </c>
       <c r="N32" s="13"/>
@@ -4959,30 +4956,30 @@
       </c>
       <c r="Q32" s="61"/>
       <c r="R32" s="61" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="T32" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 07:19:08-0600',mode:absolute,to:'2016-06-05 07:55:31-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4027%22')),sort:!(Time,asc))</v>
+      </c>
+      <c r="U32" s="73" t="str">
+        <f t="shared" si="4"/>
+        <v>Y</v>
+      </c>
+      <c r="V32" s="73">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W32" s="73">
         <f t="shared" si="10"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 07:19:08-0600',mode:absolute,to:'2016-06-05 07:55:31-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4027%22')),sort:!(Time,asc))</v>
-      </c>
-      <c r="U32" s="73" t="str">
+        <v>1.913</v>
+      </c>
+      <c r="X32" s="73">
         <f t="shared" si="11"/>
-        <v>Y</v>
-      </c>
-      <c r="V32" s="73">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="W32" s="73">
-        <f t="shared" si="13"/>
-        <v>1.913</v>
-      </c>
-      <c r="X32" s="73">
-        <f t="shared" si="14"/>
         <v>23.331</v>
       </c>
       <c r="Y32" s="73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>21.417999999999999</v>
       </c>
       <c r="Z32" s="74" t="e">
@@ -5026,7 +5023,7 @@
         <v>4</v>
       </c>
       <c r="K33" s="60" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>4027/4028</v>
       </c>
       <c r="L33" s="60" t="str">
@@ -5034,11 +5031,11 @@
         <v>MAYBERRY</v>
       </c>
       <c r="M33" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>3.4340277779847383E-2</v>
       </c>
       <c r="N33" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="N33:N44" si="12">24*60*SUM($M33:$M33)</f>
         <v>49.450000002980232</v>
       </c>
       <c r="O33" s="13"/>
@@ -5046,27 +5043,27 @@
       <c r="Q33" s="61"/>
       <c r="R33" s="61"/>
       <c r="T33" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 08:00:16-0600',mode:absolute,to:'2016-06-05 08:53:21-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4028%22')),sort:!(Time,asc))</v>
+      </c>
+      <c r="U33" s="73" t="str">
+        <f t="shared" si="4"/>
+        <v>N</v>
+      </c>
+      <c r="V33" s="73">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="W33" s="73">
         <f t="shared" si="10"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 08:00:16-0600',mode:absolute,to:'2016-06-05 08:53:21-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4028%22')),sort:!(Time,asc))</v>
-      </c>
-      <c r="U33" s="73" t="str">
+        <v>23.299800000000001</v>
+      </c>
+      <c r="X33" s="73">
         <f t="shared" si="11"/>
-        <v>N</v>
-      </c>
-      <c r="V33" s="73">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="W33" s="73">
-        <f t="shared" si="13"/>
-        <v>23.299800000000001</v>
-      </c>
-      <c r="X33" s="73">
-        <f t="shared" si="14"/>
         <v>1.5800000000000002E-2</v>
       </c>
       <c r="Y33" s="73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>23.284000000000002</v>
       </c>
       <c r="Z33" s="74">
@@ -5110,7 +5107,7 @@
         <v>0</v>
       </c>
       <c r="K34" s="60" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>4039/4040</v>
       </c>
       <c r="L34" s="60" t="str">
@@ -5118,11 +5115,11 @@
         <v>STURGEON</v>
       </c>
       <c r="M34" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>2.9444444444379769E-2</v>
       </c>
       <c r="N34" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>42.399999999906868</v>
       </c>
       <c r="O34" s="13"/>
@@ -5130,27 +5127,27 @@
       <c r="Q34" s="61"/>
       <c r="R34" s="61"/>
       <c r="T34" s="73" t="str">
+        <f t="shared" si="3"/>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 07:21:38-0600',mode:absolute,to:'2016-06-05 08:07:33-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4040%22')),sort:!(Time,asc))</v>
+      </c>
+      <c r="U34" s="73" t="str">
+        <f t="shared" si="4"/>
+        <v>N</v>
+      </c>
+      <c r="V34" s="73">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="W34" s="73">
         <f t="shared" si="10"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 07:21:38-0600',mode:absolute,to:'2016-06-05 08:07:33-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4040%22')),sort:!(Time,asc))</v>
-      </c>
-      <c r="U34" s="73" t="str">
+        <v>5.04E-2</v>
+      </c>
+      <c r="X34" s="73">
         <f t="shared" si="11"/>
-        <v>N</v>
-      </c>
-      <c r="V34" s="73">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="W34" s="73">
-        <f t="shared" si="13"/>
-        <v>5.04E-2</v>
-      </c>
-      <c r="X34" s="73">
-        <f t="shared" si="14"/>
         <v>23.3261</v>
       </c>
       <c r="Y34" s="73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>23.275700000000001</v>
       </c>
       <c r="Z34" s="74" t="e">
@@ -5194,7 +5191,7 @@
         <v>0</v>
       </c>
       <c r="K35" s="60" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="K35:K66" si="13">IF(ISEVEN(B35),(B35-1)&amp;"/"&amp;B35,B35&amp;"/"&amp;(B35+1))</f>
         <v>4039/4040</v>
       </c>
       <c r="L35" s="60" t="str">
@@ -5202,11 +5199,11 @@
         <v>STURGEON</v>
       </c>
       <c r="M35" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="M35:M66" si="14">I35-F35</f>
         <v>3.2824074070958886E-2</v>
       </c>
       <c r="N35" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>47.266666662180796</v>
       </c>
       <c r="O35" s="13"/>
@@ -5214,27 +5211,27 @@
       <c r="Q35" s="61"/>
       <c r="R35" s="61"/>
       <c r="T35" s="73" t="str">
+        <f t="shared" ref="T35:T66" si="15">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E35-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I35+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B35&amp;"%22')),sort:!(Time,asc))"</f>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 08:14:42-0600',mode:absolute,to:'2016-06-05 09:05:56-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4039%22')),sort:!(Time,asc))</v>
+      </c>
+      <c r="U35" s="73" t="str">
+        <f t="shared" ref="U35:U66" si="16">IF(Y35&lt;23,"Y","N")</f>
+        <v>N</v>
+      </c>
+      <c r="V35" s="73">
+        <f t="shared" ref="V35:V66" si="17">VALUE(LEFT(A35,3))-VALUE(LEFT(A34,3))</f>
+        <v>1</v>
+      </c>
+      <c r="W35" s="73">
         <f t="shared" si="10"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 08:14:42-0600',mode:absolute,to:'2016-06-05 09:05:56-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4039%22')),sort:!(Time,asc))</v>
-      </c>
-      <c r="U35" s="73" t="str">
+        <v>23.292300000000001</v>
+      </c>
+      <c r="X35" s="73">
         <f t="shared" si="11"/>
-        <v>N</v>
-      </c>
-      <c r="V35" s="73">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="W35" s="73">
-        <f t="shared" si="13"/>
-        <v>23.292300000000001</v>
-      </c>
-      <c r="X35" s="73">
-        <f t="shared" si="14"/>
         <v>1.6899999999999998E-2</v>
       </c>
       <c r="Y35" s="73">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="Y35:Y66" si="18">ABS(X35-W35)</f>
         <v>23.275400000000001</v>
       </c>
       <c r="Z35" s="74" t="e">
@@ -5278,7 +5275,7 @@
         <v>0</v>
       </c>
       <c r="K36" s="60" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>4023/4024</v>
       </c>
       <c r="L36" s="60" t="str">
@@ -5286,11 +5283,11 @@
         <v>GOODNIGHT</v>
       </c>
       <c r="M36" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2.7395833334594499E-2</v>
       </c>
       <c r="N36" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>39.450000001816079</v>
       </c>
       <c r="O36" s="13"/>
@@ -5298,27 +5295,27 @@
       <c r="Q36" s="61"/>
       <c r="R36" s="61"/>
       <c r="T36" s="73" t="str">
+        <f t="shared" si="15"/>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 07:38:24-0600',mode:absolute,to:'2016-06-05 08:21:23-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
+      </c>
+      <c r="U36" s="73" t="str">
+        <f t="shared" si="16"/>
+        <v>N</v>
+      </c>
+      <c r="V36" s="73">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="W36" s="73">
         <f t="shared" si="10"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 07:38:24-0600',mode:absolute,to:'2016-06-05 08:21:23-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
-      </c>
-      <c r="U36" s="73" t="str">
+        <v>4.58E-2</v>
+      </c>
+      <c r="X36" s="73">
         <f t="shared" si="11"/>
-        <v>N</v>
-      </c>
-      <c r="V36" s="73">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="W36" s="73">
-        <f t="shared" si="13"/>
-        <v>4.58E-2</v>
-      </c>
-      <c r="X36" s="73">
-        <f t="shared" si="14"/>
         <v>23.3308</v>
       </c>
       <c r="Y36" s="73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>23.285</v>
       </c>
       <c r="Z36" s="74" t="e">
@@ -5362,7 +5359,7 @@
         <v>0</v>
       </c>
       <c r="K37" s="60" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>4023/4024</v>
       </c>
       <c r="L37" s="60" t="str">
@@ -5370,11 +5367,11 @@
         <v>GOODNIGHT</v>
       </c>
       <c r="M37" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>3.0115740744804498E-2</v>
       </c>
       <c r="N37" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>43.366666672518477</v>
       </c>
       <c r="O37" s="13"/>
@@ -5382,27 +5379,27 @@
       <c r="Q37" s="61"/>
       <c r="R37" s="61"/>
       <c r="T37" s="73" t="str">
+        <f t="shared" si="15"/>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 08:33:09-0600',mode:absolute,to:'2016-06-05 09:19:56-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
+      </c>
+      <c r="U37" s="73" t="str">
+        <f t="shared" si="16"/>
+        <v>N</v>
+      </c>
+      <c r="V37" s="73">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="W37" s="73">
         <f t="shared" si="10"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 08:33:09-0600',mode:absolute,to:'2016-06-05 09:19:56-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
-      </c>
-      <c r="U37" s="73" t="str">
+        <v>23.297599999999999</v>
+      </c>
+      <c r="X37" s="73">
         <f t="shared" si="11"/>
-        <v>N</v>
-      </c>
-      <c r="V37" s="73">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="W37" s="73">
-        <f t="shared" si="13"/>
-        <v>23.297599999999999</v>
-      </c>
-      <c r="X37" s="73">
-        <f t="shared" si="14"/>
         <v>1.5599999999999999E-2</v>
       </c>
       <c r="Y37" s="73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>23.282</v>
       </c>
       <c r="Z37" s="74" t="e">
@@ -5446,7 +5443,7 @@
         <v>0</v>
       </c>
       <c r="K38" s="60" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>4009/4010</v>
       </c>
       <c r="L38" s="60" t="str">
@@ -5454,11 +5451,11 @@
         <v>SANTIZO</v>
       </c>
       <c r="M38" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2.570601852494292E-2</v>
       </c>
       <c r="N38" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>37.016666675917804</v>
       </c>
       <c r="O38" s="13"/>
@@ -5466,27 +5463,27 @@
       <c r="Q38" s="61"/>
       <c r="R38" s="61"/>
       <c r="T38" s="73" t="str">
+        <f t="shared" si="15"/>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 07:56:45-0600',mode:absolute,to:'2016-06-05 08:37:05-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4009%22')),sort:!(Time,asc))</v>
+      </c>
+      <c r="U38" s="73" t="str">
+        <f t="shared" si="16"/>
+        <v>N</v>
+      </c>
+      <c r="V38" s="73">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="W38" s="73">
         <f t="shared" si="10"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 07:56:45-0600',mode:absolute,to:'2016-06-05 08:37:05-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4009%22')),sort:!(Time,asc))</v>
-      </c>
-      <c r="U38" s="73" t="str">
+        <v>4.58E-2</v>
+      </c>
+      <c r="X38" s="73">
         <f t="shared" si="11"/>
-        <v>N</v>
-      </c>
-      <c r="V38" s="73">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="W38" s="73">
-        <f t="shared" si="13"/>
-        <v>4.58E-2</v>
-      </c>
-      <c r="X38" s="73">
-        <f t="shared" si="14"/>
         <v>23.3278</v>
       </c>
       <c r="Y38" s="73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>23.282</v>
       </c>
       <c r="Z38" s="74" t="e">
@@ -5530,7 +5527,7 @@
         <v>0</v>
       </c>
       <c r="K39" s="60" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>4009/4010</v>
       </c>
       <c r="L39" s="60" t="str">
@@ -5538,11 +5535,11 @@
         <v>SANTIZO</v>
       </c>
       <c r="M39" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2.9965277775772847E-2</v>
       </c>
       <c r="N39" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>43.1499999971129</v>
       </c>
       <c r="O39" s="13"/>
@@ -5550,27 +5547,27 @@
       <c r="Q39" s="61"/>
       <c r="R39" s="61"/>
       <c r="T39" s="73" t="str">
+        <f t="shared" si="15"/>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 08:49:28-0600',mode:absolute,to:'2016-06-05 09:36:02-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4010%22')),sort:!(Time,asc))</v>
+      </c>
+      <c r="U39" s="73" t="str">
+        <f t="shared" si="16"/>
+        <v>N</v>
+      </c>
+      <c r="V39" s="73">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="W39" s="73">
         <f t="shared" si="10"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 08:49:28-0600',mode:absolute,to:'2016-06-05 09:36:02-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4010%22')),sort:!(Time,asc))</v>
-      </c>
-      <c r="U39" s="73" t="str">
+        <v>23.2971</v>
+      </c>
+      <c r="X39" s="73">
         <f t="shared" si="11"/>
-        <v>N</v>
-      </c>
-      <c r="V39" s="73">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="W39" s="73">
-        <f t="shared" si="13"/>
-        <v>23.2971</v>
-      </c>
-      <c r="X39" s="73">
-        <f t="shared" si="14"/>
         <v>1.47E-2</v>
       </c>
       <c r="Y39" s="73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>23.282399999999999</v>
       </c>
       <c r="Z39" s="74" t="e">
@@ -5614,7 +5611,7 @@
         <v>0</v>
       </c>
       <c r="K40" s="60" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>4017/4018</v>
       </c>
       <c r="L40" s="60" t="str">
@@ -5622,11 +5619,11 @@
         <v>MALAVE</v>
       </c>
       <c r="M40" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2.6261574079398997E-2</v>
       </c>
       <c r="N40" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>37.816666674334556</v>
       </c>
       <c r="O40" s="13"/>
@@ -5634,27 +5631,27 @@
       <c r="Q40" s="61"/>
       <c r="R40" s="61"/>
       <c r="T40" s="73" t="str">
+        <f t="shared" si="15"/>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 08:12:50-0600',mode:absolute,to:'2016-06-05 08:53:48-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4018%22')),sort:!(Time,asc))</v>
+      </c>
+      <c r="U40" s="73" t="str">
+        <f t="shared" si="16"/>
+        <v>N</v>
+      </c>
+      <c r="V40" s="73">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="W40" s="73">
         <f t="shared" si="10"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 08:12:50-0600',mode:absolute,to:'2016-06-05 08:53:48-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4018%22')),sort:!(Time,asc))</v>
-      </c>
-      <c r="U40" s="73" t="str">
+        <v>4.6699999999999998E-2</v>
+      </c>
+      <c r="X40" s="73">
         <f t="shared" si="11"/>
-        <v>N</v>
-      </c>
-      <c r="V40" s="73">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="W40" s="73">
-        <f t="shared" si="13"/>
-        <v>4.6699999999999998E-2</v>
-      </c>
-      <c r="X40" s="73">
-        <f t="shared" si="14"/>
         <v>23.330400000000001</v>
       </c>
       <c r="Y40" s="73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>23.2837</v>
       </c>
       <c r="Z40" s="74">
@@ -5698,7 +5695,7 @@
         <v>0</v>
       </c>
       <c r="K41" s="60" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>4017/4018</v>
       </c>
       <c r="L41" s="60" t="str">
@@ -5706,11 +5703,11 @@
         <v>MALAVE</v>
       </c>
       <c r="M41" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2.749999999650754E-2</v>
       </c>
       <c r="N41" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>39.599999994970858</v>
       </c>
       <c r="O41" s="13"/>
@@ -5718,27 +5715,27 @@
       <c r="Q41" s="61"/>
       <c r="R41" s="61"/>
       <c r="T41" s="73" t="str">
+        <f t="shared" si="15"/>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 09:07:17-0600',mode:absolute,to:'2016-06-05 09:50:34-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4017%22')),sort:!(Time,asc))</v>
+      </c>
+      <c r="U41" s="73" t="str">
+        <f t="shared" si="16"/>
+        <v>N</v>
+      </c>
+      <c r="V41" s="73">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="W41" s="73">
         <f t="shared" si="10"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 09:07:17-0600',mode:absolute,to:'2016-06-05 09:50:34-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4017%22')),sort:!(Time,asc))</v>
-      </c>
-      <c r="U41" s="73" t="str">
+        <v>23.298100000000002</v>
+      </c>
+      <c r="X41" s="73">
         <f t="shared" si="11"/>
-        <v>N</v>
-      </c>
-      <c r="V41" s="73">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="W41" s="73">
-        <f t="shared" si="13"/>
-        <v>23.298100000000002</v>
-      </c>
-      <c r="X41" s="73">
-        <f t="shared" si="14"/>
         <v>1.54E-2</v>
       </c>
       <c r="Y41" s="73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>23.282700000000002</v>
       </c>
       <c r="Z41" s="74" t="e">
@@ -5782,7 +5779,7 @@
         <v>1</v>
       </c>
       <c r="K42" s="60" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>4019/4020</v>
       </c>
       <c r="L42" s="60" t="str">
@@ -5790,11 +5787,11 @@
         <v>GEBRETEKLE</v>
       </c>
       <c r="M42" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2.6203703702776693E-2</v>
       </c>
       <c r="N42" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>37.733333331998438</v>
       </c>
       <c r="O42" s="13"/>
@@ -5802,27 +5799,27 @@
       <c r="Q42" s="61"/>
       <c r="R42" s="61"/>
       <c r="T42" s="73" t="str">
+        <f t="shared" si="15"/>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 08:27:43-0600',mode:absolute,to:'2016-06-05 09:08:44-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4020%22')),sort:!(Time,asc))</v>
+      </c>
+      <c r="U42" s="73" t="str">
+        <f t="shared" si="16"/>
+        <v>N</v>
+      </c>
+      <c r="V42" s="73">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="W42" s="73">
         <f t="shared" si="10"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 08:27:43-0600',mode:absolute,to:'2016-06-05 09:08:44-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4020%22')),sort:!(Time,asc))</v>
-      </c>
-      <c r="U42" s="73" t="str">
+        <v>4.2599999999999999E-2</v>
+      </c>
+      <c r="X42" s="73">
         <f t="shared" si="11"/>
-        <v>N</v>
-      </c>
-      <c r="V42" s="73">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="W42" s="73">
-        <f t="shared" si="13"/>
-        <v>4.2599999999999999E-2</v>
-      </c>
-      <c r="X42" s="73">
-        <f t="shared" si="14"/>
         <v>23.329899999999999</v>
       </c>
       <c r="Y42" s="73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>23.287299999999998</v>
       </c>
       <c r="Z42" s="74">
@@ -5866,7 +5863,7 @@
         <v>0</v>
       </c>
       <c r="K43" s="60" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>4019/4020</v>
       </c>
       <c r="L43" s="60" t="str">
@@ -5874,11 +5871,11 @@
         <v>GEBRETEKLE</v>
       </c>
       <c r="M43" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>3.0567129630071577E-2</v>
       </c>
       <c r="N43" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>44.01666666730307</v>
       </c>
       <c r="O43" s="13"/>
@@ -5886,27 +5883,27 @@
       <c r="Q43" s="61"/>
       <c r="R43" s="61"/>
       <c r="T43" s="73" t="str">
+        <f t="shared" si="15"/>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 09:21:16-0600',mode:absolute,to:'2016-06-05 10:08:36-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
+      </c>
+      <c r="U43" s="73" t="str">
+        <f t="shared" si="16"/>
+        <v>N</v>
+      </c>
+      <c r="V43" s="73">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="W43" s="73">
         <f t="shared" si="10"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 09:21:16-0600',mode:absolute,to:'2016-06-05 10:08:36-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
-      </c>
-      <c r="U43" s="73" t="str">
+        <v>23.297799999999999</v>
+      </c>
+      <c r="X43" s="73">
         <f t="shared" si="11"/>
-        <v>N</v>
-      </c>
-      <c r="V43" s="73">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="W43" s="73">
-        <f t="shared" si="13"/>
-        <v>23.297799999999999</v>
-      </c>
-      <c r="X43" s="73">
-        <f t="shared" si="14"/>
         <v>1.3899999999999999E-2</v>
       </c>
       <c r="Y43" s="73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>23.283899999999999</v>
       </c>
       <c r="Z43" s="74" t="e">
@@ -5950,7 +5947,7 @@
         <v>2</v>
       </c>
       <c r="K44" s="60" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>4031/4032</v>
       </c>
       <c r="L44" s="60" t="str">
@@ -5958,11 +5955,11 @@
         <v>BRABO</v>
       </c>
       <c r="M44" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>3.7627314814017154E-2</v>
       </c>
       <c r="N44" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>54.183333332184702</v>
       </c>
       <c r="O44" s="13"/>
@@ -5970,27 +5967,27 @@
       <c r="Q44" s="61"/>
       <c r="R44" s="61"/>
       <c r="T44" s="73" t="str">
+        <f t="shared" si="15"/>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 08:37:27-0600',mode:absolute,to:'2016-06-05 09:35:02-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4031%22')),sort:!(Time,asc))</v>
+      </c>
+      <c r="U44" s="73" t="str">
+        <f t="shared" si="16"/>
+        <v>N</v>
+      </c>
+      <c r="V44" s="73">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="W44" s="73">
         <f t="shared" si="10"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 08:37:27-0600',mode:absolute,to:'2016-06-05 09:35:02-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4031%22')),sort:!(Time,asc))</v>
-      </c>
-      <c r="U44" s="73" t="str">
+        <v>4.6600000000000003E-2</v>
+      </c>
+      <c r="X44" s="73">
         <f t="shared" si="11"/>
-        <v>N</v>
-      </c>
-      <c r="V44" s="73">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="W44" s="73">
-        <f t="shared" si="13"/>
-        <v>4.6600000000000003E-2</v>
-      </c>
-      <c r="X44" s="73">
-        <f t="shared" si="14"/>
         <v>23.328700000000001</v>
       </c>
       <c r="Y44" s="73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>23.2821</v>
       </c>
       <c r="Z44" s="74">
@@ -6034,7 +6031,7 @@
         <v>3</v>
       </c>
       <c r="K45" s="60" t="str">
-        <f>IF(ISEVEN(B45),(B45-1)&amp;"/"&amp;B45,B45&amp;"/"&amp;(B45+1))</f>
+        <f t="shared" si="13"/>
         <v>4031/4032</v>
       </c>
       <c r="L45" s="60" t="str">
@@ -6042,41 +6039,41 @@
         <v>BRABO</v>
       </c>
       <c r="M45" s="12">
-        <f>I45-F45</f>
+        <f t="shared" si="14"/>
         <v>2.287037036876427E-2</v>
       </c>
       <c r="N45" s="13"/>
       <c r="O45" s="13"/>
       <c r="P45" s="13">
-        <f t="shared" si="2"/>
+        <f>24*60*SUM($M45:$M45)</f>
         <v>32.933333331020549</v>
       </c>
       <c r="Q45" s="61"/>
       <c r="R45" s="61" t="s">
-        <v>433</v>
+        <v>121</v>
       </c>
       <c r="T45" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E45-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I45+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B45&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="15"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 09:36:07-0600',mode:absolute,to:'2016-06-05 10:12:34-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4032%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U45" s="73" t="str">
-        <f>IF(Y45&lt;23,"Y","N")</f>
+        <f t="shared" si="16"/>
         <v>N</v>
       </c>
       <c r="V45" s="73">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="W45" s="73">
-        <f>RIGHT(D45,LEN(D45)-4)/10000</f>
+        <f t="shared" si="10"/>
         <v>23.2959</v>
       </c>
       <c r="X45" s="73">
-        <f>RIGHT(H45,LEN(H45)-4)/10000</f>
+        <f t="shared" si="11"/>
         <v>1.3899999999999999E-2</v>
       </c>
       <c r="Y45" s="73">
-        <f>ABS(X45-W45)</f>
+        <f t="shared" si="18"/>
         <v>23.282</v>
       </c>
       <c r="Z45" s="74">
@@ -6120,7 +6117,7 @@
         <v>0</v>
       </c>
       <c r="K46" s="60" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>4027/4028</v>
       </c>
       <c r="L46" s="60" t="str">
@@ -6128,11 +6125,11 @@
         <v>MAYBERRY</v>
       </c>
       <c r="M46" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2.9710648144828156E-2</v>
       </c>
       <c r="N46" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="N46:N72" si="19">24*60*SUM($M46:$M46)</f>
         <v>42.783333328552544</v>
       </c>
       <c r="O46" s="13"/>
@@ -6140,27 +6137,27 @@
       <c r="Q46" s="61"/>
       <c r="R46" s="61"/>
       <c r="T46" s="73" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 08:53:00-0600',mode:absolute,to:'2016-06-05 09:39:10-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4027%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U46" s="73" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>N</v>
       </c>
       <c r="V46" s="73">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="W46" s="73">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="W46:W77" si="20">RIGHT(D46,LEN(D46)-4)/10000</f>
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="X46" s="73">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="X46:X77" si="21">RIGHT(H46,LEN(H46)-4)/10000</f>
         <v>23.328900000000001</v>
       </c>
       <c r="Y46" s="73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>23.282900000000001</v>
       </c>
       <c r="Z46" s="74" t="e">
@@ -6204,7 +6201,7 @@
         <v>0</v>
       </c>
       <c r="K47" s="60" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>4027/4028</v>
       </c>
       <c r="L47" s="60" t="str">
@@ -6212,11 +6209,11 @@
         <v>MAYBERRY</v>
       </c>
       <c r="M47" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>3.2743055555329192E-2</v>
       </c>
       <c r="N47" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="19"/>
         <v>47.149999999674037</v>
       </c>
       <c r="O47" s="13"/>
@@ -6224,27 +6221,27 @@
       <c r="Q47" s="61"/>
       <c r="R47" s="61"/>
       <c r="T47" s="73" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 09:44:31-0600',mode:absolute,to:'2016-06-05 10:35:45-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4028%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U47" s="73" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>N</v>
       </c>
       <c r="V47" s="73">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="W47" s="73">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>23.2959</v>
       </c>
       <c r="X47" s="73">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>1.67E-2</v>
       </c>
       <c r="Y47" s="73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>23.279199999999999</v>
       </c>
       <c r="Z47" s="74" t="e">
@@ -6288,7 +6285,7 @@
         <v>0</v>
       </c>
       <c r="K48" s="60" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>4039/4040</v>
       </c>
       <c r="L48" s="60" t="str">
@@ -6296,11 +6293,11 @@
         <v>STURGEON</v>
       </c>
       <c r="M48" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2.6053240741021E-2</v>
       </c>
       <c r="N48" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="19"/>
         <v>37.51666666707024</v>
       </c>
       <c r="O48" s="13"/>
@@ -6308,27 +6305,27 @@
       <c r="Q48" s="61"/>
       <c r="R48" s="61"/>
       <c r="T48" s="73" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 09:06:15-0600',mode:absolute,to:'2016-06-05 09:52:08-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4040%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U48" s="73" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>N</v>
       </c>
       <c r="V48" s="73">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="W48" s="73">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>4.8599999999999997E-2</v>
       </c>
       <c r="X48" s="73">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>23.3278</v>
       </c>
       <c r="Y48" s="73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>23.279199999999999</v>
       </c>
       <c r="Z48" s="74" t="e">
@@ -6372,7 +6369,7 @@
         <v>0</v>
       </c>
       <c r="K49" s="60" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>4039/4040</v>
       </c>
       <c r="L49" s="60" t="str">
@@ -6380,11 +6377,11 @@
         <v>STURGEON</v>
       </c>
       <c r="M49" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>3.0104166668024845E-2</v>
       </c>
       <c r="N49" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="19"/>
         <v>43.350000001955777</v>
       </c>
       <c r="O49" s="13"/>
@@ -6392,27 +6389,27 @@
       <c r="Q49" s="61"/>
       <c r="R49" s="61"/>
       <c r="T49" s="73" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 10:03:15-0600',mode:absolute,to:'2016-06-05 10:49:44-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4039%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U49" s="73" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>N</v>
       </c>
       <c r="V49" s="73">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="W49" s="73">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>23.295300000000001</v>
       </c>
       <c r="X49" s="73">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>1.7399999999999999E-2</v>
       </c>
       <c r="Y49" s="73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>23.277900000000002</v>
       </c>
       <c r="Z49" s="74" t="e">
@@ -6456,7 +6453,7 @@
         <v>1</v>
       </c>
       <c r="K50" s="60" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>4023/4024</v>
       </c>
       <c r="L50" s="60" t="str">
@@ -6464,11 +6461,11 @@
         <v>GOODNIGHT</v>
       </c>
       <c r="M50" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2.9965277775772847E-2</v>
       </c>
       <c r="N50" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="19"/>
         <v>43.1499999971129</v>
       </c>
       <c r="O50" s="13"/>
@@ -6476,27 +6473,27 @@
       <c r="Q50" s="61"/>
       <c r="R50" s="61"/>
       <c r="T50" s="73" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 09:20:05-0600',mode:absolute,to:'2016-06-05 10:06:34-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U50" s="73" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>N</v>
       </c>
       <c r="V50" s="73">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="W50" s="73">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>4.9799999999999997E-2</v>
       </c>
       <c r="X50" s="73">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>23.3399</v>
       </c>
       <c r="Y50" s="73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>23.290099999999999</v>
       </c>
       <c r="Z50" s="74">
@@ -6540,7 +6537,7 @@
         <v>1</v>
       </c>
       <c r="K51" s="60" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>4023/4024</v>
       </c>
       <c r="L51" s="60" t="str">
@@ -6548,11 +6545,11 @@
         <v>GOODNIGHT</v>
       </c>
       <c r="M51" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>3.0081018521741498E-2</v>
       </c>
       <c r="N51" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="19"/>
         <v>43.316666671307757</v>
       </c>
       <c r="O51" s="13"/>
@@ -6560,27 +6557,27 @@
       <c r="Q51" s="61"/>
       <c r="R51" s="61"/>
       <c r="T51" s="73" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 10:18:22-0600',mode:absolute,to:'2016-06-05 11:04:57-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U51" s="73" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>N</v>
       </c>
       <c r="V51" s="73">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="W51" s="73">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>23.309200000000001</v>
       </c>
       <c r="X51" s="73">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>1.4500000000000001E-2</v>
       </c>
       <c r="Y51" s="73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>23.294699999999999</v>
       </c>
       <c r="Z51" s="74">
@@ -6624,7 +6621,7 @@
         <v>0</v>
       </c>
       <c r="K52" s="60" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>4009/4010</v>
       </c>
       <c r="L52" s="60" t="str">
@@ -6632,11 +6629,11 @@
         <v>SANTIZO</v>
       </c>
       <c r="M52" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2.8136574073869269E-2</v>
       </c>
       <c r="N52" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="19"/>
         <v>40.516666666371748</v>
       </c>
       <c r="O52" s="13"/>
@@ -6644,27 +6641,27 @@
       <c r="Q52" s="61"/>
       <c r="R52" s="61"/>
       <c r="T52" s="73" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 09:41:21-0600',mode:absolute,to:'2016-06-05 10:25:12-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4009%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U52" s="73" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>N</v>
       </c>
       <c r="V52" s="73">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="W52" s="73">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>4.4400000000000002E-2</v>
       </c>
       <c r="X52" s="73">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>23.331399999999999</v>
       </c>
       <c r="Y52" s="73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>23.286999999999999</v>
       </c>
       <c r="Z52" s="74" t="e">
@@ -6708,7 +6705,7 @@
         <v>0</v>
       </c>
       <c r="K53" s="60" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>4009/4010</v>
       </c>
       <c r="L53" s="60" t="str">
@@ -6716,11 +6713,11 @@
         <v>SANTIZO</v>
       </c>
       <c r="M53" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>3.2858796294021886E-2</v>
       </c>
       <c r="N53" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="19"/>
         <v>47.316666663391516</v>
       </c>
       <c r="O53" s="13"/>
@@ -6728,27 +6725,27 @@
       <c r="Q53" s="61"/>
       <c r="R53" s="61"/>
       <c r="T53" s="73" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 10:29:46-0600',mode:absolute,to:'2016-06-05 11:20:18-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4010%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U53" s="73" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>N</v>
       </c>
       <c r="V53" s="73">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="W53" s="73">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>23.299600000000002</v>
       </c>
       <c r="X53" s="73">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>1.52E-2</v>
       </c>
       <c r="Y53" s="73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>23.284400000000002</v>
       </c>
       <c r="Z53" s="74" t="e">
@@ -6792,7 +6789,7 @@
         <v>0</v>
       </c>
       <c r="K54" s="60" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>4017/4018</v>
       </c>
       <c r="L54" s="60" t="str">
@@ -6800,11 +6797,11 @@
         <v>MALAVE</v>
       </c>
       <c r="M54" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2.7708333334885538E-2</v>
       </c>
       <c r="N54" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="19"/>
         <v>39.900000002235174</v>
       </c>
       <c r="O54" s="13"/>
@@ -6812,27 +6809,27 @@
       <c r="Q54" s="61"/>
       <c r="R54" s="61"/>
       <c r="T54" s="73" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 09:56:25-0600',mode:absolute,to:'2016-06-05 10:39:13-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4018%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U54" s="73" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>N</v>
       </c>
       <c r="V54" s="73">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="W54" s="73">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>4.6600000000000003E-2</v>
       </c>
       <c r="X54" s="73">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>23.3293</v>
       </c>
       <c r="Y54" s="73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>23.282699999999998</v>
       </c>
       <c r="Z54" s="74" t="e">
@@ -6876,7 +6873,7 @@
         <v>1</v>
       </c>
       <c r="K55" s="60" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>4017/4018</v>
       </c>
       <c r="L55" s="60" t="str">
@@ -6884,11 +6881,11 @@
         <v>MALAVE</v>
       </c>
       <c r="M55" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2.7025462964957114E-2</v>
       </c>
       <c r="N55" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="19"/>
         <v>38.916666669538245</v>
       </c>
       <c r="O55" s="13"/>
@@ -6896,27 +6893,27 @@
       <c r="Q55" s="61"/>
       <c r="R55" s="61"/>
       <c r="T55" s="73" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 10:52:37-0600',mode:absolute,to:'2016-06-05 11:34:57-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4017%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U55" s="73" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>N</v>
       </c>
       <c r="V55" s="73">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="W55" s="73">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>23.2971</v>
       </c>
       <c r="X55" s="73">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>1.61E-2</v>
       </c>
       <c r="Y55" s="73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>23.280999999999999</v>
       </c>
       <c r="Z55" s="74">
@@ -6960,7 +6957,7 @@
         <v>0</v>
       </c>
       <c r="K56" s="60" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>4019/4020</v>
       </c>
       <c r="L56" s="60" t="str">
@@ -6968,11 +6965,11 @@
         <v>ACKERMAN</v>
       </c>
       <c r="M56" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2.6111111110367347E-2</v>
       </c>
       <c r="N56" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="19"/>
         <v>37.599999998928979</v>
       </c>
       <c r="O56" s="13"/>
@@ -6980,27 +6977,27 @@
       <c r="Q56" s="61"/>
       <c r="R56" s="61"/>
       <c r="T56" s="73" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 10:13:23-0600',mode:absolute,to:'2016-06-05 10:54:24-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4020%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U56" s="73" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>N</v>
       </c>
       <c r="V56" s="73">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="W56" s="73">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>4.3499999999999997E-2</v>
       </c>
       <c r="X56" s="73">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>23.328700000000001</v>
       </c>
       <c r="Y56" s="73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>23.2852</v>
       </c>
       <c r="Z56" s="74" t="e">
@@ -7044,7 +7041,7 @@
         <v>0</v>
       </c>
       <c r="K57" s="60" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>4019/4020</v>
       </c>
       <c r="L57" s="60" t="str">
@@ -7052,11 +7049,11 @@
         <v>ACKERMAN</v>
       </c>
       <c r="M57" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>3.0555555560567882E-2</v>
       </c>
       <c r="N57" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="19"/>
         <v>44.00000000721775</v>
       </c>
       <c r="O57" s="13"/>
@@ -7064,27 +7061,27 @@
       <c r="Q57" s="61"/>
       <c r="R57" s="61"/>
       <c r="T57" s="73" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 11:01:34-0600',mode:absolute,to:'2016-06-05 11:53:51-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U57" s="73" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>N</v>
       </c>
       <c r="V57" s="73">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="W57" s="73">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>23.298100000000002</v>
       </c>
       <c r="X57" s="73">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>1.41E-2</v>
       </c>
       <c r="Y57" s="73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>23.284000000000002</v>
       </c>
       <c r="Z57" s="74" t="e">
@@ -7128,7 +7125,7 @@
         <v>0</v>
       </c>
       <c r="K58" s="60" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>4031/4032</v>
       </c>
       <c r="L58" s="60" t="str">
@@ -7136,11 +7133,11 @@
         <v>GEBRETEKLE</v>
       </c>
       <c r="M58" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2.6076388887304347E-2</v>
       </c>
       <c r="N58" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="19"/>
         <v>37.54999999771826</v>
       </c>
       <c r="O58" s="13"/>
@@ -7148,27 +7145,27 @@
       <c r="Q58" s="61"/>
       <c r="R58" s="61"/>
       <c r="T58" s="73" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 10:29:04-0600',mode:absolute,to:'2016-06-05 11:10:42-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4031%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U58" s="73" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>N</v>
       </c>
       <c r="V58" s="73">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="W58" s="73">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>4.4400000000000002E-2</v>
       </c>
       <c r="X58" s="73">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>23.330100000000002</v>
       </c>
       <c r="Y58" s="73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>23.285700000000002</v>
       </c>
       <c r="Z58" s="74" t="e">
@@ -7212,7 +7209,7 @@
         <v>2</v>
       </c>
       <c r="K59" s="60" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>4031/4032</v>
       </c>
       <c r="L59" s="60" t="str">
@@ -7220,11 +7217,11 @@
         <v>GEBRETEKLE</v>
       </c>
       <c r="M59" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>3.4166666664532386E-2</v>
       </c>
       <c r="N59" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="19"/>
         <v>49.199999996926636</v>
       </c>
       <c r="O59" s="13"/>
@@ -7232,27 +7229,27 @@
       <c r="Q59" s="61"/>
       <c r="R59" s="61"/>
       <c r="T59" s="73" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 11:14:48-0600',mode:absolute,to:'2016-06-05 12:07:45-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4032%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U59" s="73" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>N</v>
       </c>
       <c r="V59" s="73">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="W59" s="73">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>23.297999999999998</v>
       </c>
       <c r="X59" s="73">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>1.3899999999999999E-2</v>
       </c>
       <c r="Y59" s="73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>23.284099999999999</v>
       </c>
       <c r="Z59" s="74">
@@ -7296,7 +7293,7 @@
         <v>0</v>
       </c>
       <c r="K60" s="60" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>4027/4028</v>
       </c>
       <c r="L60" s="60" t="str">
@@ -7304,11 +7301,11 @@
         <v>HELVIE</v>
       </c>
       <c r="M60" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2.619212962599704E-2</v>
       </c>
       <c r="N60" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="19"/>
         <v>37.716666661435738</v>
       </c>
       <c r="O60" s="13"/>
@@ -7316,27 +7313,27 @@
       <c r="Q60" s="61"/>
       <c r="R60" s="61"/>
       <c r="T60" s="73" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 10:41:02-0600',mode:absolute,to:'2016-06-05 11:22:26-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4027%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U60" s="73" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>N</v>
       </c>
       <c r="V60" s="73">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="W60" s="73">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>4.5100000000000001E-2</v>
       </c>
       <c r="X60" s="73">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>23.330200000000001</v>
       </c>
       <c r="Y60" s="73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>23.2851</v>
       </c>
       <c r="Z60" s="74" t="e">
@@ -7380,7 +7377,7 @@
         <v>0</v>
       </c>
       <c r="K61" s="60" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>4027/4028</v>
       </c>
       <c r="L61" s="60" t="str">
@@ -7388,11 +7385,11 @@
         <v>HELVIE</v>
       </c>
       <c r="M61" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1.0277777779265307E-2</v>
       </c>
       <c r="N61" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="19"/>
         <v>14.800000002142042</v>
       </c>
       <c r="O61" s="13"/>
@@ -7400,27 +7397,27 @@
       <c r="Q61" s="61"/>
       <c r="R61" s="61"/>
       <c r="T61" s="73" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 11:28:05-0600',mode:absolute,to:'2016-06-05 11:46:42-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4028%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U61" s="73" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>Y</v>
       </c>
       <c r="V61" s="73">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="W61" s="73">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>23.299099999999999</v>
       </c>
       <c r="X61" s="73">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>22.160299999999999</v>
       </c>
       <c r="Y61" s="73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.1387999999999998</v>
       </c>
       <c r="Z61" s="74">
@@ -7464,7 +7461,7 @@
         <v>0</v>
       </c>
       <c r="K62" s="60" t="str">
-        <f t="shared" ref="K62:K79" si="32">IF(ISEVEN(B62),(B62-1)&amp;"/"&amp;B62,B62&amp;"/"&amp;(B62+1))</f>
+        <f t="shared" si="13"/>
         <v>4039/4040</v>
       </c>
       <c r="L62" s="60" t="str">
@@ -7472,11 +7469,11 @@
         <v>MAYBERRY</v>
       </c>
       <c r="M62" s="12">
-        <f t="shared" ref="M62:M79" si="33">I62-F62</f>
+        <f t="shared" si="14"/>
         <v>3.0104166660748888E-2</v>
       </c>
       <c r="N62" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="19"/>
         <v>43.349999991478398</v>
       </c>
       <c r="O62" s="13"/>
@@ -7484,27 +7481,27 @@
       <c r="Q62" s="61"/>
       <c r="R62" s="61"/>
       <c r="T62" s="73" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 10:50:38-0600',mode:absolute,to:'2016-06-05 11:37:35-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4040%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U62" s="73" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>N</v>
       </c>
       <c r="V62" s="73">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="W62" s="73">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>5.0599999999999999E-2</v>
       </c>
       <c r="X62" s="73">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>23.328900000000001</v>
       </c>
       <c r="Y62" s="73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>23.278300000000002</v>
       </c>
       <c r="Z62" s="74" t="e">
@@ -7548,7 +7545,7 @@
         <v>1</v>
       </c>
       <c r="K63" s="60" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="13"/>
         <v>4039/4040</v>
       </c>
       <c r="L63" s="60" t="str">
@@ -7556,11 +7553,11 @@
         <v>MAYBERRY</v>
       </c>
       <c r="M63" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="14"/>
         <v>3.068287036876427E-2</v>
       </c>
       <c r="N63" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="19"/>
         <v>44.183333331020549</v>
       </c>
       <c r="O63" s="13"/>
@@ -7568,27 +7565,27 @@
       <c r="Q63" s="61"/>
       <c r="R63" s="61"/>
       <c r="T63" s="73" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 11:50:47-0600',mode:absolute,to:'2016-06-05 12:39:49-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4039%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U63" s="73" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>N</v>
       </c>
       <c r="V63" s="73">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="W63" s="73">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>23.296900000000001</v>
       </c>
       <c r="X63" s="73">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>1.3899999999999999E-2</v>
       </c>
       <c r="Y63" s="73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>23.283000000000001</v>
       </c>
       <c r="Z63" s="74">
@@ -7632,7 +7629,7 @@
         <v>0</v>
       </c>
       <c r="K64" s="60" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="13"/>
         <v>4023/4024</v>
       </c>
       <c r="L64" s="60" t="str">
@@ -7640,11 +7637,11 @@
         <v>RIVERA</v>
       </c>
       <c r="M64" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="14"/>
         <v>2.9293981482624076E-2</v>
       </c>
       <c r="N64" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="19"/>
         <v>42.18333333497867</v>
       </c>
       <c r="O64" s="13"/>
@@ -7652,27 +7649,27 @@
       <c r="Q64" s="61"/>
       <c r="R64" s="61"/>
       <c r="T64" s="73" t="str">
-        <f t="shared" ref="T64:T80" si="34">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E64-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I64+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B64&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="15"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 11:06:18-0600',mode:absolute,to:'2016-06-05 11:52:04-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U64" s="73" t="str">
-        <f t="shared" ref="U64:U80" si="35">IF(Y64&lt;23,"Y","N")</f>
+        <f t="shared" si="16"/>
         <v>N</v>
       </c>
       <c r="V64" s="73">
-        <f t="shared" ref="V64:V80" si="36">VALUE(LEFT(A64,3))-VALUE(LEFT(A63,3))</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="W64" s="73">
-        <f t="shared" ref="W64:W80" si="37">RIGHT(D64,LEN(D64)-4)/10000</f>
+        <f t="shared" si="20"/>
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="X64" s="73">
-        <f t="shared" ref="X64:X80" si="38">RIGHT(H64,LEN(H64)-4)/10000</f>
+        <f t="shared" si="21"/>
         <v>23.331</v>
       </c>
       <c r="Y64" s="73">
-        <f t="shared" ref="Y64:Y80" si="39">ABS(X64-W64)</f>
+        <f t="shared" si="18"/>
         <v>23.285</v>
       </c>
       <c r="Z64" s="74" t="e">
@@ -7713,7 +7710,7 @@
         <v>0</v>
       </c>
       <c r="K65" s="60" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="13"/>
         <v>4023/4024</v>
       </c>
       <c r="L65" s="60" t="str">
@@ -7721,11 +7718,11 @@
         <v>RIVERA</v>
       </c>
       <c r="M65" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="14"/>
         <v>3.2291666662786156E-2</v>
       </c>
       <c r="N65" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="19"/>
         <v>46.499999994412065</v>
       </c>
       <c r="O65" s="13"/>
@@ -7733,27 +7730,27 @@
       <c r="Q65" s="61"/>
       <c r="R65" s="61"/>
       <c r="T65" s="73" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="15"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 11:59:38-0600',mode:absolute,to:'2016-06-05 12:49:26-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U65" s="73" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="16"/>
         <v>N</v>
       </c>
       <c r="V65" s="73">
-        <f t="shared" si="36"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="W65" s="73">
-        <f t="shared" si="37"/>
+        <f t="shared" si="20"/>
         <v>23.3004</v>
       </c>
       <c r="X65" s="73">
-        <f t="shared" si="38"/>
+        <f t="shared" si="21"/>
         <v>1.3899999999999999E-2</v>
       </c>
       <c r="Y65" s="73">
-        <f t="shared" si="39"/>
+        <f t="shared" si="18"/>
         <v>23.2865</v>
       </c>
       <c r="Z65" s="74" t="e">
@@ -7794,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="K66" s="60" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="13"/>
         <v>4009/4010</v>
       </c>
       <c r="L66" s="60" t="str">
@@ -7802,11 +7799,11 @@
         <v>BONDS</v>
       </c>
       <c r="M66" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="14"/>
         <v>3.0914351846149657E-2</v>
       </c>
       <c r="N66" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="19"/>
         <v>44.516666658455506</v>
       </c>
       <c r="O66" s="13"/>
@@ -7814,27 +7811,27 @@
       <c r="Q66" s="61"/>
       <c r="R66" s="61"/>
       <c r="T66" s="73" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="15"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 11:23:33-0600',mode:absolute,to:'2016-06-05 12:11:23-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4009%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U66" s="73" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="16"/>
         <v>N</v>
       </c>
       <c r="V66" s="73">
-        <f t="shared" si="36"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="W66" s="73">
-        <f t="shared" si="37"/>
+        <f t="shared" si="20"/>
         <v>4.7800000000000002E-2</v>
       </c>
       <c r="X66" s="73">
-        <f t="shared" si="38"/>
+        <f t="shared" si="21"/>
         <v>23.3307</v>
       </c>
       <c r="Y66" s="73">
-        <f t="shared" si="39"/>
+        <f t="shared" si="18"/>
         <v>23.282900000000001</v>
       </c>
       <c r="Z66" s="74" t="e">
@@ -7875,7 +7872,7 @@
         <v>0</v>
       </c>
       <c r="K67" s="60" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" ref="K67:K98" si="22">IF(ISEVEN(B67),(B67-1)&amp;"/"&amp;B67,B67&amp;"/"&amp;(B67+1))</f>
         <v>4009/4010</v>
       </c>
       <c r="L67" s="60" t="str">
@@ -7883,11 +7880,11 @@
         <v>BONDS</v>
       </c>
       <c r="M67" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" ref="M67:M98" si="23">I67-F67</f>
         <v>3.1018518515338656E-2</v>
       </c>
       <c r="N67" s="13">
-        <f t="shared" ref="N67:N130" si="40">24*60*SUM($M67:$M67)</f>
+        <f t="shared" si="19"/>
         <v>44.666666662087664</v>
       </c>
       <c r="O67" s="13"/>
@@ -7895,27 +7892,27 @@
       <c r="Q67" s="61"/>
       <c r="R67" s="61"/>
       <c r="T67" s="73" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" ref="T67:T98" si="24">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E67-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I67+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B67&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 12:16:14-0600',mode:absolute,to:'2016-06-05 13:04:27-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4010%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U67" s="73" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" ref="U67:U98" si="25">IF(Y67&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V67" s="73">
-        <f t="shared" si="36"/>
+        <f t="shared" ref="V67:V98" si="26">VALUE(LEFT(A67,3))-VALUE(LEFT(A66,3))</f>
         <v>1</v>
       </c>
       <c r="W67" s="73">
-        <f t="shared" si="37"/>
+        <f t="shared" si="20"/>
         <v>23.299199999999999</v>
       </c>
       <c r="X67" s="73">
-        <f t="shared" si="38"/>
+        <f t="shared" si="21"/>
         <v>1.23E-2</v>
       </c>
       <c r="Y67" s="73">
-        <f t="shared" si="39"/>
+        <f t="shared" ref="Y67:Y98" si="27">ABS(X67-W67)</f>
         <v>23.286899999999999</v>
       </c>
       <c r="Z67" s="74" t="e">
@@ -7956,7 +7953,7 @@
         <v>0</v>
       </c>
       <c r="K68" s="60" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="22"/>
         <v>4017/4018</v>
       </c>
       <c r="L68" s="60" t="str">
@@ -7964,11 +7961,11 @@
         <v>LOCKLEAR</v>
       </c>
       <c r="M68" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>3.6388888882356696E-2</v>
       </c>
       <c r="N68" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="19"/>
         <v>52.399999990593642</v>
       </c>
       <c r="O68" s="13"/>
@@ -7976,27 +7973,27 @@
       <c r="Q68" s="61"/>
       <c r="R68" s="61"/>
       <c r="T68" s="73" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="24"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 11:37:24-0600',mode:absolute,to:'2016-06-05 12:33:15-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4018%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U68" s="73" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="25"/>
         <v>N</v>
       </c>
       <c r="V68" s="73">
-        <f t="shared" si="36"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="W68" s="73">
-        <f t="shared" si="37"/>
+        <f t="shared" si="20"/>
         <v>4.7500000000000001E-2</v>
       </c>
       <c r="X68" s="73">
-        <f t="shared" si="38"/>
+        <f t="shared" si="21"/>
         <v>23.338000000000001</v>
       </c>
       <c r="Y68" s="73">
-        <f t="shared" si="39"/>
+        <f t="shared" si="27"/>
         <v>23.290500000000002</v>
       </c>
       <c r="Z68" s="74" t="e">
@@ -8037,7 +8034,7 @@
         <v>1</v>
       </c>
       <c r="K69" s="60" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="22"/>
         <v>4017/4018</v>
       </c>
       <c r="L69" s="60" t="str">
@@ -8045,11 +8042,11 @@
         <v>LOCKLEAR</v>
       </c>
       <c r="M69" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>2.8159722220152617E-2</v>
       </c>
       <c r="N69" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="19"/>
         <v>40.549999997019768</v>
       </c>
       <c r="O69" s="13"/>
@@ -8057,27 +8054,27 @@
       <c r="Q69" s="61"/>
       <c r="R69" s="61"/>
       <c r="T69" s="73" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="24"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 12:35:32-0600',mode:absolute,to:'2016-06-05 13:19:40-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4017%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U69" s="73" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="25"/>
         <v>N</v>
       </c>
       <c r="V69" s="73">
-        <f t="shared" si="36"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="W69" s="73">
-        <f t="shared" si="37"/>
+        <f t="shared" si="20"/>
         <v>23.311900000000001</v>
       </c>
       <c r="X69" s="73">
-        <f t="shared" si="38"/>
+        <f t="shared" si="21"/>
         <v>1.78E-2</v>
       </c>
       <c r="Y69" s="73">
-        <f t="shared" si="39"/>
+        <f t="shared" si="27"/>
         <v>23.2941</v>
       </c>
       <c r="Z69" s="74">
@@ -8118,7 +8115,7 @@
         <v>0</v>
       </c>
       <c r="K70" s="60" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="22"/>
         <v>4019/4020</v>
       </c>
       <c r="L70" s="60" t="str">
@@ -8126,11 +8123,11 @@
         <v>ACKERMAN</v>
       </c>
       <c r="M70" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>2.6655092595319729E-2</v>
       </c>
       <c r="N70" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="19"/>
         <v>38.38333333726041</v>
       </c>
       <c r="O70" s="13"/>
@@ -8138,27 +8135,27 @@
       <c r="Q70" s="61"/>
       <c r="R70" s="61"/>
       <c r="T70" s="73" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="24"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 11:55:22-0600',mode:absolute,to:'2016-06-05 12:37:08-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4020%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U70" s="73" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="25"/>
         <v>N</v>
       </c>
       <c r="V70" s="73">
-        <f t="shared" si="36"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="W70" s="73">
-        <f t="shared" si="37"/>
+        <f t="shared" si="20"/>
         <v>4.4900000000000002E-2</v>
       </c>
       <c r="X70" s="73">
-        <f t="shared" si="38"/>
+        <f t="shared" si="21"/>
         <v>23.3322</v>
       </c>
       <c r="Y70" s="73">
-        <f t="shared" si="39"/>
+        <f t="shared" si="27"/>
         <v>23.287300000000002</v>
       </c>
       <c r="Z70" s="74" t="e">
@@ -8199,7 +8196,7 @@
         <v>0</v>
       </c>
       <c r="K71" s="60" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="22"/>
         <v>4019/4020</v>
       </c>
       <c r="L71" s="60" t="str">
@@ -8207,11 +8204,11 @@
         <v>ACKERMAN</v>
       </c>
       <c r="M71" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>3.1631944446417037E-2</v>
       </c>
       <c r="N71" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="19"/>
         <v>45.550000002840534</v>
       </c>
       <c r="O71" s="13"/>
@@ -8219,27 +8216,27 @@
       <c r="Q71" s="61"/>
       <c r="R71" s="61"/>
       <c r="T71" s="73" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="24"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 12:47:27-0600',mode:absolute,to:'2016-06-05 13:36:32-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U71" s="73" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="25"/>
         <v>N</v>
       </c>
       <c r="V71" s="73">
-        <f t="shared" si="36"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="W71" s="73">
-        <f t="shared" si="37"/>
+        <f t="shared" si="20"/>
         <v>23.298400000000001</v>
       </c>
       <c r="X71" s="73">
-        <f t="shared" si="38"/>
+        <f t="shared" si="21"/>
         <v>1.61E-2</v>
       </c>
       <c r="Y71" s="73">
-        <f t="shared" si="39"/>
+        <f t="shared" si="27"/>
         <v>23.282299999999999</v>
       </c>
       <c r="Z71" s="74" t="e">
@@ -8280,7 +8277,7 @@
         <v>0</v>
       </c>
       <c r="K72" s="60" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="22"/>
         <v>4031/4032</v>
       </c>
       <c r="L72" s="60" t="str">
@@ -8288,11 +8285,11 @@
         <v>STEWART</v>
       </c>
       <c r="M72" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>2.644675926421769E-2</v>
       </c>
       <c r="N72" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="19"/>
         <v>38.083333340473473</v>
       </c>
       <c r="O72" s="13"/>
@@ -8300,27 +8297,27 @@
       <c r="Q72" s="61"/>
       <c r="R72" s="61"/>
       <c r="T72" s="73" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="24"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 12:09:58-0600',mode:absolute,to:'2016-06-05 12:52:12-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4031%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U72" s="73" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="25"/>
         <v>N</v>
       </c>
       <c r="V72" s="73">
-        <f t="shared" si="36"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="W72" s="73">
-        <f t="shared" si="37"/>
+        <f t="shared" si="20"/>
         <v>4.7699999999999999E-2</v>
       </c>
       <c r="X72" s="73">
-        <f t="shared" si="38"/>
+        <f t="shared" si="21"/>
         <v>23.3306</v>
       </c>
       <c r="Y72" s="73">
-        <f t="shared" si="39"/>
+        <f t="shared" si="27"/>
         <v>23.282900000000001</v>
       </c>
       <c r="Z72" s="74" t="e">
@@ -8340,28 +8337,28 @@
         <v>62</v>
       </c>
       <c r="D73" s="60" t="s">
-        <v>173</v>
+        <v>364</v>
       </c>
       <c r="E73" s="30">
-        <v>42526.545520833337</v>
+        <v>42526.564814814818</v>
       </c>
       <c r="F73" s="30">
-        <v>42526.547060185185</v>
+        <v>42526.565694444442</v>
       </c>
       <c r="G73" s="38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H73" s="30" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="I73" s="30">
-        <v>42526.564814814818</v>
+        <v>42526.572083333333</v>
       </c>
       <c r="J73" s="60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K73" s="60" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="22"/>
         <v>4031/4032</v>
       </c>
       <c r="L73" s="60" t="str">
@@ -8369,37 +8366,42 @@
         <v>STEWART</v>
       </c>
       <c r="M73" s="12">
-        <f t="shared" si="33"/>
-        <v>1.7754629632690921E-2</v>
+        <f t="shared" si="23"/>
+        <v>6.3888888907968067E-3</v>
       </c>
       <c r="N73" s="13"/>
       <c r="O73" s="13"/>
-      <c r="P73" s="13"/>
+      <c r="P73" s="13">
+        <f>24*60*SUM($M72:$M73)</f>
+        <v>47.283333343220875</v>
+      </c>
       <c r="Q73" s="61"/>
-      <c r="R73" s="61"/>
+      <c r="R73" s="61" t="s">
+        <v>439</v>
+      </c>
       <c r="T73" s="73" t="str">
-        <f t="shared" si="34"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 13:04:33-0600',mode:absolute,to:'2016-06-05 13:34:20-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4032%22')),sort:!(Time,asc))</v>
+        <f t="shared" si="24"/>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 13:32:20-0600',mode:absolute,to:'2016-06-05 13:44:48-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4032%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U73" s="73" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="25"/>
         <v>Y</v>
       </c>
       <c r="V73" s="73">
-        <f t="shared" si="36"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="W73" s="73">
-        <f t="shared" si="37"/>
-        <v>23.3</v>
+        <f t="shared" si="20"/>
+        <v>8.6351999999999993</v>
       </c>
       <c r="X73" s="73">
-        <f t="shared" si="38"/>
-        <v>8.8941999999999997</v>
+        <f t="shared" si="21"/>
+        <v>3.6787999999999998</v>
       </c>
       <c r="Y73" s="73">
-        <f t="shared" si="39"/>
-        <v>14.405800000000001</v>
+        <f t="shared" si="27"/>
+        <v>4.9563999999999995</v>
       </c>
       <c r="Z73" s="74">
         <f>VLOOKUP(A73,Enforcements!$C$3:$J$53,8,0)</f>
@@ -8418,28 +8420,28 @@
         <v>62</v>
       </c>
       <c r="D74" s="60" t="s">
-        <v>364</v>
+        <v>173</v>
       </c>
       <c r="E74" s="30">
+        <v>42526.545520833337</v>
+      </c>
+      <c r="F74" s="30">
+        <v>42526.547060185185</v>
+      </c>
+      <c r="G74" s="38">
+        <v>2</v>
+      </c>
+      <c r="H74" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="I74" s="30">
         <v>42526.564814814818</v>
       </c>
-      <c r="F74" s="30">
-        <v>42526.565694444442</v>
-      </c>
-      <c r="G74" s="38">
-        <v>1</v>
-      </c>
-      <c r="H74" s="30" t="s">
-        <v>365</v>
-      </c>
-      <c r="I74" s="30">
-        <v>42526.572083333333</v>
-      </c>
       <c r="J74" s="60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K74" s="60" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="22"/>
         <v>4031/4032</v>
       </c>
       <c r="L74" s="60" t="str">
@@ -8447,42 +8449,37 @@
         <v>STEWART</v>
       </c>
       <c r="M74" s="12">
-        <f t="shared" si="33"/>
-        <v>6.3888888907968067E-3</v>
+        <f t="shared" si="23"/>
+        <v>1.7754629632690921E-2</v>
       </c>
       <c r="N74" s="13"/>
       <c r="O74" s="13"/>
-      <c r="P74" s="13">
-        <f>24*60*SUM($M73:$M74)</f>
-        <v>34.766666673822328</v>
-      </c>
+      <c r="P74" s="13"/>
       <c r="Q74" s="61"/>
-      <c r="R74" s="61" t="s">
-        <v>433</v>
-      </c>
+      <c r="R74" s="61"/>
       <c r="T74" s="73" t="str">
-        <f t="shared" si="34"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 13:32:20-0600',mode:absolute,to:'2016-06-05 13:44:48-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4032%22')),sort:!(Time,asc))</v>
+        <f t="shared" si="24"/>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 13:04:33-0600',mode:absolute,to:'2016-06-05 13:34:20-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4032%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U74" s="73" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="25"/>
         <v>Y</v>
       </c>
       <c r="V74" s="73">
-        <f t="shared" si="36"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="W74" s="73">
-        <f t="shared" si="37"/>
-        <v>8.6351999999999993</v>
+        <f t="shared" si="20"/>
+        <v>23.3</v>
       </c>
       <c r="X74" s="73">
-        <f t="shared" si="38"/>
-        <v>3.6787999999999998</v>
+        <f t="shared" si="21"/>
+        <v>8.8941999999999997</v>
       </c>
       <c r="Y74" s="73">
-        <f t="shared" si="39"/>
-        <v>4.9563999999999995</v>
+        <f t="shared" si="27"/>
+        <v>14.405800000000001</v>
       </c>
       <c r="Z74" s="74">
         <f>VLOOKUP(A74,Enforcements!$C$3:$J$53,8,0)</f>
@@ -8522,7 +8519,7 @@
         <v>0</v>
       </c>
       <c r="K75" s="60" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="22"/>
         <v>4027/4028</v>
       </c>
       <c r="L75" s="60" t="str">
@@ -8530,11 +8527,11 @@
         <v>HELVIE</v>
       </c>
       <c r="M75" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>2.6203703702776693E-2</v>
       </c>
       <c r="N75" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" ref="N75:N106" si="28">24*60*SUM($M75:$M75)</f>
         <v>37.733333331998438</v>
       </c>
       <c r="O75" s="13"/>
@@ -8542,27 +8539,27 @@
       <c r="Q75" s="61"/>
       <c r="R75" s="61"/>
       <c r="T75" s="73" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="24"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 12:27:40-0600',mode:absolute,to:'2016-06-05 13:09:12-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4027%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U75" s="73" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="25"/>
         <v>N</v>
       </c>
       <c r="V75" s="73">
-        <f t="shared" si="36"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="W75" s="73">
-        <f t="shared" si="37"/>
+        <f t="shared" si="20"/>
         <v>5.0900000000000001E-2</v>
       </c>
       <c r="X75" s="73">
-        <f t="shared" si="38"/>
+        <f t="shared" si="21"/>
         <v>23.329699999999999</v>
       </c>
       <c r="Y75" s="73">
-        <f t="shared" si="39"/>
+        <f t="shared" si="27"/>
         <v>23.2788</v>
       </c>
       <c r="Z75" s="74" t="e">
@@ -8603,7 +8600,7 @@
         <v>0</v>
       </c>
       <c r="K76" s="60" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="22"/>
         <v>4027/4028</v>
       </c>
       <c r="L76" s="60" t="str">
@@ -8611,11 +8608,11 @@
         <v>HELVIE</v>
       </c>
       <c r="M76" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>3.276620370161254E-2</v>
       </c>
       <c r="N76" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="28"/>
         <v>47.183333330322057</v>
       </c>
       <c r="O76" s="13"/>
@@ -8623,27 +8620,27 @@
       <c r="Q76" s="61"/>
       <c r="R76" s="61"/>
       <c r="T76" s="73" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="24"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 13:15:25-0600',mode:absolute,to:'2016-06-05 14:05:57-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4028%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U76" s="73" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="25"/>
         <v>N</v>
       </c>
       <c r="V76" s="73">
-        <f t="shared" si="36"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="W76" s="73">
-        <f t="shared" si="37"/>
+        <f t="shared" si="20"/>
         <v>23.2986</v>
       </c>
       <c r="X76" s="73">
-        <f t="shared" si="38"/>
+        <f t="shared" si="21"/>
         <v>1.5800000000000002E-2</v>
       </c>
       <c r="Y76" s="73">
-        <f t="shared" si="39"/>
+        <f t="shared" si="27"/>
         <v>23.282800000000002</v>
       </c>
       <c r="Z76" s="74" t="e">
@@ -8684,7 +8681,7 @@
         <v>0</v>
       </c>
       <c r="K77" s="60" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="22"/>
         <v>4039/4040</v>
       </c>
       <c r="L77" s="60" t="str">
@@ -8692,11 +8689,11 @@
         <v>STRICKLAND</v>
       </c>
       <c r="M77" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>2.6851851849642117E-2</v>
       </c>
       <c r="N77" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="28"/>
         <v>38.666666663484648</v>
       </c>
       <c r="O77" s="13"/>
@@ -8704,27 +8701,27 @@
       <c r="Q77" s="61"/>
       <c r="R77" s="61"/>
       <c r="T77" s="73" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="24"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 12:41:33-0600',mode:absolute,to:'2016-06-05 13:24:03-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4040%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U77" s="73" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="25"/>
         <v>N</v>
       </c>
       <c r="V77" s="73">
-        <f t="shared" si="36"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="W77" s="73">
-        <f t="shared" si="37"/>
+        <f t="shared" si="20"/>
         <v>4.7300000000000002E-2</v>
       </c>
       <c r="X77" s="73">
-        <f t="shared" si="38"/>
+        <f t="shared" si="21"/>
         <v>23.330200000000001</v>
       </c>
       <c r="Y77" s="73">
-        <f t="shared" si="39"/>
+        <f t="shared" si="27"/>
         <v>23.282900000000001</v>
       </c>
       <c r="Z77" s="74" t="e">
@@ -8765,7 +8762,7 @@
         <v>0</v>
       </c>
       <c r="K78" s="60" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="22"/>
         <v>4039/4040</v>
       </c>
       <c r="L78" s="60" t="str">
@@ -8773,11 +8770,11 @@
         <v>STRICKLAND</v>
       </c>
       <c r="M78" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>3.3900462964083999E-2</v>
       </c>
       <c r="N78" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="28"/>
         <v>48.816666668280959</v>
       </c>
       <c r="O78" s="13"/>
@@ -8785,27 +8782,27 @@
       <c r="Q78" s="61"/>
       <c r="R78" s="61"/>
       <c r="T78" s="73" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="24"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 13:29:02-0600',mode:absolute,to:'2016-06-05 14:21:34-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4039%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U78" s="73" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="25"/>
         <v>N</v>
       </c>
       <c r="V78" s="73">
-        <f t="shared" si="36"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="W78" s="73">
-        <f t="shared" si="37"/>
+        <f t="shared" ref="W78:W84" si="29">RIGHT(D78,LEN(D78)-4)/10000</f>
         <v>23.299299999999999</v>
       </c>
       <c r="X78" s="73">
-        <f t="shared" si="38"/>
+        <f t="shared" ref="X78:X84" si="30">RIGHT(H78,LEN(H78)-4)/10000</f>
         <v>1.49E-2</v>
       </c>
       <c r="Y78" s="73">
-        <f t="shared" si="39"/>
+        <f t="shared" si="27"/>
         <v>23.284399999999998</v>
       </c>
       <c r="Z78" s="74" t="e">
@@ -8846,7 +8843,7 @@
         <v>0</v>
       </c>
       <c r="K79" s="60" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="22"/>
         <v>4023/4024</v>
       </c>
       <c r="L79" s="60" t="str">
@@ -8854,11 +8851,11 @@
         <v>RIVERA</v>
       </c>
       <c r="M79" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>3.0266203699284233E-2</v>
       </c>
       <c r="N79" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="28"/>
         <v>43.583333326969296</v>
       </c>
       <c r="O79" s="13"/>
@@ -8866,27 +8863,27 @@
       <c r="Q79" s="61"/>
       <c r="R79" s="61"/>
       <c r="T79" s="73" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="24"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 12:49:31-0600',mode:absolute,to:'2016-06-05 13:36:38-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U79" s="73" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="25"/>
         <v>N</v>
       </c>
       <c r="V79" s="73">
-        <f t="shared" si="36"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="W79" s="73">
-        <f t="shared" si="37"/>
+        <f t="shared" si="29"/>
         <v>4.4900000000000002E-2</v>
       </c>
       <c r="X79" s="73">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>23.3324</v>
       </c>
       <c r="Y79" s="73">
-        <f t="shared" si="39"/>
+        <f t="shared" si="27"/>
         <v>23.287500000000001</v>
       </c>
       <c r="Z79" s="74" t="e">
@@ -8930,7 +8927,7 @@
         <v>0</v>
       </c>
       <c r="K80" s="60" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="22"/>
         <v>4023/4024</v>
       </c>
       <c r="L80" s="60" t="str">
@@ -8938,11 +8935,11 @@
         <v>RIVERA</v>
       </c>
       <c r="M80" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="23"/>
         <v>3.1134259254031349E-2</v>
       </c>
       <c r="N80" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="28"/>
         <v>44.833333325805143</v>
       </c>
       <c r="O80" s="13"/>
@@ -8950,27 +8947,27 @@
       <c r="Q80" s="61"/>
       <c r="R80" s="61"/>
       <c r="T80" s="73" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="24"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 13:46:17-0600',mode:absolute,to:'2016-06-05 14:34:27-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U80" s="73" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="25"/>
         <v>N</v>
       </c>
       <c r="V80" s="73">
-        <f t="shared" si="36"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="W80" s="73">
-        <f t="shared" si="37"/>
+        <f t="shared" si="29"/>
         <v>23.299600000000002</v>
       </c>
       <c r="X80" s="73">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>1.38E-2</v>
       </c>
       <c r="Y80" s="73">
-        <f t="shared" si="39"/>
+        <f t="shared" si="27"/>
         <v>23.285800000000002</v>
       </c>
       <c r="Z80" s="74" t="e">
@@ -9014,7 +9011,7 @@
         <v>0</v>
       </c>
       <c r="K81" s="60" t="str">
-        <f t="shared" ref="K81:K143" si="41">IF(ISEVEN(B81),(B81-1)&amp;"/"&amp;B81,B81&amp;"/"&amp;(B81+1))</f>
+        <f t="shared" si="22"/>
         <v>4009/4010</v>
       </c>
       <c r="L81" s="60" t="str">
@@ -9022,11 +9019,11 @@
         <v>BONDS</v>
       </c>
       <c r="M81" s="12">
-        <f t="shared" ref="M81:M143" si="42">I81-F81</f>
+        <f t="shared" si="23"/>
         <v>2.7673611111822538E-2</v>
       </c>
       <c r="N81" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="28"/>
         <v>39.850000001024455</v>
       </c>
       <c r="O81" s="13"/>
@@ -9034,27 +9031,27 @@
       <c r="Q81" s="61"/>
       <c r="R81" s="61"/>
       <c r="T81" s="73" t="str">
-        <f t="shared" ref="T81:T143" si="43">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E81-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I81+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B81&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="24"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 13:07:05-0600',mode:absolute,to:'2016-06-05 13:54:55-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4009%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U81" s="73" t="str">
-        <f t="shared" ref="U81:U143" si="44">IF(Y81&lt;23,"Y","N")</f>
+        <f t="shared" si="25"/>
         <v>N</v>
       </c>
       <c r="V81" s="73">
-        <f t="shared" ref="V81:V143" si="45">VALUE(LEFT(A81,3))-VALUE(LEFT(A80,3))</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="W81" s="73">
-        <f t="shared" ref="W81:W143" si="46">RIGHT(D81,LEN(D81)-4)/10000</f>
+        <f t="shared" si="29"/>
         <v>4.3799999999999999E-2</v>
       </c>
       <c r="X81" s="73">
-        <f t="shared" ref="X81:X143" si="47">RIGHT(H81,LEN(H81)-4)/10000</f>
+        <f t="shared" si="30"/>
         <v>23.333100000000002</v>
       </c>
       <c r="Y81" s="73">
-        <f t="shared" ref="Y81:Y143" si="48">ABS(X81-W81)</f>
+        <f t="shared" si="27"/>
         <v>23.289300000000001</v>
       </c>
       <c r="Z81" s="74" t="e">
@@ -9098,7 +9095,7 @@
         <v>1</v>
       </c>
       <c r="K82" s="60" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="22"/>
         <v>4009/4010</v>
       </c>
       <c r="L82" s="60" t="str">
@@ -9106,11 +9103,11 @@
         <v>BONDS</v>
       </c>
       <c r="M82" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="23"/>
         <v>3.4374999995634425E-2</v>
       </c>
       <c r="N82" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="28"/>
         <v>49.499999993713573</v>
       </c>
       <c r="O82" s="13"/>
@@ -9118,27 +9115,27 @@
       <c r="Q82" s="61"/>
       <c r="R82" s="61"/>
       <c r="T82" s="73" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="24"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 14:01:01-0600',mode:absolute,to:'2016-06-05 14:53:33-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4010%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U82" s="73" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="25"/>
         <v>N</v>
       </c>
       <c r="V82" s="73">
-        <f t="shared" si="45"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="W82" s="73">
-        <f t="shared" si="46"/>
+        <f t="shared" si="29"/>
         <v>23.3017</v>
       </c>
       <c r="X82" s="73">
-        <f t="shared" si="47"/>
+        <f t="shared" si="30"/>
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="Y82" s="73">
-        <f t="shared" si="48"/>
+        <f t="shared" si="27"/>
         <v>23.2837</v>
       </c>
       <c r="Z82" s="74">
@@ -9182,7 +9179,7 @@
         <v>0</v>
       </c>
       <c r="K83" s="60" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="22"/>
         <v>4017/4018</v>
       </c>
       <c r="L83" s="60" t="str">
@@ -9190,11 +9187,11 @@
         <v>LOCKLEAR</v>
       </c>
       <c r="M83" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="23"/>
         <v>2.7511574073287193E-2</v>
       </c>
       <c r="N83" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="28"/>
         <v>39.616666665533558</v>
       </c>
       <c r="O83" s="13"/>
@@ -9202,27 +9199,27 @@
       <c r="Q83" s="61"/>
       <c r="R83" s="61"/>
       <c r="T83" s="73" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="24"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 13:22:26-0600',mode:absolute,to:'2016-06-05 14:05:24-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4018%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U83" s="73" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="25"/>
         <v>N</v>
       </c>
       <c r="V83" s="73">
-        <f t="shared" si="45"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="W83" s="73">
-        <f t="shared" si="46"/>
+        <f t="shared" si="29"/>
         <v>4.7699999999999999E-2</v>
       </c>
       <c r="X83" s="73">
-        <f t="shared" si="47"/>
+        <f t="shared" si="30"/>
         <v>23.3385</v>
       </c>
       <c r="Y83" s="73">
-        <f t="shared" si="48"/>
+        <f t="shared" si="27"/>
         <v>23.290800000000001</v>
       </c>
       <c r="Z83" s="74" t="e">
@@ -9266,7 +9263,7 @@
         <v>1</v>
       </c>
       <c r="K84" s="60" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="22"/>
         <v>4017/4018</v>
       </c>
       <c r="L84" s="60" t="str">
@@ -9274,11 +9271,11 @@
         <v>LOCKLEAR</v>
       </c>
       <c r="M84" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="23"/>
         <v>2.658564814919373E-2</v>
       </c>
       <c r="N84" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="28"/>
         <v>38.283333334838971</v>
       </c>
       <c r="O84" s="13"/>
@@ -9286,27 +9283,27 @@
       <c r="Q84" s="61"/>
       <c r="R84" s="61"/>
       <c r="T84" s="73" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="24"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 14:21:49-0600',mode:absolute,to:'2016-06-05 15:04:11-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4017%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U84" s="73" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="25"/>
         <v>N</v>
       </c>
       <c r="V84" s="73">
-        <f t="shared" si="45"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="W84" s="73">
-        <f t="shared" si="46"/>
+        <f t="shared" si="29"/>
         <v>23.307400000000001</v>
       </c>
       <c r="X84" s="73">
-        <f t="shared" si="47"/>
+        <f t="shared" si="30"/>
         <v>1.9400000000000001E-2</v>
       </c>
       <c r="Y84" s="73">
-        <f t="shared" si="48"/>
+        <f t="shared" si="27"/>
         <v>23.288</v>
       </c>
       <c r="Z84" s="74">
@@ -9350,7 +9347,7 @@
         <v>1</v>
       </c>
       <c r="K85" s="60" t="str">
-        <f t="shared" ref="K85" si="49">IF(ISEVEN(B85),(B85-1)&amp;"/"&amp;B85,B85&amp;"/"&amp;(B85+1))</f>
+        <f t="shared" si="22"/>
         <v>4019/4020</v>
       </c>
       <c r="L85" s="60" t="str">
@@ -9358,11 +9355,11 @@
         <v>ACKERMAN</v>
       </c>
       <c r="M85" s="12">
-        <f t="shared" ref="M85" si="50">I85-F85</f>
+        <f t="shared" si="23"/>
         <v>2.701388889545342E-2</v>
       </c>
       <c r="N85" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="28"/>
         <v>38.900000009452924</v>
       </c>
       <c r="O85" s="13"/>
@@ -9370,15 +9367,15 @@
       <c r="Q85" s="61"/>
       <c r="R85" s="61"/>
       <c r="T85" s="73" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="24"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 13:39:21-0600',mode:absolute,to:'2016-06-05 14:21:48-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4020%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U85" s="73" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="25"/>
         <v>Y</v>
       </c>
       <c r="V85" s="73">
-        <f t="shared" si="45"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="W85" s="73">
@@ -9388,7 +9385,7 @@
         <v>0.33550000000000002</v>
       </c>
       <c r="Y85" s="73">
-        <f t="shared" ref="Y85:Y86" si="51">ABS(X85-W85)</f>
+        <f t="shared" si="27"/>
         <v>22.976199999999999</v>
       </c>
       <c r="Z85" s="74">
@@ -9429,7 +9426,7 @@
         <v>1</v>
       </c>
       <c r="K86" s="60" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="22"/>
         <v>4019/4020</v>
       </c>
       <c r="L86" s="60" t="str">
@@ -9437,11 +9434,11 @@
         <v>ACKERMAN</v>
       </c>
       <c r="M86" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="23"/>
         <v>3.0451388891378883E-2</v>
       </c>
       <c r="N86" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="28"/>
         <v>43.850000003585592</v>
       </c>
       <c r="O86" s="13"/>
@@ -9449,27 +9446,27 @@
       <c r="Q86" s="61"/>
       <c r="R86" s="61"/>
       <c r="T86" s="73" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="24"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 14:32:07-0600',mode:absolute,to:'2016-06-05 15:19:20-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U86" s="73" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="25"/>
         <v>N</v>
       </c>
       <c r="V86" s="73">
-        <f t="shared" si="45"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="W86" s="73">
-        <f t="shared" si="46"/>
+        <f t="shared" ref="W86:W117" si="31">RIGHT(D86,LEN(D86)-4)/10000</f>
         <v>23.296600000000002</v>
       </c>
       <c r="X86" s="73">
-        <f t="shared" si="47"/>
+        <f t="shared" ref="X86:X117" si="32">RIGHT(H86,LEN(H86)-4)/10000</f>
         <v>1.23E-2</v>
       </c>
       <c r="Y86" s="73">
-        <f t="shared" si="51"/>
+        <f t="shared" si="27"/>
         <v>23.284300000000002</v>
       </c>
       <c r="Z86" s="74">
@@ -9513,7 +9510,7 @@
         <v>0</v>
       </c>
       <c r="K87" s="60" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="22"/>
         <v>4011/4012</v>
       </c>
       <c r="L87" s="60" t="str">
@@ -9521,11 +9518,11 @@
         <v>REBOLETTI</v>
       </c>
       <c r="M87" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="23"/>
         <v>2.7210648149775807E-2</v>
       </c>
       <c r="N87" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="28"/>
         <v>39.183333335677162</v>
       </c>
       <c r="O87" s="13"/>
@@ -9533,27 +9530,27 @@
       <c r="Q87" s="61"/>
       <c r="R87" s="61"/>
       <c r="T87" s="73" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="24"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 14:03:37-0600',mode:absolute,to:'2016-06-05 14:46:19-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4011%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U87" s="73" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="25"/>
         <v>N</v>
       </c>
       <c r="V87" s="73">
-        <f t="shared" si="45"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="W87" s="73">
-        <f t="shared" si="46"/>
+        <f t="shared" si="31"/>
         <v>4.6600000000000003E-2</v>
       </c>
       <c r="X87" s="73">
-        <f t="shared" si="47"/>
+        <f t="shared" si="32"/>
         <v>23.3293</v>
       </c>
       <c r="Y87" s="73">
-        <f t="shared" si="48"/>
+        <f t="shared" si="27"/>
         <v>23.282699999999998</v>
       </c>
       <c r="Z87" s="74" t="e">
@@ -9597,7 +9594,7 @@
         <v>0</v>
       </c>
       <c r="K88" s="60" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="22"/>
         <v>4011/4012</v>
       </c>
       <c r="L88" s="60" t="str">
@@ -9605,11 +9602,11 @@
         <v>REBOLETTI</v>
       </c>
       <c r="M88" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="23"/>
         <v>3.1446759254322387E-2</v>
       </c>
       <c r="N88" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="28"/>
         <v>45.283333326224238</v>
       </c>
       <c r="O88" s="13"/>
@@ -9617,27 +9614,27 @@
       <c r="Q88" s="61"/>
       <c r="R88" s="61"/>
       <c r="T88" s="73" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="24"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 14:46:20-0600',mode:absolute,to:'2016-06-05 15:35:22-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4012%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U88" s="73" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="25"/>
         <v>N</v>
       </c>
       <c r="V88" s="73">
-        <f t="shared" si="45"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="W88" s="73">
-        <f t="shared" si="46"/>
+        <f t="shared" si="31"/>
         <v>23.2971</v>
       </c>
       <c r="X88" s="73">
-        <f t="shared" si="47"/>
+        <f t="shared" si="32"/>
         <v>1.6E-2</v>
       </c>
       <c r="Y88" s="73">
-        <f t="shared" si="48"/>
+        <f t="shared" si="27"/>
         <v>23.281100000000002</v>
       </c>
       <c r="Z88" s="74" t="e">
@@ -9681,7 +9678,7 @@
         <v>0</v>
       </c>
       <c r="K89" s="60" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="22"/>
         <v>4027/4028</v>
       </c>
       <c r="L89" s="60" t="str">
@@ -9689,11 +9686,11 @@
         <v>HELVIE</v>
       </c>
       <c r="M89" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="23"/>
         <v>2.7812500004074536E-2</v>
       </c>
       <c r="N89" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="28"/>
         <v>40.050000005867332</v>
       </c>
       <c r="O89" s="13"/>
@@ -9701,27 +9698,27 @@
       <c r="Q89" s="61"/>
       <c r="R89" s="61"/>
       <c r="T89" s="73" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="24"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 14:08:07-0600',mode:absolute,to:'2016-06-05 14:51:41-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4027%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U89" s="73" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="25"/>
         <v>N</v>
       </c>
       <c r="V89" s="73">
-        <f t="shared" si="45"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="W89" s="73">
-        <f t="shared" si="46"/>
+        <f t="shared" si="31"/>
         <v>4.6600000000000003E-2</v>
       </c>
       <c r="X89" s="73">
-        <f t="shared" si="47"/>
+        <f t="shared" si="32"/>
         <v>23.329699999999999</v>
       </c>
       <c r="Y89" s="73">
-        <f t="shared" si="48"/>
+        <f t="shared" si="27"/>
         <v>23.283099999999997</v>
       </c>
       <c r="Z89" s="74" t="e">
@@ -9765,7 +9762,7 @@
         <v>0</v>
       </c>
       <c r="K90" s="60" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="22"/>
         <v>4027/4028</v>
       </c>
       <c r="L90" s="60" t="str">
@@ -9773,11 +9770,11 @@
         <v>HELVIE</v>
       </c>
       <c r="M90" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="23"/>
         <v>3.329861110978527E-2</v>
       </c>
       <c r="N90" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="28"/>
         <v>47.949999998090789</v>
       </c>
       <c r="O90" s="13"/>
@@ -9785,27 +9782,27 @@
       <c r="Q90" s="61"/>
       <c r="R90" s="61"/>
       <c r="T90" s="73" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="24"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 14:58:55-0600',mode:absolute,to:'2016-06-05 15:50:24-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4028%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U90" s="73" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="25"/>
         <v>N</v>
       </c>
       <c r="V90" s="73">
-        <f t="shared" si="45"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="W90" s="73">
-        <f t="shared" si="46"/>
+        <f t="shared" si="31"/>
         <v>23.2989</v>
       </c>
       <c r="X90" s="73">
-        <f t="shared" si="47"/>
+        <f t="shared" si="32"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="Y90" s="73">
-        <f t="shared" si="48"/>
+        <f t="shared" si="27"/>
         <v>23.283899999999999</v>
       </c>
       <c r="Z90" s="74" t="e">
@@ -9849,7 +9846,7 @@
         <v>1</v>
       </c>
       <c r="K91" s="60" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="22"/>
         <v>4039/4040</v>
       </c>
       <c r="L91" s="60" t="str">
@@ -9857,11 +9854,11 @@
         <v>STRICKLAND</v>
       </c>
       <c r="M91" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="23"/>
         <v>2.5173611109494232E-2</v>
       </c>
       <c r="N91" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="28"/>
         <v>36.249999997671694</v>
       </c>
       <c r="O91" s="13"/>
@@ -9869,27 +9866,27 @@
       <c r="Q91" s="61"/>
       <c r="R91" s="61"/>
       <c r="T91" s="73" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="24"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 14:23:44-0600',mode:absolute,to:'2016-06-05 15:07:38-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4040%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U91" s="73" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="25"/>
         <v>N</v>
       </c>
       <c r="V91" s="73">
-        <f t="shared" si="45"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="W91" s="73">
-        <f t="shared" si="46"/>
+        <f t="shared" si="31"/>
         <v>4.6399999999999997E-2</v>
       </c>
       <c r="X91" s="73">
-        <f t="shared" si="47"/>
+        <f t="shared" si="32"/>
         <v>23.3291</v>
       </c>
       <c r="Y91" s="73">
-        <f t="shared" si="48"/>
+        <f t="shared" si="27"/>
         <v>23.282700000000002</v>
       </c>
       <c r="Z91" s="74">
@@ -9933,7 +9930,7 @@
         <v>1</v>
       </c>
       <c r="K92" s="60" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="22"/>
         <v>4039/4040</v>
       </c>
       <c r="L92" s="60" t="str">
@@ -9941,11 +9938,11 @@
         <v>STRICKLAND</v>
       </c>
       <c r="M92" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="23"/>
         <v>3.3599537040572613E-2</v>
       </c>
       <c r="N92" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="28"/>
         <v>48.383333338424563</v>
       </c>
       <c r="O92" s="13"/>
@@ -9953,27 +9950,27 @@
       <c r="Q92" s="61"/>
       <c r="R92" s="61"/>
       <c r="T92" s="73" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="24"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 15:14:39-0600',mode:absolute,to:'2016-06-05 16:06:51-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4039%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U92" s="73" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="25"/>
         <v>N</v>
       </c>
       <c r="V92" s="73">
-        <f t="shared" si="45"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="W92" s="73">
-        <f t="shared" si="46"/>
+        <f t="shared" si="31"/>
         <v>23.297699999999999</v>
       </c>
       <c r="X92" s="73">
-        <f t="shared" si="47"/>
+        <f t="shared" si="32"/>
         <v>1.7399999999999999E-2</v>
       </c>
       <c r="Y92" s="73">
-        <f t="shared" si="48"/>
+        <f t="shared" si="27"/>
         <v>23.2803</v>
       </c>
       <c r="Z92" s="74">
@@ -10017,7 +10014,7 @@
         <v>0</v>
       </c>
       <c r="K93" s="60" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="22"/>
         <v>4023/4024</v>
       </c>
       <c r="L93" s="60" t="str">
@@ -10025,11 +10022,11 @@
         <v>RIVERA</v>
       </c>
       <c r="M93" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="23"/>
         <v>3.1805555554456078E-2</v>
       </c>
       <c r="N93" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="28"/>
         <v>45.799999998416752</v>
       </c>
       <c r="O93" s="13"/>
@@ -10037,27 +10034,27 @@
       <c r="Q93" s="61"/>
       <c r="R93" s="61"/>
       <c r="T93" s="73" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="24"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 14:34:54-0600',mode:absolute,to:'2016-06-05 15:24:07-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U93" s="73" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="25"/>
         <v>N</v>
       </c>
       <c r="V93" s="73">
-        <f t="shared" si="45"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="W93" s="73">
-        <f t="shared" si="46"/>
+        <f t="shared" si="31"/>
         <v>4.5699999999999998E-2</v>
       </c>
       <c r="X93" s="73">
-        <f t="shared" si="47"/>
+        <f t="shared" si="32"/>
         <v>23.33</v>
       </c>
       <c r="Y93" s="73">
-        <f t="shared" si="48"/>
+        <f t="shared" si="27"/>
         <v>23.284299999999998</v>
       </c>
       <c r="Z93" s="74" t="e">
@@ -10101,7 +10098,7 @@
         <v>1</v>
       </c>
       <c r="K94" s="60" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="22"/>
         <v>4023/4024</v>
       </c>
       <c r="L94" s="60" t="str">
@@ -10109,11 +10106,11 @@
         <v>RIVERA</v>
       </c>
       <c r="M94" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="23"/>
         <v>3.0023148145119194E-2</v>
       </c>
       <c r="N94" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="28"/>
         <v>43.233333328971639</v>
       </c>
       <c r="O94" s="13"/>
@@ -10121,27 +10118,27 @@
       <c r="Q94" s="61"/>
       <c r="R94" s="61"/>
       <c r="T94" s="73" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="24"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 15:32:46-0600',mode:absolute,to:'2016-06-05 16:19:07-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U94" s="73" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="25"/>
         <v>N</v>
       </c>
       <c r="V94" s="73">
-        <f t="shared" si="45"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="W94" s="73">
-        <f t="shared" si="46"/>
+        <f t="shared" si="31"/>
         <v>23.299299999999999</v>
       </c>
       <c r="X94" s="73">
-        <f t="shared" si="47"/>
+        <f t="shared" si="32"/>
         <v>1.43E-2</v>
       </c>
       <c r="Y94" s="73">
-        <f t="shared" si="48"/>
+        <f t="shared" si="27"/>
         <v>23.285</v>
       </c>
       <c r="Z94" s="74">
@@ -10185,7 +10182,7 @@
         <v>0</v>
       </c>
       <c r="K95" s="60" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="22"/>
         <v>4009/4010</v>
       </c>
       <c r="L95" s="60" t="str">
@@ -10193,11 +10190,11 @@
         <v>BONDS</v>
       </c>
       <c r="M95" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="23"/>
         <v>2.7141203703649808E-2</v>
       </c>
       <c r="N95" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="28"/>
         <v>39.083333333255723</v>
       </c>
       <c r="O95" s="13"/>
@@ -10205,27 +10202,27 @@
       <c r="Q95" s="61"/>
       <c r="R95" s="61"/>
       <c r="T95" s="73" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="24"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 14:55:29-0600',mode:absolute,to:'2016-06-05 15:37:57-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4009%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U95" s="73" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="25"/>
         <v>N</v>
       </c>
       <c r="V95" s="73">
-        <f t="shared" si="45"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="W95" s="73">
-        <f t="shared" si="46"/>
+        <f t="shared" si="31"/>
         <v>4.8899999999999999E-2</v>
       </c>
       <c r="X95" s="73">
-        <f t="shared" si="47"/>
+        <f t="shared" si="32"/>
         <v>23.328900000000001</v>
       </c>
       <c r="Y95" s="73">
-        <f t="shared" si="48"/>
+        <f t="shared" si="27"/>
         <v>23.28</v>
       </c>
       <c r="Z95" s="74" t="e">
@@ -10269,7 +10266,7 @@
         <v>0</v>
       </c>
       <c r="K96" s="60" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="22"/>
         <v>4009/4010</v>
       </c>
       <c r="L96" s="60" t="str">
@@ -10277,11 +10274,11 @@
         <v>BONDS</v>
       </c>
       <c r="M96" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="23"/>
         <v>3.1504629630944692E-2</v>
       </c>
       <c r="N96" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="28"/>
         <v>45.366666668560356</v>
       </c>
       <c r="O96" s="13"/>
@@ -10289,27 +10286,27 @@
       <c r="Q96" s="61"/>
       <c r="R96" s="61"/>
       <c r="T96" s="73" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="24"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 15:45:52-0600',mode:absolute,to:'2016-06-05 16:34:20-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4010%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U96" s="73" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="25"/>
         <v>N</v>
       </c>
       <c r="V96" s="73">
-        <f t="shared" si="45"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="W96" s="73">
-        <f t="shared" si="46"/>
+        <f t="shared" si="31"/>
         <v>23.297799999999999</v>
       </c>
       <c r="X96" s="73">
-        <f t="shared" si="47"/>
+        <f t="shared" si="32"/>
         <v>1.1599999999999999E-2</v>
       </c>
       <c r="Y96" s="73">
-        <f t="shared" si="48"/>
+        <f t="shared" si="27"/>
         <v>23.286199999999997</v>
       </c>
       <c r="Z96" s="74" t="e">
@@ -10353,7 +10350,7 @@
         <v>1</v>
       </c>
       <c r="K97" s="60" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="22"/>
         <v>4017/4018</v>
       </c>
       <c r="L97" s="60" t="str">
@@ -10361,11 +10358,11 @@
         <v>LOCKLEAR</v>
       </c>
       <c r="M97" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="23"/>
         <v>2.7037037034460809E-2</v>
       </c>
       <c r="N97" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="28"/>
         <v>38.933333329623565</v>
       </c>
       <c r="O97" s="13"/>
@@ -10373,27 +10370,27 @@
       <c r="Q97" s="61"/>
       <c r="R97" s="61"/>
       <c r="T97" s="73" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="24"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 15:09:46-0600',mode:absolute,to:'2016-06-05 15:51:43-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4018%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U97" s="73" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="25"/>
         <v>N</v>
       </c>
       <c r="V97" s="73">
-        <f t="shared" si="45"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="W97" s="73">
-        <f t="shared" si="46"/>
+        <f t="shared" si="31"/>
         <v>4.8599999999999997E-2</v>
       </c>
       <c r="X97" s="73">
-        <f t="shared" si="47"/>
+        <f t="shared" si="32"/>
         <v>23.332100000000001</v>
       </c>
       <c r="Y97" s="73">
-        <f t="shared" si="48"/>
+        <f t="shared" si="27"/>
         <v>23.2835</v>
       </c>
       <c r="Z97" s="74">
@@ -10437,7 +10434,7 @@
         <v>1</v>
       </c>
       <c r="K98" s="60" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="22"/>
         <v>4017/4018</v>
       </c>
       <c r="L98" s="60" t="str">
@@ -10445,11 +10442,11 @@
         <v>LOCKLEAR</v>
       </c>
       <c r="M98" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="23"/>
         <v>2.7094907403807156E-2</v>
       </c>
       <c r="N98" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="28"/>
         <v>39.016666661482304</v>
       </c>
       <c r="O98" s="13"/>
@@ -10457,27 +10454,27 @@
       <c r="Q98" s="61"/>
       <c r="R98" s="61"/>
       <c r="T98" s="73" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="24"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 16:07:07-0600',mode:absolute,to:'2016-06-05 16:49:08-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4017%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U98" s="73" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="25"/>
         <v>N</v>
       </c>
       <c r="V98" s="73">
-        <f t="shared" si="45"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="W98" s="73">
-        <f t="shared" si="46"/>
+        <f t="shared" si="31"/>
         <v>23.299800000000001</v>
       </c>
       <c r="X98" s="73">
-        <f t="shared" si="47"/>
+        <f t="shared" si="32"/>
         <v>1.5599999999999999E-2</v>
       </c>
       <c r="Y98" s="73">
-        <f t="shared" si="48"/>
+        <f t="shared" si="27"/>
         <v>23.284200000000002</v>
       </c>
       <c r="Z98" s="74">
@@ -10521,7 +10518,7 @@
         <v>0</v>
       </c>
       <c r="K99" s="60" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" ref="K99:K130" si="33">IF(ISEVEN(B99),(B99-1)&amp;"/"&amp;B99,B99&amp;"/"&amp;(B99+1))</f>
         <v>4019/4020</v>
       </c>
       <c r="L99" s="60" t="str">
@@ -10529,11 +10526,11 @@
         <v>ACKERMAN</v>
       </c>
       <c r="M99" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" ref="M99:M130" si="34">I99-F99</f>
         <v>2.7812499996798579E-2</v>
       </c>
       <c r="N99" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="28"/>
         <v>40.049999995389953</v>
       </c>
       <c r="O99" s="13"/>
@@ -10541,27 +10538,27 @@
       <c r="Q99" s="61"/>
       <c r="R99" s="61"/>
       <c r="T99" s="73" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" ref="T99:T130" si="35">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E99-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I99+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B99&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 15:23:39-0600',mode:absolute,to:'2016-06-05 16:07:04-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4020%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U99" s="73" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" ref="U99:U130" si="36">IF(Y99&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V99" s="73">
-        <f t="shared" si="45"/>
+        <f t="shared" ref="V99:V130" si="37">VALUE(LEFT(A99,3))-VALUE(LEFT(A98,3))</f>
         <v>1</v>
       </c>
       <c r="W99" s="73">
-        <f t="shared" si="46"/>
+        <f t="shared" si="31"/>
         <v>4.4400000000000002E-2</v>
       </c>
       <c r="X99" s="73">
-        <f t="shared" si="47"/>
+        <f t="shared" si="32"/>
         <v>23.329499999999999</v>
       </c>
       <c r="Y99" s="73">
-        <f t="shared" si="48"/>
+        <f t="shared" ref="Y99:Y130" si="38">ABS(X99-W99)</f>
         <v>23.2851</v>
       </c>
       <c r="Z99" s="74" t="e">
@@ -10605,7 +10602,7 @@
         <v>1</v>
       </c>
       <c r="K100" s="60" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>4019/4020</v>
       </c>
       <c r="L100" s="60" t="str">
@@ -10613,11 +10610,11 @@
         <v>ACKERMAN</v>
       </c>
       <c r="M100" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>3.1643518515920732E-2</v>
       </c>
       <c r="N100" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="28"/>
         <v>45.566666662925854</v>
       </c>
       <c r="O100" s="13"/>
@@ -10625,27 +10622,27 @@
       <c r="Q100" s="61"/>
       <c r="R100" s="61"/>
       <c r="T100" s="73" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 16:16:10-0600',mode:absolute,to:'2016-06-05 17:04:48-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U100" s="73" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="36"/>
         <v>N</v>
       </c>
       <c r="V100" s="73">
-        <f t="shared" si="45"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="W100" s="73">
-        <f t="shared" si="46"/>
+        <f t="shared" si="31"/>
         <v>23.297999999999998</v>
       </c>
       <c r="X100" s="73">
-        <f t="shared" si="47"/>
+        <f t="shared" si="32"/>
         <v>0.1177</v>
       </c>
       <c r="Y100" s="73">
-        <f t="shared" si="48"/>
+        <f t="shared" si="38"/>
         <v>23.180299999999999</v>
       </c>
       <c r="Z100" s="74">
@@ -10689,7 +10686,7 @@
         <v>0</v>
       </c>
       <c r="K101" s="60" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>4011/4012</v>
       </c>
       <c r="L101" s="60" t="str">
@@ -10697,11 +10694,11 @@
         <v>STEWART</v>
       </c>
       <c r="M101" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>2.6655092595319729E-2</v>
       </c>
       <c r="N101" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="28"/>
         <v>38.38333333726041</v>
       </c>
       <c r="O101" s="13"/>
@@ -10709,27 +10706,27 @@
       <c r="Q101" s="61"/>
       <c r="R101" s="61"/>
       <c r="T101" s="73" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 15:40:04-0600',mode:absolute,to:'2016-06-05 16:21:57-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4011%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U101" s="73" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="36"/>
         <v>N</v>
       </c>
       <c r="V101" s="73">
-        <f t="shared" si="45"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="W101" s="73">
-        <f t="shared" si="46"/>
+        <f t="shared" si="31"/>
         <v>4.6199999999999998E-2</v>
       </c>
       <c r="X101" s="73">
-        <f t="shared" si="47"/>
+        <f t="shared" si="32"/>
         <v>23.330200000000001</v>
       </c>
       <c r="Y101" s="73">
-        <f t="shared" si="48"/>
+        <f t="shared" si="38"/>
         <v>23.284000000000002</v>
       </c>
       <c r="Z101" s="74" t="e">
@@ -10773,7 +10770,7 @@
         <v>1</v>
       </c>
       <c r="K102" s="60" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>4011/4012</v>
       </c>
       <c r="L102" s="60" t="str">
@@ -10781,11 +10778,11 @@
         <v>STEWART</v>
       </c>
       <c r="M102" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>2.9166666659875773E-2</v>
       </c>
       <c r="N102" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="28"/>
         <v>41.999999990221113</v>
       </c>
       <c r="O102" s="13"/>
@@ -10793,27 +10790,27 @@
       <c r="Q102" s="61"/>
       <c r="R102" s="61"/>
       <c r="T102" s="73" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 16:34:33-0600',mode:absolute,to:'2016-06-05 17:20:33-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4012%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U102" s="73" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="36"/>
         <v>N</v>
       </c>
       <c r="V102" s="73">
-        <f t="shared" si="45"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="W102" s="73">
-        <f t="shared" si="46"/>
+        <f t="shared" si="31"/>
         <v>23.298500000000001</v>
       </c>
       <c r="X102" s="73">
-        <f t="shared" si="47"/>
+        <f t="shared" si="32"/>
         <v>3.0200000000000001E-2</v>
       </c>
       <c r="Y102" s="73">
-        <f t="shared" si="48"/>
+        <f t="shared" si="38"/>
         <v>23.2683</v>
       </c>
       <c r="Z102" s="74">
@@ -10857,7 +10854,7 @@
         <v>0</v>
       </c>
       <c r="K103" s="60" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>4027/4028</v>
       </c>
       <c r="L103" s="60" t="str">
@@ -10865,11 +10862,11 @@
         <v>HELVIE</v>
       </c>
       <c r="M103" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>2.6354166664532386E-2</v>
       </c>
       <c r="N103" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="28"/>
         <v>37.949999996926636</v>
       </c>
       <c r="O103" s="13"/>
@@ -10877,27 +10874,27 @@
       <c r="Q103" s="61"/>
       <c r="R103" s="61"/>
       <c r="T103" s="73" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 15:54:19-0600',mode:absolute,to:'2016-06-05 16:36:44-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4027%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U103" s="73" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="36"/>
         <v>N</v>
       </c>
       <c r="V103" s="73">
-        <f t="shared" si="45"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="W103" s="73">
-        <f t="shared" si="46"/>
+        <f t="shared" si="31"/>
         <v>4.4900000000000002E-2</v>
       </c>
       <c r="X103" s="73">
-        <f t="shared" si="47"/>
+        <f t="shared" si="32"/>
         <v>23.3278</v>
       </c>
       <c r="Y103" s="73">
-        <f t="shared" si="48"/>
+        <f t="shared" si="38"/>
         <v>23.282900000000001</v>
       </c>
       <c r="Z103" s="74" t="e">
@@ -10941,7 +10938,7 @@
         <v>1</v>
       </c>
       <c r="K104" s="60" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>4027/4028</v>
       </c>
       <c r="L104" s="60" t="str">
@@ -10949,11 +10946,11 @@
         <v>HELVIE</v>
       </c>
       <c r="M104" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>3.591435185080627E-2</v>
       </c>
       <c r="N104" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="28"/>
         <v>51.716666665161029</v>
       </c>
       <c r="O104" s="13"/>
@@ -10961,27 +10958,27 @@
       <c r="Q104" s="61"/>
       <c r="R104" s="61"/>
       <c r="T104" s="73" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 16:44:33-0600',mode:absolute,to:'2016-06-05 17:39:23-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4028%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U104" s="73" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="36"/>
         <v>N</v>
       </c>
       <c r="V104" s="73">
-        <f t="shared" si="45"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="W104" s="73">
-        <f t="shared" si="46"/>
+        <f t="shared" si="31"/>
         <v>23.297799999999999</v>
       </c>
       <c r="X104" s="73">
-        <f t="shared" si="47"/>
+        <f t="shared" si="32"/>
         <v>1.5599999999999999E-2</v>
       </c>
       <c r="Y104" s="73">
-        <f t="shared" si="48"/>
+        <f t="shared" si="38"/>
         <v>23.2822</v>
       </c>
       <c r="Z104" s="74">
@@ -11025,7 +11022,7 @@
         <v>0</v>
       </c>
       <c r="K105" s="60" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>4039/4040</v>
       </c>
       <c r="L105" s="60" t="str">
@@ -11033,11 +11030,11 @@
         <v>STRICKLAND</v>
       </c>
       <c r="M105" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>2.749999999650754E-2</v>
       </c>
       <c r="N105" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="28"/>
         <v>39.599999994970858</v>
       </c>
       <c r="O105" s="13"/>
@@ -11045,27 +11042,27 @@
       <c r="Q105" s="61"/>
       <c r="R105" s="61"/>
       <c r="T105" s="73" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 16:09:05-0600',mode:absolute,to:'2016-06-05 16:52:25-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4040%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U105" s="73" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="36"/>
         <v>N</v>
       </c>
       <c r="V105" s="73">
-        <f t="shared" si="45"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="W105" s="73">
-        <f t="shared" si="46"/>
+        <f t="shared" si="31"/>
         <v>4.9099999999999998E-2</v>
       </c>
       <c r="X105" s="73">
-        <f t="shared" si="47"/>
+        <f t="shared" si="32"/>
         <v>23.330400000000001</v>
       </c>
       <c r="Y105" s="73">
-        <f t="shared" si="48"/>
+        <f t="shared" si="38"/>
         <v>23.281300000000002</v>
       </c>
       <c r="Z105" s="74" t="e">
@@ -11109,7 +11106,7 @@
         <v>0</v>
       </c>
       <c r="K106" s="60" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>4039/4040</v>
       </c>
       <c r="L106" s="60" t="str">
@@ -11117,11 +11114,11 @@
         <v>STRICKLAND</v>
       </c>
       <c r="M106" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>3.5543981481168885E-2</v>
       </c>
       <c r="N106" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="28"/>
         <v>51.183333332883194</v>
       </c>
       <c r="O106" s="13"/>
@@ -11129,27 +11126,27 @@
       <c r="Q106" s="61"/>
       <c r="R106" s="61"/>
       <c r="T106" s="73" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 16:57:22-0600',mode:absolute,to:'2016-06-05 17:51:46-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4039%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U106" s="73" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="36"/>
         <v>N</v>
       </c>
       <c r="V106" s="73">
-        <f t="shared" si="45"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="W106" s="73">
-        <f t="shared" si="46"/>
+        <f t="shared" si="31"/>
         <v>23.299299999999999</v>
       </c>
       <c r="X106" s="73">
-        <f t="shared" si="47"/>
+        <f t="shared" si="32"/>
         <v>1.43E-2</v>
       </c>
       <c r="Y106" s="73">
-        <f t="shared" si="48"/>
+        <f t="shared" si="38"/>
         <v>23.285</v>
       </c>
       <c r="Z106" s="74" t="e">
@@ -11193,7 +11190,7 @@
         <v>2</v>
       </c>
       <c r="K107" s="60" t="str">
-        <f>IF(ISEVEN(B107),(B107-1)&amp;"/"&amp;B107,B107&amp;"/"&amp;(B107+1))</f>
+        <f t="shared" si="33"/>
         <v>4023/4024</v>
       </c>
       <c r="L107" s="60" t="str">
@@ -11201,7 +11198,7 @@
         <v>RIVERA</v>
       </c>
       <c r="M107" s="12">
-        <f>I107-F107</f>
+        <f t="shared" si="34"/>
         <v>1.5625E-2</v>
       </c>
       <c r="N107" s="13"/>
@@ -11210,27 +11207,27 @@
       <c r="Q107" s="61"/>
       <c r="R107" s="61"/>
       <c r="T107" s="73" t="str">
-        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E107-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I107+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B107&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="35"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 16:19:40-0600',mode:absolute,to:'2016-06-05 16:45:51-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U107" s="73" t="str">
-        <f>IF(Y107&lt;23,"Y","N")</f>
+        <f t="shared" si="36"/>
         <v>Y</v>
       </c>
       <c r="V107" s="73">
-        <f t="shared" si="45"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="W107" s="73">
-        <f>RIGHT(D107,LEN(D107)-4)/10000</f>
+        <f t="shared" si="31"/>
         <v>4.53E-2</v>
       </c>
       <c r="X107" s="73">
-        <f>RIGHT(H107,LEN(H107)-4)/10000</f>
+        <f t="shared" si="32"/>
         <v>6.3613999999999997</v>
       </c>
       <c r="Y107" s="73">
-        <f>ABS(X107-W107)</f>
+        <f t="shared" si="38"/>
         <v>6.3160999999999996</v>
       </c>
       <c r="Z107" s="74">
@@ -11274,7 +11271,7 @@
         <v>0</v>
       </c>
       <c r="K108" s="60" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>4023/4024</v>
       </c>
       <c r="L108" s="60" t="str">
@@ -11282,7 +11279,7 @@
         <v>RIVERA</v>
       </c>
       <c r="M108" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>1.0289351856044959E-2</v>
       </c>
       <c r="N108" s="13"/>
@@ -11291,34 +11288,32 @@
         <f>24*60*SUM($M107:$M108)</f>
         <v>37.316666672704741</v>
       </c>
-      <c r="Q108" s="61" t="s">
-        <v>436</v>
-      </c>
+      <c r="Q108" s="61"/>
       <c r="R108" s="61" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="T108" s="73" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 16:53:53-0600',mode:absolute,to:'2016-06-05 17:11:29-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U108" s="73" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="36"/>
         <v>Y</v>
       </c>
       <c r="V108" s="73">
-        <f t="shared" si="45"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="W108" s="73">
-        <f t="shared" si="46"/>
+        <f t="shared" si="31"/>
         <v>12.827199999999999</v>
       </c>
       <c r="X108" s="73">
-        <f t="shared" si="47"/>
+        <f t="shared" si="32"/>
         <v>23.331099999999999</v>
       </c>
       <c r="Y108" s="73">
-        <f t="shared" si="48"/>
+        <f t="shared" si="38"/>
         <v>10.5039</v>
       </c>
       <c r="Z108" s="74">
@@ -11362,7 +11357,7 @@
         <v>0</v>
       </c>
       <c r="K109" s="60" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>4023/4024</v>
       </c>
       <c r="L109" s="60" t="str">
@@ -11370,11 +11365,11 @@
         <v>RIVERA</v>
       </c>
       <c r="M109" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>3.1122685191803612E-2</v>
       </c>
       <c r="N109" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" ref="N109:N142" si="39">24*60*SUM($M109:$M109)</f>
         <v>44.816666676197201</v>
       </c>
       <c r="O109" s="13"/>
@@ -11382,27 +11377,27 @@
       <c r="Q109" s="61"/>
       <c r="R109" s="61"/>
       <c r="T109" s="73" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 17:16:31-0600',mode:absolute,to:'2016-06-05 18:04:39-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U109" s="73" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="36"/>
         <v>N</v>
       </c>
       <c r="V109" s="73">
-        <f t="shared" si="45"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="W109" s="73">
-        <f t="shared" si="46"/>
+        <f t="shared" si="31"/>
         <v>23.2986</v>
       </c>
       <c r="X109" s="73">
-        <f t="shared" si="47"/>
+        <f t="shared" si="32"/>
         <v>1.38E-2</v>
       </c>
       <c r="Y109" s="73">
-        <f t="shared" si="48"/>
+        <f t="shared" si="38"/>
         <v>23.284800000000001</v>
       </c>
       <c r="Z109" s="74" t="e">
@@ -11446,7 +11441,7 @@
         <v>0</v>
       </c>
       <c r="K110" s="60" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>4009/4010</v>
       </c>
       <c r="L110" s="60" t="str">
@@ -11454,11 +11449,11 @@
         <v>BONDS</v>
       </c>
       <c r="M110" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>3.1319444446125999E-2</v>
       </c>
       <c r="N110" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>45.100000002421439</v>
       </c>
       <c r="O110" s="13"/>
@@ -11466,27 +11461,27 @@
       <c r="Q110" s="61"/>
       <c r="R110" s="61"/>
       <c r="T110" s="73" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 16:34:43-0600',mode:absolute,to:'2016-06-05 17:23:13-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4009%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U110" s="73" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="36"/>
         <v>N</v>
       </c>
       <c r="V110" s="73">
-        <f t="shared" si="45"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="W110" s="73">
-        <f t="shared" si="46"/>
+        <f t="shared" si="31"/>
         <v>4.2700000000000002E-2</v>
       </c>
       <c r="X110" s="73">
-        <f t="shared" si="47"/>
+        <f t="shared" si="32"/>
         <v>23.3325</v>
       </c>
       <c r="Y110" s="73">
-        <f t="shared" si="48"/>
+        <f t="shared" si="38"/>
         <v>23.2898</v>
       </c>
       <c r="Z110" s="74" t="e">
@@ -11530,7 +11525,7 @@
         <v>0</v>
       </c>
       <c r="K111" s="60" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>4009/4010</v>
       </c>
       <c r="L111" s="60" t="str">
@@ -11538,11 +11533,11 @@
         <v>BONDS</v>
       </c>
       <c r="M111" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>3.0949074076488614E-2</v>
       </c>
       <c r="N111" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>44.566666670143604</v>
       </c>
       <c r="O111" s="13"/>
@@ -11550,27 +11545,27 @@
       <c r="Q111" s="61"/>
       <c r="R111" s="61"/>
       <c r="T111" s="73" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 17:31:40-0600',mode:absolute,to:'2016-06-05 18:19:36-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4010%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U111" s="73" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="36"/>
         <v>N</v>
       </c>
       <c r="V111" s="73">
-        <f t="shared" si="45"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="W111" s="73">
-        <f t="shared" si="46"/>
+        <f t="shared" si="31"/>
         <v>23.301300000000001</v>
       </c>
       <c r="X111" s="73">
-        <f t="shared" si="47"/>
+        <f t="shared" si="32"/>
         <v>1.3899999999999999E-2</v>
       </c>
       <c r="Y111" s="73">
-        <f t="shared" si="48"/>
+        <f t="shared" si="38"/>
         <v>23.287400000000002</v>
       </c>
       <c r="Z111" s="74" t="e">
@@ -11614,7 +11609,7 @@
         <v>1</v>
       </c>
       <c r="K112" s="60" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>4017/4018</v>
       </c>
       <c r="L112" s="60" t="str">
@@ -11622,11 +11617,11 @@
         <v>LOCKLEAR</v>
       </c>
       <c r="M112" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>2.9537037036789116E-2</v>
       </c>
       <c r="N112" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>42.533333332976326</v>
       </c>
       <c r="O112" s="13"/>
@@ -11634,27 +11629,27 @@
       <c r="Q112" s="61"/>
       <c r="R112" s="61"/>
       <c r="T112" s="73" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 16:50:52-0600',mode:absolute,to:'2016-06-05 17:36:43-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4018%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U112" s="73" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="36"/>
         <v>N</v>
       </c>
       <c r="V112" s="73">
-        <f t="shared" si="45"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="W112" s="73">
-        <f t="shared" si="46"/>
+        <f t="shared" si="31"/>
         <v>4.7800000000000002E-2</v>
       </c>
       <c r="X112" s="73">
-        <f t="shared" si="47"/>
+        <f t="shared" si="32"/>
         <v>23.3401</v>
       </c>
       <c r="Y112" s="73">
-        <f t="shared" si="48"/>
+        <f t="shared" si="38"/>
         <v>23.292300000000001</v>
       </c>
       <c r="Z112" s="74">
@@ -11698,7 +11693,7 @@
         <v>1</v>
       </c>
       <c r="K113" s="60" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>4017/4018</v>
       </c>
       <c r="L113" s="60" t="str">
@@ -11706,11 +11701,11 @@
         <v>LOCKLEAR</v>
       </c>
       <c r="M113" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>2.6736111110949423E-2</v>
       </c>
       <c r="N113" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>38.499999999767169</v>
       </c>
       <c r="O113" s="13"/>
@@ -11718,27 +11713,27 @@
       <c r="Q113" s="61"/>
       <c r="R113" s="61"/>
       <c r="T113" s="73" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 17:52:20-0600',mode:absolute,to:'2016-06-05 18:33:47-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4017%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U113" s="73" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="36"/>
         <v>N</v>
       </c>
       <c r="V113" s="73">
-        <f t="shared" si="45"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="W113" s="73">
-        <f t="shared" si="46"/>
+        <f t="shared" si="31"/>
         <v>23.311499999999999</v>
       </c>
       <c r="X113" s="73">
-        <f t="shared" si="47"/>
+        <f t="shared" si="32"/>
         <v>1.49E-2</v>
       </c>
       <c r="Y113" s="73">
-        <f t="shared" si="48"/>
+        <f t="shared" si="38"/>
         <v>23.296599999999998</v>
       </c>
       <c r="Z113" s="74">
@@ -11782,7 +11777,7 @@
         <v>0</v>
       </c>
       <c r="K114" s="60" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>4031/4032</v>
       </c>
       <c r="L114" s="60" t="str">
@@ -11790,11 +11785,11 @@
         <v>YORK</v>
       </c>
       <c r="M114" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>2.6782407403516117E-2</v>
       </c>
       <c r="N114" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>38.566666661063209</v>
       </c>
       <c r="O114" s="13"/>
@@ -11802,27 +11797,27 @@
       <c r="Q114" s="61"/>
       <c r="R114" s="61"/>
       <c r="T114" s="73" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 17:08:52-0600',mode:absolute,to:'2016-06-05 17:51:42-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4031%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U114" s="73" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="36"/>
         <v>N</v>
       </c>
       <c r="V114" s="73">
-        <f t="shared" si="45"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="W114" s="73">
-        <f t="shared" si="46"/>
+        <f t="shared" si="31"/>
         <v>4.53E-2</v>
       </c>
       <c r="X114" s="73">
-        <f t="shared" si="47"/>
+        <f t="shared" si="32"/>
         <v>23.331199999999999</v>
       </c>
       <c r="Y114" s="73">
-        <f t="shared" si="48"/>
+        <f t="shared" si="38"/>
         <v>23.285899999999998</v>
       </c>
       <c r="Z114" s="74" t="e">
@@ -11866,7 +11861,7 @@
         <v>0</v>
       </c>
       <c r="K115" s="60" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>4031/4032</v>
       </c>
       <c r="L115" s="60" t="str">
@@ -11874,11 +11869,11 @@
         <v>YORK</v>
       </c>
       <c r="M115" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>1.1423611111240461E-2</v>
       </c>
       <c r="N115" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>16.450000000186265</v>
       </c>
       <c r="O115" s="13"/>
@@ -11886,27 +11881,27 @@
       <c r="Q115" s="61"/>
       <c r="R115" s="61"/>
       <c r="T115" s="73" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 18:01:10-0600',mode:absolute,to:'2016-06-05 18:21:05-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4032%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U115" s="73" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="36"/>
         <v>Y</v>
       </c>
       <c r="V115" s="73">
-        <f t="shared" si="45"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="W115" s="73">
-        <f t="shared" si="46"/>
+        <f t="shared" si="31"/>
         <v>23.299299999999999</v>
       </c>
       <c r="X115" s="73">
-        <f t="shared" si="47"/>
+        <f t="shared" si="32"/>
         <v>18.199100000000001</v>
       </c>
       <c r="Y115" s="73">
-        <f t="shared" si="48"/>
+        <f t="shared" si="38"/>
         <v>5.1001999999999974</v>
       </c>
       <c r="Z115" s="74">
@@ -11950,7 +11945,7 @@
         <v>0</v>
       </c>
       <c r="K116" s="60" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>4011/4012</v>
       </c>
       <c r="L116" s="60" t="str">
@@ -11958,11 +11953,11 @@
         <v>STEWART</v>
       </c>
       <c r="M116" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>2.8078703704522923E-2</v>
       </c>
       <c r="N116" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>40.433333334513009</v>
       </c>
       <c r="O116" s="13"/>
@@ -11970,27 +11965,27 @@
       <c r="Q116" s="61"/>
       <c r="R116" s="61"/>
       <c r="T116" s="73" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 17:21:28-0600',mode:absolute,to:'2016-06-05 18:06:13-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4011%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U116" s="73" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="36"/>
         <v>N</v>
       </c>
       <c r="V116" s="73">
-        <f t="shared" si="45"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="W116" s="73">
-        <f t="shared" si="46"/>
+        <f t="shared" si="31"/>
         <v>5.8200000000000002E-2</v>
       </c>
       <c r="X116" s="73">
-        <f t="shared" si="47"/>
+        <f t="shared" si="32"/>
         <v>23.329699999999999</v>
       </c>
       <c r="Y116" s="73">
-        <f t="shared" si="48"/>
+        <f t="shared" si="38"/>
         <v>23.2715</v>
       </c>
       <c r="Z116" s="74" t="e">
@@ -12034,7 +12029,7 @@
         <v>1</v>
       </c>
       <c r="K117" s="60" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>4011/4012</v>
       </c>
       <c r="L117" s="60" t="str">
@@ -12042,11 +12037,11 @@
         <v>STEWART</v>
       </c>
       <c r="M117" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>3.0740740738110617E-2</v>
       </c>
       <c r="N117" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>44.266666662879288</v>
       </c>
       <c r="O117" s="13"/>
@@ -12054,27 +12049,27 @@
       <c r="Q117" s="61"/>
       <c r="R117" s="61"/>
       <c r="T117" s="73" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 18:20:07-0600',mode:absolute,to:'2016-06-05 19:07:52-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4012%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U117" s="73" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="36"/>
         <v>N</v>
       </c>
       <c r="V117" s="73">
-        <f t="shared" si="45"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="W117" s="73">
-        <f t="shared" si="46"/>
+        <f t="shared" si="31"/>
         <v>23.297799999999999</v>
       </c>
       <c r="X117" s="73">
-        <f t="shared" si="47"/>
+        <f t="shared" si="32"/>
         <v>2.58E-2</v>
       </c>
       <c r="Y117" s="73">
-        <f t="shared" si="48"/>
+        <f t="shared" si="38"/>
         <v>23.271999999999998</v>
       </c>
       <c r="Z117" s="74">
@@ -12118,7 +12113,7 @@
         <v>0</v>
       </c>
       <c r="K118" s="60" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>4027/4028</v>
       </c>
       <c r="L118" s="60" t="str">
@@ -12126,11 +12121,11 @@
         <v>YOUNG</v>
       </c>
       <c r="M118" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>2.7268518519122154E-2</v>
       </c>
       <c r="N118" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>39.266666667535901</v>
       </c>
       <c r="O118" s="13"/>
@@ -12138,27 +12133,27 @@
       <c r="Q118" s="61"/>
       <c r="R118" s="61"/>
       <c r="T118" s="73" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 17:42:24-0600',mode:absolute,to:'2016-06-05 18:25:25-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4027%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U118" s="73" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="36"/>
         <v>N</v>
       </c>
       <c r="V118" s="73">
-        <f t="shared" si="45"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="W118" s="73">
-        <f t="shared" si="46"/>
+        <f t="shared" ref="W118:W149" si="40">RIGHT(D118,LEN(D118)-4)/10000</f>
         <v>4.7300000000000002E-2</v>
       </c>
       <c r="X118" s="73">
-        <f t="shared" si="47"/>
+        <f t="shared" ref="X118:X149" si="41">RIGHT(H118,LEN(H118)-4)/10000</f>
         <v>23.33</v>
       </c>
       <c r="Y118" s="73">
-        <f t="shared" si="48"/>
+        <f t="shared" si="38"/>
         <v>23.282699999999998</v>
       </c>
       <c r="Z118" s="74" t="e">
@@ -12202,7 +12197,7 @@
         <v>0</v>
       </c>
       <c r="K119" s="60" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>4027/4028</v>
       </c>
       <c r="L119" s="60" t="str">
@@ -12210,11 +12205,11 @@
         <v>YOUNG</v>
       </c>
       <c r="M119" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>3.4722222226264421E-2</v>
       </c>
       <c r="N119" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>50.000000005820766</v>
       </c>
       <c r="O119" s="13"/>
@@ -12222,27 +12217,27 @@
       <c r="Q119" s="61"/>
       <c r="R119" s="61"/>
       <c r="T119" s="73" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 18:29:17-0600',mode:absolute,to:'2016-06-05 19:22:40-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4028%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U119" s="73" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="36"/>
         <v>N</v>
       </c>
       <c r="V119" s="73">
-        <f t="shared" si="45"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="W119" s="73">
-        <f t="shared" si="46"/>
+        <f t="shared" si="40"/>
         <v>23.2987</v>
       </c>
       <c r="X119" s="73">
-        <f t="shared" si="47"/>
+        <f t="shared" si="41"/>
         <v>1.54E-2</v>
       </c>
       <c r="Y119" s="73">
-        <f t="shared" si="48"/>
+        <f t="shared" si="38"/>
         <v>23.283300000000001</v>
       </c>
       <c r="Z119" s="74" t="e">
@@ -12286,7 +12281,7 @@
         <v>0</v>
       </c>
       <c r="K120" s="60" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>4039/4040</v>
       </c>
       <c r="L120" s="60" t="str">
@@ -12294,11 +12289,11 @@
         <v>STRICKLAND</v>
       </c>
       <c r="M120" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>2.8969907412829343E-2</v>
       </c>
       <c r="N120" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>41.716666674474254</v>
       </c>
       <c r="O120" s="13"/>
@@ -12306,27 +12301,27 @@
       <c r="Q120" s="61"/>
       <c r="R120" s="61"/>
       <c r="T120" s="73" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 17:52:25-0600',mode:absolute,to:'2016-06-05 18:38:08-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4040%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U120" s="73" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="36"/>
         <v>N</v>
       </c>
       <c r="V120" s="73">
-        <f t="shared" si="45"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="W120" s="73">
-        <f t="shared" si="46"/>
+        <f t="shared" si="40"/>
         <v>4.6899999999999997E-2</v>
       </c>
       <c r="X120" s="73">
-        <f t="shared" si="47"/>
+        <f t="shared" si="41"/>
         <v>23.328800000000001</v>
       </c>
       <c r="Y120" s="73">
-        <f t="shared" si="48"/>
+        <f t="shared" si="38"/>
         <v>23.2819</v>
       </c>
       <c r="Z120" s="74" t="e">
@@ -12370,7 +12365,7 @@
         <v>0</v>
       </c>
       <c r="K121" s="60" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>4039/4040</v>
       </c>
       <c r="L121" s="60" t="str">
@@ -12378,11 +12373,11 @@
         <v>STRICKLAND</v>
       </c>
       <c r="M121" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>3.400462962599704E-2</v>
       </c>
       <c r="N121" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>48.966666661435738</v>
       </c>
       <c r="O121" s="13"/>
@@ -12390,27 +12385,27 @@
       <c r="Q121" s="61"/>
       <c r="R121" s="61"/>
       <c r="T121" s="73" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 18:41:26-0600',mode:absolute,to:'2016-06-05 19:34:53-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4039%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U121" s="73" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="36"/>
         <v>N</v>
       </c>
       <c r="V121" s="73">
-        <f t="shared" si="45"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="W121" s="73">
-        <f t="shared" si="46"/>
+        <f t="shared" si="40"/>
         <v>23.2986</v>
       </c>
       <c r="X121" s="73">
-        <f t="shared" si="47"/>
+        <f t="shared" si="41"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="Y121" s="73">
-        <f t="shared" si="48"/>
+        <f t="shared" si="38"/>
         <v>23.2836</v>
       </c>
       <c r="Z121" s="74" t="e">
@@ -12454,7 +12449,7 @@
         <v>0</v>
       </c>
       <c r="K122" s="60" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>4023/4024</v>
       </c>
       <c r="L122" s="60" t="str">
@@ -12462,11 +12457,11 @@
         <v>HONTZ</v>
       </c>
       <c r="M122" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>2.8680555551545694E-2</v>
       </c>
       <c r="N122" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>41.2999999942258</v>
       </c>
       <c r="O122" s="13"/>
@@ -12474,27 +12469,27 @@
       <c r="Q122" s="61"/>
       <c r="R122" s="61"/>
       <c r="T122" s="73" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 18:06:32-0600',mode:absolute,to:'2016-06-05 18:51:30-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U122" s="73" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="36"/>
         <v>N</v>
       </c>
       <c r="V122" s="73">
-        <f t="shared" si="45"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="W122" s="73">
-        <f t="shared" si="46"/>
+        <f t="shared" si="40"/>
         <v>4.4400000000000002E-2</v>
       </c>
       <c r="X122" s="73">
-        <f t="shared" si="47"/>
+        <f t="shared" si="41"/>
         <v>23.331399999999999</v>
       </c>
       <c r="Y122" s="73">
-        <f t="shared" si="48"/>
+        <f t="shared" si="38"/>
         <v>23.286999999999999</v>
       </c>
       <c r="Z122" s="74" t="e">
@@ -12538,7 +12533,7 @@
         <v>0</v>
       </c>
       <c r="K123" s="60" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>4023/4024</v>
       </c>
       <c r="L123" s="60" t="str">
@@ -12546,11 +12541,11 @@
         <v>HONTZ</v>
       </c>
       <c r="M123" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>2.8877314813144039E-2</v>
       </c>
       <c r="N123" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>41.583333330927417</v>
       </c>
       <c r="O123" s="13"/>
@@ -12558,27 +12553,27 @@
       <c r="Q123" s="61"/>
       <c r="R123" s="61"/>
       <c r="T123" s="73" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 19:03:42-0600',mode:absolute,to:'2016-06-05 19:48:49-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U123" s="73" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="36"/>
         <v>N</v>
       </c>
       <c r="V123" s="73">
-        <f t="shared" si="45"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="W123" s="73">
-        <f t="shared" si="46"/>
+        <f t="shared" si="40"/>
         <v>23.299399999999999</v>
       </c>
       <c r="X123" s="73">
-        <f t="shared" si="47"/>
+        <f t="shared" si="41"/>
         <v>1.61E-2</v>
       </c>
       <c r="Y123" s="73">
-        <f t="shared" si="48"/>
+        <f t="shared" si="38"/>
         <v>23.283299999999997</v>
       </c>
       <c r="Z123" s="74" t="e">
@@ -12622,7 +12617,7 @@
         <v>0</v>
       </c>
       <c r="K124" s="60" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>4009/4010</v>
       </c>
       <c r="L124" s="60" t="str">
@@ -12630,11 +12625,11 @@
         <v>BARTLETT</v>
       </c>
       <c r="M124" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>2.8703703705104999E-2</v>
       </c>
       <c r="N124" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>41.333333335351199</v>
       </c>
       <c r="O124" s="13"/>
@@ -12642,27 +12637,27 @@
       <c r="Q124" s="61"/>
       <c r="R124" s="61"/>
       <c r="T124" s="73" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 18:22:24-0600',mode:absolute,to:'2016-06-05 19:07:33-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4009%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U124" s="73" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="36"/>
         <v>N</v>
       </c>
       <c r="V124" s="73">
-        <f t="shared" si="45"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="W124" s="73">
-        <f t="shared" si="46"/>
+        <f t="shared" si="40"/>
         <v>4.5499999999999999E-2</v>
       </c>
       <c r="X124" s="73">
-        <f t="shared" si="47"/>
+        <f t="shared" si="41"/>
         <v>23.330300000000001</v>
       </c>
       <c r="Y124" s="73">
-        <f t="shared" si="48"/>
+        <f t="shared" si="38"/>
         <v>23.284800000000001</v>
       </c>
       <c r="Z124" s="74" t="e">
@@ -12706,7 +12701,7 @@
         <v>0</v>
       </c>
       <c r="K125" s="60" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>4009/4010</v>
       </c>
       <c r="L125" s="60" t="str">
@@ -12714,11 +12709,11 @@
         <v>BARTLETT</v>
       </c>
       <c r="M125" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>3.665509259008104E-2</v>
       </c>
       <c r="N125" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>52.783333329716697</v>
       </c>
       <c r="O125" s="13"/>
@@ -12726,27 +12721,27 @@
       <c r="Q125" s="61"/>
       <c r="R125" s="61"/>
       <c r="T125" s="73" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 19:08:38-0600',mode:absolute,to:'2016-06-05 20:05:09-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4010%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U125" s="73" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="36"/>
         <v>N</v>
       </c>
       <c r="V125" s="73">
-        <f t="shared" si="45"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="W125" s="73">
-        <f t="shared" si="46"/>
+        <f t="shared" si="40"/>
         <v>23.2986</v>
       </c>
       <c r="X125" s="73">
-        <f t="shared" si="47"/>
+        <f t="shared" si="41"/>
         <v>1.5599999999999999E-2</v>
       </c>
       <c r="Y125" s="73">
-        <f t="shared" si="48"/>
+        <f t="shared" si="38"/>
         <v>23.283000000000001</v>
       </c>
       <c r="Z125" s="74" t="e">
@@ -12790,7 +12785,7 @@
         <v>0</v>
       </c>
       <c r="K126" s="60" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>4031/4032</v>
       </c>
       <c r="L126" s="60" t="str">
@@ -12798,11 +12793,11 @@
         <v>YORK</v>
       </c>
       <c r="M126" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>2.5520833332848269E-2</v>
       </c>
       <c r="N126" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>36.749999999301508</v>
       </c>
       <c r="O126" s="13"/>
@@ -12810,27 +12805,27 @@
       <c r="Q126" s="61"/>
       <c r="R126" s="61"/>
       <c r="T126" s="73" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 18:56:26-0600',mode:absolute,to:'2016-06-05 19:36:40-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4031%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U126" s="73" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="36"/>
         <v>N</v>
       </c>
       <c r="V126" s="73">
-        <f t="shared" si="45"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="W126" s="73">
-        <f t="shared" si="46"/>
+        <f t="shared" si="40"/>
         <v>6.0100000000000001E-2</v>
       </c>
       <c r="X126" s="73">
-        <f t="shared" si="47"/>
+        <f t="shared" si="41"/>
         <v>23.331900000000001</v>
       </c>
       <c r="Y126" s="73">
-        <f t="shared" si="48"/>
+        <f t="shared" si="38"/>
         <v>23.271800000000002</v>
       </c>
       <c r="Z126" s="74" t="e">
@@ -12874,7 +12869,7 @@
         <v>0</v>
       </c>
       <c r="K127" s="60" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>4031/4032</v>
       </c>
       <c r="L127" s="60" t="str">
@@ -12882,11 +12877,11 @@
         <v>YORK</v>
       </c>
       <c r="M127" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>2.8541666666569654E-2</v>
       </c>
       <c r="N127" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>41.099999999860302</v>
       </c>
       <c r="O127" s="13"/>
@@ -12894,27 +12889,27 @@
       <c r="Q127" s="61"/>
       <c r="R127" s="61"/>
       <c r="T127" s="73" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 19:50:54-0600',mode:absolute,to:'2016-06-05 20:35:28-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4032%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U127" s="73" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="36"/>
         <v>N</v>
       </c>
       <c r="V127" s="73">
-        <f t="shared" si="45"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="W127" s="73">
-        <f t="shared" si="46"/>
+        <f t="shared" si="40"/>
         <v>23.298300000000001</v>
       </c>
       <c r="X127" s="73">
-        <f t="shared" si="47"/>
+        <f t="shared" si="41"/>
         <v>1.61E-2</v>
       </c>
       <c r="Y127" s="73">
-        <f t="shared" si="48"/>
+        <f t="shared" si="38"/>
         <v>23.2822</v>
       </c>
       <c r="Z127" s="74" t="e">
@@ -12958,7 +12953,7 @@
         <v>0</v>
       </c>
       <c r="K128" s="60" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>4027/4028</v>
       </c>
       <c r="L128" s="60" t="str">
@@ -12966,11 +12961,11 @@
         <v>YOUNG</v>
       </c>
       <c r="M128" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>2.8668981482042E-2</v>
       </c>
       <c r="N128" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>41.28333333414048</v>
       </c>
       <c r="O128" s="13"/>
@@ -12978,27 +12973,27 @@
       <c r="Q128" s="61"/>
       <c r="R128" s="61"/>
       <c r="T128" s="73" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 19:25:56-0600',mode:absolute,to:'2016-06-05 20:10:39-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4027%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U128" s="73" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="36"/>
         <v>N</v>
       </c>
       <c r="V128" s="73">
-        <f t="shared" si="45"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="W128" s="73">
-        <f t="shared" si="46"/>
+        <f t="shared" si="40"/>
         <v>4.7100000000000003E-2</v>
       </c>
       <c r="X128" s="73">
-        <f t="shared" si="47"/>
+        <f t="shared" si="41"/>
         <v>23.3309</v>
       </c>
       <c r="Y128" s="73">
-        <f t="shared" si="48"/>
+        <f t="shared" si="38"/>
         <v>23.283799999999999</v>
       </c>
       <c r="Z128" s="74" t="e">
@@ -13042,7 +13037,7 @@
         <v>0</v>
       </c>
       <c r="K129" s="60" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>4027/4028</v>
       </c>
       <c r="L129" s="60" t="str">
@@ -13050,11 +13045,11 @@
         <v>YOUNG</v>
       </c>
       <c r="M129" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>3.5300925919727888E-2</v>
       </c>
       <c r="N129" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>50.833333324408159</v>
       </c>
       <c r="O129" s="13"/>
@@ -13062,27 +13057,27 @@
       <c r="Q129" s="61"/>
       <c r="R129" s="61"/>
       <c r="T129" s="73" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 20:18:04-0600',mode:absolute,to:'2016-06-05 21:12:30-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4028%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U129" s="73" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="36"/>
         <v>N</v>
       </c>
       <c r="V129" s="73">
-        <f t="shared" si="45"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="W129" s="73">
-        <f t="shared" si="46"/>
+        <f t="shared" si="40"/>
         <v>23.298999999999999</v>
       </c>
       <c r="X129" s="73">
-        <f t="shared" si="47"/>
+        <f t="shared" si="41"/>
         <v>1.6E-2</v>
       </c>
       <c r="Y129" s="73">
-        <f t="shared" si="48"/>
+        <f t="shared" si="38"/>
         <v>23.283000000000001</v>
       </c>
       <c r="Z129" s="74" t="e">
@@ -13126,7 +13121,7 @@
         <v>0</v>
       </c>
       <c r="K130" s="60" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>4023/4024</v>
       </c>
       <c r="L130" s="60" t="str">
@@ -13134,11 +13129,11 @@
         <v>HONTZ</v>
       </c>
       <c r="M130" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>7.5231481459923089E-3</v>
       </c>
       <c r="N130" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>10.833333330228925</v>
       </c>
       <c r="O130" s="13"/>
@@ -13146,27 +13141,27 @@
       <c r="Q130" s="61"/>
       <c r="R130" s="61"/>
       <c r="T130" s="73" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 19:52:41-0600',mode:absolute,to:'2016-06-05 20:06:51-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U130" s="73" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="36"/>
         <v>Y</v>
       </c>
       <c r="V130" s="73">
-        <f t="shared" si="45"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="W130" s="73">
-        <f t="shared" si="46"/>
+        <f t="shared" si="40"/>
         <v>4.5100000000000001E-2</v>
       </c>
       <c r="X130" s="73">
-        <f t="shared" si="47"/>
+        <f t="shared" si="41"/>
         <v>1.927</v>
       </c>
       <c r="Y130" s="73">
-        <f t="shared" si="48"/>
+        <f t="shared" si="38"/>
         <v>1.8819000000000001</v>
       </c>
       <c r="Z130" s="74" t="e">
@@ -13210,7 +13205,7 @@
         <v>0</v>
       </c>
       <c r="K131" s="60" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" ref="K131:K149" si="42">IF(ISEVEN(B131),(B131-1)&amp;"/"&amp;B131,B131&amp;"/"&amp;(B131+1))</f>
         <v>4023/4024</v>
       </c>
       <c r="L131" s="60" t="str">
@@ -13218,11 +13213,11 @@
         <v>HONTZ</v>
       </c>
       <c r="M131" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" ref="M131:M149" si="43">I131-F131</f>
         <v>3.8009259260434192E-2</v>
       </c>
       <c r="N131" s="13">
-        <f t="shared" ref="N131:P149" si="52">24*60*SUM($M131:$M131)</f>
+        <f t="shared" si="39"/>
         <v>54.733333335025236</v>
       </c>
       <c r="O131" s="13"/>
@@ -13230,27 +13225,27 @@
       <c r="Q131" s="61"/>
       <c r="R131" s="61"/>
       <c r="T131" s="73" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" ref="T131:T149" si="44">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E131-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I131+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B131&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 20:37:07-0600',mode:absolute,to:'2016-06-05 21:35:02-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U131" s="73" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" ref="U131:U149" si="45">IF(Y131&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V131" s="73">
-        <f t="shared" si="45"/>
+        <f t="shared" ref="V131:V149" si="46">VALUE(LEFT(A131,3))-VALUE(LEFT(A130,3))</f>
         <v>1</v>
       </c>
       <c r="W131" s="73">
-        <f t="shared" si="46"/>
+        <f t="shared" si="40"/>
         <v>23.3002</v>
       </c>
       <c r="X131" s="73">
-        <f t="shared" si="47"/>
+        <f t="shared" si="41"/>
         <v>1.5800000000000002E-2</v>
       </c>
       <c r="Y131" s="73">
-        <f t="shared" si="48"/>
+        <f t="shared" ref="Y131:Y162" si="47">ABS(X131-W131)</f>
         <v>23.284400000000002</v>
       </c>
       <c r="Z131" s="74" t="e">
@@ -13294,7 +13289,7 @@
         <v>0</v>
       </c>
       <c r="K132" s="60" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>4009/4010</v>
       </c>
       <c r="L132" s="60" t="str">
@@ -13302,11 +13297,11 @@
         <v>BARTLETT</v>
       </c>
       <c r="M132" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>3.4270833333721384E-2</v>
       </c>
       <c r="N132" s="13">
-        <f t="shared" si="52"/>
+        <f t="shared" si="39"/>
         <v>49.350000000558794</v>
       </c>
       <c r="O132" s="13"/>
@@ -13314,27 +13309,27 @@
       <c r="Q132" s="61"/>
       <c r="R132" s="61"/>
       <c r="T132" s="73" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 20:14:19-0600',mode:absolute,to:'2016-06-05 21:08:19-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4009%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U132" s="73" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>N</v>
       </c>
       <c r="V132" s="73">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="W132" s="73">
-        <f t="shared" si="46"/>
+        <f t="shared" si="40"/>
         <v>4.6399999999999997E-2</v>
       </c>
       <c r="X132" s="73">
+        <f t="shared" si="41"/>
+        <v>23.327400000000001</v>
+      </c>
+      <c r="Y132" s="73">
         <f t="shared" si="47"/>
-        <v>23.327400000000001</v>
-      </c>
-      <c r="Y132" s="73">
-        <f t="shared" si="48"/>
         <v>23.281000000000002</v>
       </c>
       <c r="Z132" s="74" t="e">
@@ -13378,7 +13373,7 @@
         <v>0</v>
       </c>
       <c r="K133" s="60" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>4009/4010</v>
       </c>
       <c r="L133" s="60" t="str">
@@ -13386,11 +13381,11 @@
         <v>BARTLETT</v>
       </c>
       <c r="M133" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>3.6412037035916001E-2</v>
       </c>
       <c r="N133" s="13">
-        <f t="shared" si="52"/>
+        <f t="shared" si="39"/>
         <v>52.433333331719041</v>
       </c>
       <c r="O133" s="13"/>
@@ -13398,27 +13393,27 @@
       <c r="Q133" s="61"/>
       <c r="R133" s="61"/>
       <c r="T133" s="73" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 21:10:24-0600',mode:absolute,to:'2016-06-05 22:06:12-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4010%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U133" s="73" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>N</v>
       </c>
       <c r="V133" s="73">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="W133" s="73">
-        <f t="shared" si="46"/>
+        <f t="shared" si="40"/>
         <v>23.298300000000001</v>
       </c>
       <c r="X133" s="73">
+        <f t="shared" si="41"/>
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="Y133" s="73">
         <f t="shared" si="47"/>
-        <v>1.6500000000000001E-2</v>
-      </c>
-      <c r="Y133" s="73">
-        <f t="shared" si="48"/>
         <v>23.2818</v>
       </c>
       <c r="Z133" s="74" t="e">
@@ -13462,7 +13457,7 @@
         <v>0</v>
       </c>
       <c r="K134" s="60" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>4031/4032</v>
       </c>
       <c r="L134" s="60" t="str">
@@ -13470,11 +13465,11 @@
         <v>YORK</v>
       </c>
       <c r="M134" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>2.7939814819546882E-2</v>
       </c>
       <c r="N134" s="13">
-        <f t="shared" si="52"/>
+        <f t="shared" si="39"/>
         <v>40.23333334014751</v>
       </c>
       <c r="O134" s="13"/>
@@ -13482,27 +13477,27 @@
       <c r="Q134" s="61"/>
       <c r="R134" s="61"/>
       <c r="T134" s="73" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 20:53:04-0600',mode:absolute,to:'2016-06-05 21:36:33-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4031%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U134" s="73" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>N</v>
       </c>
       <c r="V134" s="73">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="W134" s="73">
-        <f t="shared" si="46"/>
+        <f t="shared" si="40"/>
         <v>4.6399999999999997E-2</v>
       </c>
       <c r="X134" s="73">
+        <f t="shared" si="41"/>
+        <v>23.330100000000002</v>
+      </c>
+      <c r="Y134" s="73">
         <f t="shared" si="47"/>
-        <v>23.330100000000002</v>
-      </c>
-      <c r="Y134" s="73">
-        <f t="shared" si="48"/>
         <v>23.283700000000003</v>
       </c>
       <c r="Z134" s="74" t="e">
@@ -13546,7 +13541,7 @@
         <v>2</v>
       </c>
       <c r="K135" s="60" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>4031/4032</v>
       </c>
       <c r="L135" s="60" t="str">
@@ -13554,11 +13549,11 @@
         <v>YORK</v>
       </c>
       <c r="M135" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>3.1006944445834961E-2</v>
       </c>
       <c r="N135" s="13">
-        <f t="shared" si="52"/>
+        <f t="shared" si="39"/>
         <v>44.650000002002344</v>
       </c>
       <c r="O135" s="13"/>
@@ -13566,27 +13561,27 @@
       <c r="Q135" s="61"/>
       <c r="R135" s="61"/>
       <c r="T135" s="73" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 21:50:51-0600',mode:absolute,to:'2016-06-05 22:38:51-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4032%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U135" s="73" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>N</v>
       </c>
       <c r="V135" s="73">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="W135" s="73">
-        <f t="shared" si="46"/>
+        <f t="shared" si="40"/>
         <v>23.297499999999999</v>
       </c>
       <c r="X135" s="73">
+        <f t="shared" si="41"/>
+        <v>4.0399999999999998E-2</v>
+      </c>
+      <c r="Y135" s="73">
         <f t="shared" si="47"/>
-        <v>4.0399999999999998E-2</v>
-      </c>
-      <c r="Y135" s="73">
-        <f t="shared" si="48"/>
         <v>23.257099999999998</v>
       </c>
       <c r="Z135" s="74">
@@ -13630,7 +13625,7 @@
         <v>0</v>
       </c>
       <c r="K136" s="60" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>4027/4028</v>
       </c>
       <c r="L136" s="60" t="str">
@@ -13638,11 +13633,11 @@
         <v>YOUNG</v>
       </c>
       <c r="M136" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>3.7372685183072463E-2</v>
       </c>
       <c r="N136" s="13">
-        <f t="shared" si="52"/>
+        <f t="shared" si="39"/>
         <v>53.816666663624346</v>
       </c>
       <c r="O136" s="13"/>
@@ -13650,27 +13645,27 @@
       <c r="Q136" s="61"/>
       <c r="R136" s="61"/>
       <c r="T136" s="73" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 21:13:55-0600',mode:absolute,to:'2016-06-05 22:11:11-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4027%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U136" s="73" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>N</v>
       </c>
       <c r="V136" s="73">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="W136" s="73">
-        <f t="shared" si="46"/>
+        <f t="shared" si="40"/>
         <v>4.5699999999999998E-2</v>
       </c>
       <c r="X136" s="73">
+        <f t="shared" si="41"/>
+        <v>23.331</v>
+      </c>
+      <c r="Y136" s="73">
         <f t="shared" si="47"/>
-        <v>23.331</v>
-      </c>
-      <c r="Y136" s="73">
-        <f t="shared" si="48"/>
         <v>23.285299999999999</v>
       </c>
       <c r="Z136" s="74" t="e">
@@ -13714,7 +13709,7 @@
         <v>0</v>
       </c>
       <c r="K137" s="60" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>4027/4028</v>
       </c>
       <c r="L137" s="60" t="str">
@@ -13722,11 +13717,11 @@
         <v>YOUNG</v>
       </c>
       <c r="M137" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>3.7777777775772847E-2</v>
       </c>
       <c r="N137" s="13">
-        <f t="shared" si="52"/>
+        <f t="shared" si="39"/>
         <v>54.3999999971129</v>
       </c>
       <c r="O137" s="13"/>
@@ -13734,27 +13729,27 @@
       <c r="Q137" s="61"/>
       <c r="R137" s="61"/>
       <c r="T137" s="73" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 22:11:41-0600',mode:absolute,to:'2016-06-05 23:09:05-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4028%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U137" s="73" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>N</v>
       </c>
       <c r="V137" s="73">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="W137" s="73">
-        <f t="shared" si="46"/>
+        <f t="shared" si="40"/>
         <v>23.3</v>
       </c>
       <c r="X137" s="73">
+        <f t="shared" si="41"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="Y137" s="73">
         <f t="shared" si="47"/>
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="Y137" s="73">
-        <f t="shared" si="48"/>
         <v>23.285</v>
       </c>
       <c r="Z137" s="74" t="e">
@@ -13798,7 +13793,7 @@
         <v>0</v>
       </c>
       <c r="K138" s="60" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>4023/4024</v>
       </c>
       <c r="L138" s="60" t="str">
@@ -13806,11 +13801,11 @@
         <v>HONTZ</v>
       </c>
       <c r="M138" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>3.8784722222771961E-2</v>
       </c>
       <c r="N138" s="13">
-        <f t="shared" si="52"/>
+        <f t="shared" si="39"/>
         <v>55.850000000791624</v>
       </c>
       <c r="O138" s="13"/>
@@ -13818,27 +13813,27 @@
       <c r="Q138" s="61"/>
       <c r="R138" s="61"/>
       <c r="T138" s="73" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 21:37:14-0600',mode:absolute,to:'2016-06-05 22:36:41-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U138" s="73" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>N</v>
       </c>
       <c r="V138" s="73">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="W138" s="73">
-        <f t="shared" si="46"/>
+        <f t="shared" si="40"/>
         <v>4.7800000000000002E-2</v>
       </c>
       <c r="X138" s="73">
+        <f t="shared" si="41"/>
+        <v>23.331</v>
+      </c>
+      <c r="Y138" s="73">
         <f t="shared" si="47"/>
-        <v>23.331</v>
-      </c>
-      <c r="Y138" s="73">
-        <f t="shared" si="48"/>
         <v>23.283200000000001</v>
       </c>
       <c r="Z138" s="74" t="e">
@@ -13882,7 +13877,7 @@
         <v>1</v>
       </c>
       <c r="K139" s="60" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>4023/4024</v>
       </c>
       <c r="L139" s="60" t="str">
@@ -13890,11 +13885,11 @@
         <v>HONTZ</v>
       </c>
       <c r="M139" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>3.7164351851970423E-2</v>
       </c>
       <c r="N139" s="13">
-        <f t="shared" si="52"/>
+        <f t="shared" si="39"/>
         <v>53.516666666837409</v>
       </c>
       <c r="O139" s="13"/>
@@ -13902,27 +13897,27 @@
       <c r="Q139" s="61"/>
       <c r="R139" s="61"/>
       <c r="T139" s="73" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 22:37:25-0600',mode:absolute,to:'2016-06-05 23:34:10-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U139" s="73" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>N</v>
       </c>
       <c r="V139" s="73">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="W139" s="73">
-        <f t="shared" si="46"/>
+        <f t="shared" si="40"/>
         <v>23.300799999999999</v>
       </c>
       <c r="X139" s="73">
+        <f t="shared" si="41"/>
+        <v>1.61E-2</v>
+      </c>
+      <c r="Y139" s="73">
         <f t="shared" si="47"/>
-        <v>1.61E-2</v>
-      </c>
-      <c r="Y139" s="73">
-        <f t="shared" si="48"/>
         <v>23.284699999999997</v>
       </c>
       <c r="Z139" s="74">
@@ -13966,7 +13961,7 @@
         <v>0</v>
       </c>
       <c r="K140" s="60" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>4009/4010</v>
       </c>
       <c r="L140" s="60" t="str">
@@ -13974,11 +13969,11 @@
         <v>BARTLETT</v>
       </c>
       <c r="M140" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>3.089120369986631E-2</v>
       </c>
       <c r="N140" s="13">
-        <f t="shared" si="52"/>
+        <f t="shared" si="39"/>
         <v>44.483333327807486</v>
       </c>
       <c r="O140" s="13"/>
@@ -13986,27 +13981,27 @@
       <c r="Q140" s="61"/>
       <c r="R140" s="61"/>
       <c r="T140" s="73" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 22:19:33-0600',mode:absolute,to:'2016-06-05 23:08:00-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4009%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U140" s="73" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>N</v>
       </c>
       <c r="V140" s="73">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="W140" s="73">
-        <f t="shared" si="46"/>
+        <f t="shared" si="40"/>
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="X140" s="73">
+        <f t="shared" si="41"/>
+        <v>23.3291</v>
+      </c>
+      <c r="Y140" s="73">
         <f t="shared" si="47"/>
-        <v>23.3291</v>
-      </c>
-      <c r="Y140" s="73">
-        <f t="shared" si="48"/>
         <v>23.281100000000002</v>
       </c>
       <c r="Z140" s="74" t="e">
@@ -14050,7 +14045,7 @@
         <v>0</v>
       </c>
       <c r="K141" s="60" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>4009/4010</v>
       </c>
       <c r="L141" s="60" t="str">
@@ -14058,11 +14053,11 @@
         <v>BARTLETT</v>
       </c>
       <c r="M141" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>3.0023148152395152E-2</v>
       </c>
       <c r="N141" s="13">
-        <f t="shared" si="52"/>
+        <f t="shared" si="39"/>
         <v>43.233333339449018</v>
       </c>
       <c r="O141" s="13"/>
@@ -14070,27 +14065,27 @@
       <c r="Q141" s="61"/>
       <c r="R141" s="61"/>
       <c r="T141" s="73" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 23:19:57-0600',mode:absolute,to:'2016-06-06 00:06:34-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4010%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U141" s="73" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>N</v>
       </c>
       <c r="V141" s="73">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="W141" s="73">
-        <f t="shared" si="46"/>
+        <f t="shared" si="40"/>
         <v>23.297699999999999</v>
       </c>
       <c r="X141" s="73">
+        <f t="shared" si="41"/>
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="Y141" s="73">
         <f t="shared" si="47"/>
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="Y141" s="73">
-        <f t="shared" si="48"/>
         <v>23.2807</v>
       </c>
       <c r="Z141" s="74" t="e">
@@ -14134,7 +14129,7 @@
         <v>0</v>
       </c>
       <c r="K142" s="60" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>4031/4032</v>
       </c>
       <c r="L142" s="60" t="str">
@@ -14142,11 +14137,11 @@
         <v>YORK</v>
       </c>
       <c r="M142" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>2.6145833333430346E-2</v>
       </c>
       <c r="N142" s="13">
-        <f t="shared" si="52"/>
+        <f t="shared" si="39"/>
         <v>37.650000000139698</v>
       </c>
       <c r="O142" s="13"/>
@@ -14154,27 +14149,27 @@
       <c r="Q142" s="61"/>
       <c r="R142" s="61"/>
       <c r="T142" s="73" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 22:55:45-0600',mode:absolute,to:'2016-06-05 23:36:44-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4031%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U142" s="73" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>N</v>
       </c>
       <c r="V142" s="73">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="W142" s="73">
-        <f t="shared" si="46"/>
+        <f t="shared" si="40"/>
         <v>7.1300000000000002E-2</v>
       </c>
       <c r="X142" s="73">
+        <f t="shared" si="41"/>
+        <v>23.3306</v>
+      </c>
+      <c r="Y142" s="73">
         <f t="shared" si="47"/>
-        <v>23.3306</v>
-      </c>
-      <c r="Y142" s="73">
-        <f t="shared" si="48"/>
         <v>23.2593</v>
       </c>
       <c r="Z142" s="74" t="e">
@@ -14218,7 +14213,7 @@
         <v>0</v>
       </c>
       <c r="K143" s="60" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>4031/4032</v>
       </c>
       <c r="L143" s="60" t="str">
@@ -14226,13 +14221,13 @@
         <v>YORK</v>
       </c>
       <c r="M143" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>9.7222222393611446E-4</v>
       </c>
       <c r="N143" s="13"/>
       <c r="O143" s="13"/>
       <c r="P143" s="13">
-        <f t="shared" si="52"/>
+        <f>24*60*SUM($M143:$M143)</f>
         <v>1.4000000024680048</v>
       </c>
       <c r="Q143" s="61"/>
@@ -14240,27 +14235,27 @@
         <v>121</v>
       </c>
       <c r="T143" s="73" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 23:51:04-0600',mode:absolute,to:'2016-06-05 23:56:00-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4032%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U143" s="73" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>N</v>
       </c>
       <c r="V143" s="73">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="W143" s="73">
-        <f t="shared" si="46"/>
+        <f t="shared" si="40"/>
         <v>23.299299999999999</v>
       </c>
       <c r="X143" s="73">
+        <f t="shared" si="41"/>
+        <v>1.4500000000000001E-2</v>
+      </c>
+      <c r="Y143" s="73">
         <f t="shared" si="47"/>
-        <v>1.4500000000000001E-2</v>
-      </c>
-      <c r="Y143" s="73">
-        <f t="shared" si="48"/>
         <v>23.284799999999997</v>
       </c>
       <c r="Z143" s="74" t="e">
@@ -14304,7 +14299,7 @@
         <v>1</v>
       </c>
       <c r="K144" s="60" t="str">
-        <f t="shared" ref="K144:K146" si="53">IF(ISEVEN(B144),(B144-1)&amp;"/"&amp;B144,B144&amp;"/"&amp;(B144+1))</f>
+        <f t="shared" si="42"/>
         <v>4027/4028</v>
       </c>
       <c r="L144" s="60" t="str">
@@ -14312,11 +14307,11 @@
         <v>YOUNG</v>
       </c>
       <c r="M144" s="12">
-        <f t="shared" ref="M144:M146" si="54">I144-F144</f>
+        <f t="shared" si="43"/>
         <v>3.7499999998544808E-2</v>
       </c>
       <c r="N144" s="13">
-        <f t="shared" si="52"/>
+        <f t="shared" ref="N144:N149" si="48">24*60*SUM($M144:$M144)</f>
         <v>53.999999997904524</v>
       </c>
       <c r="O144" s="13"/>
@@ -14324,27 +14319,27 @@
       <c r="Q144" s="61"/>
       <c r="R144" s="61"/>
       <c r="T144" s="73" t="str">
-        <f t="shared" ref="T144:T146" si="55">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E144-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I144+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B144&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="44"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 23:13:13-0600',mode:absolute,to:'2016-06-06 00:10:38-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4027%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U144" s="73" t="str">
-        <f t="shared" ref="U144:U146" si="56">IF(Y144&lt;23,"Y","N")</f>
+        <f t="shared" si="45"/>
         <v>N</v>
       </c>
       <c r="V144" s="73">
-        <f t="shared" ref="V144:V146" si="57">VALUE(LEFT(A144,3))-VALUE(LEFT(A143,3))</f>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="W144" s="73">
-        <f t="shared" ref="W144:W146" si="58">RIGHT(D144,LEN(D144)-4)/10000</f>
+        <f t="shared" si="40"/>
         <v>4.4699999999999997E-2</v>
       </c>
       <c r="X144" s="73">
-        <f t="shared" ref="X144:X146" si="59">RIGHT(H144,LEN(H144)-4)/10000</f>
+        <f t="shared" si="41"/>
         <v>23.329699999999999</v>
       </c>
       <c r="Y144" s="73">
-        <f t="shared" ref="Y144:Y146" si="60">ABS(X144-W144)</f>
+        <f t="shared" si="47"/>
         <v>23.285</v>
       </c>
       <c r="Z144" s="74">
@@ -14388,7 +14383,7 @@
         <v>0</v>
       </c>
       <c r="K145" s="60" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="42"/>
         <v>4027/4028</v>
       </c>
       <c r="L145" s="60" t="str">
@@ -14396,11 +14391,11 @@
         <v>YOUNG</v>
       </c>
       <c r="M145" s="12">
-        <f t="shared" si="54"/>
+        <f t="shared" si="43"/>
         <v>4.4675925921183079E-2</v>
       </c>
       <c r="N145" s="13">
-        <f t="shared" si="52"/>
+        <f t="shared" si="48"/>
         <v>64.333333326503634</v>
       </c>
       <c r="O145" s="13"/>
@@ -14408,27 +14403,27 @@
       <c r="Q145" s="61"/>
       <c r="R145" s="61"/>
       <c r="T145" s="73" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="44"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-06 00:12:42-0600',mode:absolute,to:'2016-06-06 01:20:11-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4028%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U145" s="73" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="45"/>
         <v>N</v>
       </c>
       <c r="V145" s="73">
-        <f t="shared" si="57"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="W145" s="73">
-        <f t="shared" si="58"/>
+        <f t="shared" si="40"/>
         <v>23.2986</v>
       </c>
       <c r="X145" s="73">
-        <f t="shared" si="59"/>
+        <f t="shared" si="41"/>
         <v>1.52E-2</v>
       </c>
       <c r="Y145" s="73">
-        <f t="shared" si="60"/>
+        <f t="shared" si="47"/>
         <v>23.2834</v>
       </c>
       <c r="Z145" s="74" t="e">
@@ -14472,7 +14467,7 @@
         <v>0</v>
       </c>
       <c r="K146" s="60" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="42"/>
         <v>4023/4024</v>
       </c>
       <c r="L146" s="60" t="str">
@@ -14480,11 +14475,11 @@
         <v>HONTZ</v>
       </c>
       <c r="M146" s="12">
-        <f t="shared" si="54"/>
+        <f t="shared" si="43"/>
         <v>4.277777778042946E-2</v>
       </c>
       <c r="N146" s="13">
-        <f t="shared" si="52"/>
+        <f t="shared" si="48"/>
         <v>61.600000003818423</v>
       </c>
       <c r="O146" s="13"/>
@@ -14492,27 +14487,27 @@
       <c r="Q146" s="61"/>
       <c r="R146" s="61"/>
       <c r="T146" s="73" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="44"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 23:35:05-0600',mode:absolute,to:'2016-06-06 00:40:05-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U146" s="73" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="45"/>
         <v>N</v>
       </c>
       <c r="V146" s="73">
-        <f t="shared" si="57"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="W146" s="73">
-        <f t="shared" si="58"/>
+        <f t="shared" si="40"/>
         <v>4.9700000000000001E-2</v>
       </c>
       <c r="X146" s="73">
-        <f t="shared" si="59"/>
+        <f t="shared" si="41"/>
         <v>23.3293</v>
       </c>
       <c r="Y146" s="73">
-        <f t="shared" si="60"/>
+        <f t="shared" si="47"/>
         <v>23.279599999999999</v>
       </c>
       <c r="Z146" s="74" t="e">
@@ -14556,7 +14551,7 @@
         <v>0</v>
       </c>
       <c r="K147" s="60" t="str">
-        <f t="shared" ref="K147:K149" si="61">IF(ISEVEN(B147),(B147-1)&amp;"/"&amp;B147,B147&amp;"/"&amp;(B147+1))</f>
+        <f t="shared" si="42"/>
         <v>4023/4024</v>
       </c>
       <c r="L147" s="60" t="str">
@@ -14564,11 +14559,11 @@
         <v>HONTZ</v>
       </c>
       <c r="M147" s="12">
-        <f t="shared" ref="M147:M149" si="62">I147-F147</f>
+        <f t="shared" si="43"/>
         <v>4.0694444440305233E-2</v>
       </c>
       <c r="N147" s="13">
-        <f t="shared" si="52"/>
+        <f t="shared" si="48"/>
         <v>58.599999994039536</v>
       </c>
       <c r="O147" s="13"/>
@@ -14576,27 +14571,27 @@
       <c r="Q147" s="61"/>
       <c r="R147" s="61"/>
       <c r="T147" s="73" t="str">
-        <f t="shared" ref="T147:T149" si="63">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E147-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I147+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B147&amp;"%22')),sort:!(Time,asc))"</f>
+        <f t="shared" si="44"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-06 00:40:41-0600',mode:absolute,to:'2016-06-06 01:42:30-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U147" s="73" t="str">
-        <f t="shared" ref="U147:U149" si="64">IF(Y147&lt;23,"Y","N")</f>
+        <f t="shared" si="45"/>
         <v>N</v>
       </c>
       <c r="V147" s="73">
-        <f t="shared" ref="V147:V149" si="65">VALUE(LEFT(A147,3))-VALUE(LEFT(A146,3))</f>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="W147" s="73">
-        <f t="shared" ref="W147:W149" si="66">RIGHT(D147,LEN(D147)-4)/10000</f>
+        <f t="shared" si="40"/>
         <v>23.298999999999999</v>
       </c>
       <c r="X147" s="73">
-        <f t="shared" ref="X147:X149" si="67">RIGHT(H147,LEN(H147)-4)/10000</f>
+        <f t="shared" si="41"/>
         <v>1.47E-2</v>
       </c>
       <c r="Y147" s="73">
-        <f t="shared" ref="Y147:Y149" si="68">ABS(X147-W147)</f>
+        <f t="shared" si="47"/>
         <v>23.284299999999998</v>
       </c>
       <c r="Z147" s="74" t="e">
@@ -14640,7 +14635,7 @@
         <v>0</v>
       </c>
       <c r="K148" s="60" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="42"/>
         <v>4009/4010</v>
       </c>
       <c r="L148" s="60" t="str">
@@ -14648,11 +14643,11 @@
         <v>BARTLETT</v>
       </c>
       <c r="M148" s="12">
-        <f t="shared" si="62"/>
+        <f t="shared" si="43"/>
         <v>3.5729166665987577E-2</v>
       </c>
       <c r="N148" s="13">
-        <f t="shared" si="52"/>
+        <f t="shared" si="48"/>
         <v>51.449999999022111</v>
       </c>
       <c r="O148" s="13"/>
@@ -14660,27 +14655,27 @@
       <c r="Q148" s="61"/>
       <c r="R148" s="61"/>
       <c r="T148" s="73" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="44"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-06 00:16:53-0600',mode:absolute,to:'2016-06-06 01:12:18-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4009%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U148" s="73" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="45"/>
         <v>N</v>
       </c>
       <c r="V148" s="73">
-        <f t="shared" si="65"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="W148" s="73">
-        <f t="shared" si="66"/>
+        <f t="shared" si="40"/>
         <v>4.9700000000000001E-2</v>
       </c>
       <c r="X148" s="73">
-        <f t="shared" si="67"/>
+        <f t="shared" si="41"/>
         <v>23.325500000000002</v>
       </c>
       <c r="Y148" s="73">
-        <f t="shared" si="68"/>
+        <f t="shared" si="47"/>
         <v>23.2758</v>
       </c>
       <c r="Z148" s="74" t="e">
@@ -14724,7 +14719,7 @@
         <v>0</v>
       </c>
       <c r="K149" s="60" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="42"/>
         <v>4009/4010</v>
       </c>
       <c r="L149" s="60" t="str">
@@ -14732,11 +14727,11 @@
         <v>BARTLETT</v>
       </c>
       <c r="M149" s="12">
-        <f t="shared" si="62"/>
+        <f t="shared" si="43"/>
         <v>3.0231481483497191E-2</v>
       </c>
       <c r="N149" s="13">
-        <f t="shared" si="52"/>
+        <f t="shared" si="48"/>
         <v>43.533333336235955</v>
       </c>
       <c r="O149" s="13"/>
@@ -14744,27 +14739,27 @@
       <c r="Q149" s="61"/>
       <c r="R149" s="61"/>
       <c r="T149" s="73" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="44"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-06 01:19:03-0600',mode:absolute,to:'2016-06-06 02:06:17-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4010%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U149" s="73" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="45"/>
         <v>N</v>
       </c>
       <c r="V149" s="73">
-        <f t="shared" si="65"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="W149" s="73">
-        <f t="shared" si="66"/>
+        <f t="shared" si="40"/>
         <v>23.297000000000001</v>
       </c>
       <c r="X149" s="73">
-        <f t="shared" si="67"/>
+        <f t="shared" si="41"/>
         <v>1.78E-2</v>
       </c>
       <c r="Y149" s="73">
-        <f t="shared" si="68"/>
+        <f t="shared" si="47"/>
         <v>23.279199999999999</v>
       </c>
       <c r="Z149" s="74" t="e">
@@ -15027,7 +15022,7 @@
       <c r="L157" s="3"/>
       <c r="M157" s="70">
         <f>AVERAGE(N3:P149)</f>
-        <v>42.69710648128239</v>
+        <v>42.784027777597657</v>
       </c>
       <c r="N157" s="6">
         <f>MIN(N3:O149)</f>
@@ -15250,8 +15245,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A2:AA149">
-    <sortState ref="A3:AA151">
-      <sortCondition ref="A2:A151"/>
+    <sortState ref="A3:AA149">
+      <sortCondition ref="A2:A149"/>
     </sortState>
   </autoFilter>
   <sortState ref="A3:Y144">
@@ -15314,8 +15309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15446,7 +15441,7 @@
         <v>85</v>
       </c>
       <c r="N3" s="21" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="P3" s="80" t="str">
         <f>VLOOKUP(C3,'Train Runs'!$A$3:$T$258,20,0)</f>
@@ -15499,7 +15494,7 @@
         <v>71</v>
       </c>
       <c r="N4" s="21" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="P4" s="80" t="str">
         <f>VLOOKUP(C4,'Train Runs'!$A$3:$T$258,20,0)</f>
@@ -15552,7 +15547,7 @@
         <v>71</v>
       </c>
       <c r="N5" s="21" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="P5" s="80" t="str">
         <f>VLOOKUP(C5,'Train Runs'!$A$3:$T$258,20,0)</f>
@@ -16319,7 +16314,7 @@
         <v>71</v>
       </c>
       <c r="N20" s="21" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="P20" s="80" t="str">
         <f>VLOOKUP(C20,'Train Runs'!$A$3:$T$258,20,0)</f>
@@ -16372,7 +16367,7 @@
         <v>71</v>
       </c>
       <c r="N21" s="21" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="P21" s="80" t="str">
         <f>VLOOKUP(C21,'Train Runs'!$A$3:$T$258,20,0)</f>
@@ -16535,7 +16530,7 @@
       </c>
       <c r="P24" s="80" t="str">
         <f>VLOOKUP(C24,'Train Runs'!$A$3:$T$258,20,0)</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 13:04:33-0600',mode:absolute,to:'2016-06-05 13:34:20-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4032%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 13:32:20-0600',mode:absolute,to:'2016-06-05 13:44:48-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4032%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q24" s="19" t="str">
         <f t="shared" si="1"/>
@@ -16584,7 +16579,7 @@
         <v>85</v>
       </c>
       <c r="N25" s="21" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="P25" s="80" t="str">
         <f>VLOOKUP(C25,'Train Runs'!$A$3:$T$258,20,0)</f>
@@ -16637,7 +16632,7 @@
         <v>85</v>
       </c>
       <c r="N26" s="21" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="P26" s="80" t="str">
         <f>VLOOKUP(C26,'Train Runs'!$A$3:$T$258,20,0)</f>
@@ -16690,7 +16685,7 @@
         <v>71</v>
       </c>
       <c r="N27" s="21" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="P27" s="80" t="str">
         <f>VLOOKUP(C27,'Train Runs'!$A$3:$T$258,20,0)</f>

--- a/EC/Train Runs and Enforcements 2016-06-05.xlsx
+++ b/EC/Train Runs and Enforcements 2016-06-05.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1530" uniqueCount="441">
   <si>
     <t>Train ID</t>
   </si>
@@ -1374,6 +1374,9 @@
   </si>
   <si>
     <t>Onboard comms</t>
+  </si>
+  <si>
+    <t>Poor GPS at DIA</t>
   </si>
 </sst>
 </file>
@@ -1665,7 +1668,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1867,6 +1870,10 @@
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2291,8 +2298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CK166"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R46" sqref="R46"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A119" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M154" sqref="M154:O154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2325,25 +2332,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:89" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="92" t="str">
+      <c r="A1" s="94" t="str">
         <f>"Eagle P3 System Performance - "&amp;TEXT(Variables!A2,"yyyy-mm-dd")</f>
         <v>Eagle P3 System Performance - 2016-06-05</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
     </row>
     <row r="2" spans="1:89" s="11" customFormat="1" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="45" t="s">
@@ -6129,7 +6136,7 @@
         <v>2.9710648144828156E-2</v>
       </c>
       <c r="N46" s="13">
-        <f t="shared" ref="N46:N72" si="19">24*60*SUM($M46:$M46)</f>
+        <f t="shared" ref="N46:P72" si="19">24*60*SUM($M46:$M46)</f>
         <v>42.783333328552544</v>
       </c>
       <c r="O46" s="13"/>
@@ -7388,14 +7395,16 @@
         <f t="shared" si="14"/>
         <v>1.0277777779265307E-2</v>
       </c>
-      <c r="N61" s="13">
+      <c r="N61" s="13"/>
+      <c r="O61" s="13"/>
+      <c r="P61" s="13">
         <f t="shared" si="19"/>
         <v>14.800000002142042</v>
       </c>
-      <c r="O61" s="13"/>
-      <c r="P61" s="13"/>
       <c r="Q61" s="61"/>
-      <c r="R61" s="61"/>
+      <c r="R61" s="61" t="s">
+        <v>440</v>
+      </c>
       <c r="T61" s="73" t="str">
         <f t="shared" si="15"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 11:28:05-0600',mode:absolute,to:'2016-06-05 11:46:42-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4028%22')),sort:!(Time,asc))</v>
@@ -11855,7 +11864,7 @@
         <v>295</v>
       </c>
       <c r="I115" s="30">
-        <v>42526.76394675926</v>
+        <v>42526.785879629628</v>
       </c>
       <c r="J115" s="60">
         <v>0</v>
@@ -11870,11 +11879,11 @@
       </c>
       <c r="M115" s="12">
         <f t="shared" si="34"/>
-        <v>1.1423611111240461E-2</v>
+        <v>3.3356481479131617E-2</v>
       </c>
       <c r="N115" s="13">
         <f t="shared" si="39"/>
-        <v>16.450000000186265</v>
+        <v>48.033333329949528</v>
       </c>
       <c r="O115" s="13"/>
       <c r="P115" s="13"/>
@@ -11882,11 +11891,11 @@
       <c r="R115" s="61"/>
       <c r="T115" s="73" t="str">
         <f t="shared" si="35"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 18:01:10-0600',mode:absolute,to:'2016-06-05 18:21:05-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4032%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 18:01:10-0600',mode:absolute,to:'2016-06-05 18:52:40-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4032%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U115" s="73" t="str">
         <f t="shared" si="36"/>
-        <v>Y</v>
+        <v>N</v>
       </c>
       <c r="V115" s="73">
         <f t="shared" si="37"/>
@@ -11897,12 +11906,11 @@
         <v>23.299299999999999</v>
       </c>
       <c r="X115" s="73">
-        <f t="shared" si="32"/>
-        <v>18.199100000000001</v>
+        <v>2.9600000000000001E-2</v>
       </c>
       <c r="Y115" s="73">
         <f t="shared" si="38"/>
-        <v>5.1001999999999974</v>
+        <v>23.2697</v>
       </c>
       <c r="Z115" s="74">
         <f>VLOOKUP(A115,Enforcements!$C$3:$J$53,8,0)</f>
@@ -12213,9 +12221,9 @@
         <v>50.000000005820766</v>
       </c>
       <c r="O119" s="13"/>
-      <c r="P119" s="13"/>
-      <c r="Q119" s="61"/>
-      <c r="R119" s="61"/>
+      <c r="P119" s="86"/>
+      <c r="Q119" s="85"/>
+      <c r="R119" s="85"/>
       <c r="T119" s="73" t="str">
         <f t="shared" si="35"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 18:29:17-0600',mode:absolute,to:'2016-06-05 19:22:40-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4028%22')),sort:!(Time,asc))</v>
@@ -13115,7 +13123,7 @@
         <v>316</v>
       </c>
       <c r="I130" s="30">
-        <v>42526.837395833332</v>
+        <v>42526.858113425929</v>
       </c>
       <c r="J130" s="60">
         <v>0</v>
@@ -13130,11 +13138,11 @@
       </c>
       <c r="M130" s="12">
         <f t="shared" si="34"/>
-        <v>7.5231481459923089E-3</v>
+        <v>2.8240740743058268E-2</v>
       </c>
       <c r="N130" s="13">
         <f t="shared" si="39"/>
-        <v>10.833333330228925</v>
+        <v>40.666666670003906</v>
       </c>
       <c r="O130" s="13"/>
       <c r="P130" s="13"/>
@@ -13142,11 +13150,11 @@
       <c r="R130" s="61"/>
       <c r="T130" s="73" t="str">
         <f t="shared" si="35"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 19:52:41-0600',mode:absolute,to:'2016-06-05 20:06:51-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 19:52:41-0600',mode:absolute,to:'2016-06-05 20:36:41-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U130" s="73" t="str">
         <f t="shared" si="36"/>
-        <v>Y</v>
+        <v>N</v>
       </c>
       <c r="V130" s="73">
         <f t="shared" si="37"/>
@@ -13157,12 +13165,11 @@
         <v>4.5100000000000001E-2</v>
       </c>
       <c r="X130" s="73">
-        <f t="shared" si="41"/>
-        <v>1.927</v>
+        <v>23.331499999999998</v>
       </c>
       <c r="Y130" s="73">
         <f t="shared" si="38"/>
-        <v>1.8819000000000001</v>
+        <v>23.286399999999997</v>
       </c>
       <c r="Z130" s="74" t="e">
         <f>VLOOKUP(A130,Enforcements!$C$3:$J$53,8,0)</f>
@@ -13190,7 +13197,7 @@
         <v>42526.859803240739</v>
       </c>
       <c r="F131" s="30">
-        <v>42526.860625000001</v>
+        <v>42526.872627314813</v>
       </c>
       <c r="G131" s="38">
         <v>1</v>
@@ -13214,11 +13221,11 @@
       </c>
       <c r="M131" s="12">
         <f t="shared" ref="M131:M149" si="43">I131-F131</f>
-        <v>3.8009259260434192E-2</v>
+        <v>2.6006944448454306E-2</v>
       </c>
       <c r="N131" s="13">
         <f t="shared" si="39"/>
-        <v>54.733333335025236</v>
+        <v>37.4500000057742</v>
       </c>
       <c r="O131" s="13"/>
       <c r="P131" s="13"/>
@@ -13245,7 +13252,7 @@
         <v>1.5800000000000002E-2</v>
       </c>
       <c r="Y131" s="73">
-        <f t="shared" ref="Y131:Y162" si="47">ABS(X131-W131)</f>
+        <f t="shared" ref="Y131:Y149" si="47">ABS(X131-W131)</f>
         <v>23.284400000000002</v>
       </c>
       <c r="Z131" s="74" t="e">
@@ -13778,7 +13785,7 @@
         <v>42526.901550925926</v>
       </c>
       <c r="F138" s="30">
-        <v>42526.902662037035</v>
+        <v>42526.917060185187</v>
       </c>
       <c r="G138" s="38">
         <v>1</v>
@@ -13802,11 +13809,11 @@
       </c>
       <c r="M138" s="12">
         <f t="shared" si="43"/>
-        <v>3.8784722222771961E-2</v>
+        <v>2.438657407037681E-2</v>
       </c>
       <c r="N138" s="13">
         <f t="shared" si="39"/>
-        <v>55.850000000791624</v>
+        <v>35.116666661342606</v>
       </c>
       <c r="O138" s="13"/>
       <c r="P138" s="13"/>
@@ -14368,7 +14375,7 @@
         <v>42527.009513888886</v>
       </c>
       <c r="F145" s="30">
-        <v>42527.010312500002</v>
+        <v>42527.018472222226</v>
       </c>
       <c r="G145" s="38">
         <v>1</v>
@@ -14392,11 +14399,11 @@
       </c>
       <c r="M145" s="12">
         <f t="shared" si="43"/>
-        <v>4.4675925921183079E-2</v>
+        <v>3.6516203697829042E-2</v>
       </c>
       <c r="N145" s="13">
         <f t="shared" si="48"/>
-        <v>64.333333326503634</v>
+        <v>52.58333332487382</v>
       </c>
       <c r="O145" s="13"/>
       <c r="P145" s="13"/>
@@ -14452,7 +14459,7 @@
         <v>42526.983391203707</v>
       </c>
       <c r="F146" s="30">
-        <v>42526.984363425923</v>
+        <v>42527.000393518516</v>
       </c>
       <c r="G146" s="38">
         <v>1</v>
@@ -14476,11 +14483,11 @@
       </c>
       <c r="M146" s="12">
         <f t="shared" si="43"/>
-        <v>4.277777778042946E-2</v>
+        <v>2.6747685187729076E-2</v>
       </c>
       <c r="N146" s="13">
         <f t="shared" si="48"/>
-        <v>61.600000003818423</v>
+        <v>38.516666670329869</v>
       </c>
       <c r="O146" s="13"/>
       <c r="P146" s="13"/>
@@ -14536,7 +14543,7 @@
         <v>42527.028946759259</v>
       </c>
       <c r="F147" s="30">
-        <v>42527.029791666668</v>
+        <v>42527.039548611108</v>
       </c>
       <c r="G147" s="38">
         <v>1</v>
@@ -14560,11 +14567,11 @@
       </c>
       <c r="M147" s="12">
         <f t="shared" si="43"/>
-        <v>4.0694444440305233E-2</v>
+        <v>3.0937499999708962E-2</v>
       </c>
       <c r="N147" s="13">
         <f t="shared" si="48"/>
-        <v>58.599999994039536</v>
+        <v>44.549999999580905</v>
       </c>
       <c r="O147" s="13"/>
       <c r="P147" s="13"/>
@@ -14804,18 +14811,18 @@
       <c r="F151" s="31"/>
       <c r="G151" s="39"/>
       <c r="H151" s="31"/>
-      <c r="I151" s="85">
+      <c r="I151" s="87">
         <f>Variables!A2</f>
         <v>42526</v>
       </c>
-      <c r="J151" s="86"/>
+      <c r="J151" s="88"/>
       <c r="K151" s="75"/>
       <c r="L151" s="75"/>
-      <c r="M151" s="87" t="s">
+      <c r="M151" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="N151" s="88"/>
-      <c r="O151" s="89"/>
+      <c r="N151" s="90"/>
+      <c r="O151" s="91"/>
       <c r="P151" s="5"/>
       <c r="T151" s="56"/>
       <c r="U151" s="56"/>
@@ -14831,10 +14838,10 @@
       <c r="F152" s="31"/>
       <c r="G152" s="39"/>
       <c r="H152" s="31"/>
-      <c r="I152" s="90" t="s">
+      <c r="I152" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="J152" s="91"/>
+      <c r="J152" s="93"/>
       <c r="K152" s="35"/>
       <c r="L152" s="58"/>
       <c r="M152" s="9" t="s">
@@ -14899,21 +14906,21 @@
       </c>
       <c r="J154" s="3">
         <f>COUNT(N3:N149)</f>
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K154" s="3"/>
       <c r="L154" s="3"/>
       <c r="M154" s="70">
         <f>AVERAGE(N3:N149)</f>
-        <v>43.450362318519339</v>
+        <v>43.473479318429114</v>
       </c>
       <c r="N154" s="6">
         <f>MIN(N3:N149)</f>
-        <v>10.833333330228925</v>
+        <v>35.116666661342606</v>
       </c>
       <c r="O154" s="7">
         <f>MAX(N3:N149)</f>
-        <v>64.333333326503634</v>
+        <v>54.3999999971129</v>
       </c>
       <c r="P154" s="5"/>
       <c r="T154" s="56"/>
@@ -14980,7 +14987,7 @@
       </c>
       <c r="J156" s="3">
         <f>COUNT(P3:P149)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K156" s="3"/>
       <c r="L156" s="3"/>
@@ -15016,21 +15023,21 @@
       </c>
       <c r="J157" s="3">
         <f>COUNT(N3:O149)</f>
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K157" s="3"/>
       <c r="L157" s="3"/>
       <c r="M157" s="70">
         <f>AVERAGE(N3:P149)</f>
-        <v>42.784027777597657</v>
+        <v>42.607060185036971</v>
       </c>
       <c r="N157" s="6">
         <f>MIN(N3:O149)</f>
-        <v>10.833333330228925</v>
+        <v>35.116666661342606</v>
       </c>
       <c r="O157" s="7">
         <f>MAX(N3:O149)</f>
-        <v>64.333333326503634</v>
+        <v>54.3999999971129</v>
       </c>
       <c r="P157" s="5"/>
       <c r="T157" s="56"/>
@@ -15055,7 +15062,7 @@
       </c>
       <c r="J158" s="8">
         <f>J157/J153</f>
-        <v>0.95833333333333337</v>
+        <v>0.95138888888888884</v>
       </c>
       <c r="K158" s="8"/>
       <c r="L158" s="8"/>
@@ -15333,22 +15340,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="str">
+      <c r="A1" s="95" t="str">
         <f>"Eagle P3 Braking Events - "&amp;TEXT(Variables!$A$2,"YYYY-mm-dd")</f>
         <v>Eagle P3 Braking Events - 2016-06-05</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
       <c r="N1" s="27"/>
       <c r="P1" s="79"/>
     </row>
@@ -16742,7 +16749,7 @@
       </c>
       <c r="P28" s="80" t="str">
         <f>VLOOKUP(C28,'Train Runs'!$A$3:$T$258,20,0)</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 18:01:10-0600',mode:absolute,to:'2016-06-05 18:21:05-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4032%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 18:01:10-0600',mode:absolute,to:'2016-06-05 18:52:40-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4032%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q28" s="19" t="str">
         <f t="shared" si="1"/>
@@ -17813,7 +17820,7 @@
       <c r="N49" s="21"/>
       <c r="P49" s="80" t="str">
         <f>VLOOKUP(C49,'Train Runs'!$A$3:$T$258,20,0)</f>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 18:01:10-0600',mode:absolute,to:'2016-06-05 18:21:05-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4032%22')),sort:!(Time,asc))</v>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-05 18:01:10-0600',mode:absolute,to:'2016-06-05 18:52:40-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4032%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q49" s="19" t="str">
         <f t="shared" si="2"/>
